--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700D4671-1B88-40D8-98FB-3EE1DC537346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABEA873-99E5-46C0-A353-E45FC47E3202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="2007nodes" sheetId="4" r:id="rId4"/>
     <sheet name="2008authors" sheetId="5" r:id="rId5"/>
     <sheet name="2008nodes" sheetId="6" r:id="rId6"/>
+    <sheet name="2009authors" sheetId="7" r:id="rId7"/>
+    <sheet name="2009nodes" sheetId="8" r:id="rId8"/>
+    <sheet name="2010authors" sheetId="9" r:id="rId9"/>
+    <sheet name="2010nodes" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="315">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -81,6 +85,57 @@
     <t>Hamada, N</t>
   </si>
   <si>
+    <t>Spies, MR</t>
+  </si>
+  <si>
+    <t>Siegloch, AE</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
+    <t>Prat, N</t>
+  </si>
+  <si>
+    <t>Encalada, AC</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>Callisto, M</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Rolon, AS</t>
+  </si>
+  <si>
+    <t>Landeiro, VL</t>
+  </si>
+  <si>
+    <t>VLL</t>
+  </si>
+  <si>
+    <t>Melo, AS</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Kotzian, CB</t>
+  </si>
+  <si>
+    <t>CBK</t>
+  </si>
+  <si>
+    <t>JSA</t>
+  </si>
+  <si>
+    <t>Roque, FO</t>
+  </si>
+  <si>
     <t>Siqueira, T</t>
   </si>
   <si>
@@ -93,6 +148,9 @@
     <t>Brazil</t>
   </si>
   <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -111,6 +169,12 @@
     <t>MTB</t>
   </si>
   <si>
+    <t>Pringle, CM</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -120,9 +184,15 @@
     <t>USA</t>
   </si>
   <si>
+    <t>Chile</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
@@ -463,13 +533,469 @@
   </si>
   <si>
     <t>England</t>
+  </si>
+  <si>
+    <t>Bini, LM</t>
+  </si>
+  <si>
+    <t>LMBI</t>
+  </si>
+  <si>
+    <t>Cianciaruso, MV</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>de Carvalho, EM</t>
+  </si>
+  <si>
+    <t>EMCA</t>
+  </si>
+  <si>
+    <t>Uieda, VS</t>
+  </si>
+  <si>
+    <t>VSUI</t>
+  </si>
+  <si>
+    <t>MSPI</t>
+  </si>
+  <si>
+    <t>AESI</t>
+  </si>
+  <si>
+    <t>Jorcin, A</t>
+  </si>
+  <si>
+    <t>AJR</t>
+  </si>
+  <si>
+    <t>Nogueira, MG</t>
+  </si>
+  <si>
+    <t>MGNG</t>
+  </si>
+  <si>
+    <t>Belmont, R</t>
+  </si>
+  <si>
+    <t>RBE</t>
+  </si>
+  <si>
+    <t>Wheeler, TA</t>
+  </si>
+  <si>
+    <t>TAWH</t>
+  </si>
+  <si>
+    <t>Sweeney, BW</t>
+  </si>
+  <si>
+    <t>BWSW</t>
+  </si>
+  <si>
+    <t>Flowers, RW</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>Funk, DH</t>
+  </si>
+  <si>
+    <t>DHF</t>
+  </si>
+  <si>
+    <t>Avila, S</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Jackson, JK</t>
+  </si>
+  <si>
+    <t>JKJ</t>
+  </si>
+  <si>
+    <t>Vasquez, D</t>
+  </si>
+  <si>
+    <t>DVZ</t>
+  </si>
+  <si>
+    <t>Lorion, CM</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Kennedy, BP</t>
+  </si>
+  <si>
+    <t>BPK</t>
+  </si>
+  <si>
+    <t>Rios Touma, B</t>
+  </si>
+  <si>
+    <t>Prat Fornells, N</t>
+  </si>
+  <si>
+    <t>NPFL</t>
+  </si>
+  <si>
+    <t>Colon-Gaud, C</t>
+  </si>
+  <si>
+    <t>CCG</t>
+  </si>
+  <si>
+    <t>Whiles, MR</t>
+  </si>
+  <si>
+    <t>MRWS</t>
+  </si>
+  <si>
+    <t>Kilham, SS</t>
+  </si>
+  <si>
+    <t>SSK</t>
+  </si>
+  <si>
+    <t>Lips, KR</t>
+  </si>
+  <si>
+    <t>KRL</t>
+  </si>
+  <si>
+    <t>Connelly, S</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Peterson, SD</t>
+  </si>
+  <si>
+    <t>SDPT</t>
+  </si>
+  <si>
+    <t>Brenes, R</t>
+  </si>
+  <si>
+    <t>RBR</t>
+  </si>
+  <si>
+    <t>ASRL</t>
+  </si>
+  <si>
+    <t>Longo S, M</t>
+  </si>
+  <si>
+    <t>MLG</t>
+  </si>
+  <si>
+    <t>Zamora G, H</t>
+  </si>
+  <si>
+    <t>HZGO</t>
+  </si>
+  <si>
+    <t>Guisande G, C</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>Jairo Ramirez JR</t>
+  </si>
+  <si>
+    <t>JRJR</t>
+  </si>
+  <si>
+    <t>Pereira, D</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>Lucca, JV</t>
+  </si>
+  <si>
+    <t>JVLC</t>
+  </si>
+  <si>
+    <t>Pamplin, PAZ</t>
+  </si>
+  <si>
+    <t>PAZP</t>
+  </si>
+  <si>
+    <t>Gessner, AF</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>Spadano-Albuquerque, AL</t>
+  </si>
+  <si>
+    <t>ALSA</t>
+  </si>
+  <si>
+    <t>Rocha, O</t>
+  </si>
+  <si>
+    <t>ORO</t>
+  </si>
+  <si>
+    <t>Calles, J</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>Ferreira, V</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Canhoto, CM</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>Graca, MAS</t>
+  </si>
+  <si>
+    <t>MASG</t>
+  </si>
+  <si>
+    <t>Buecker, A</t>
+  </si>
+  <si>
+    <t>ABU</t>
+  </si>
+  <si>
+    <t>Sondermann, M</t>
+  </si>
+  <si>
+    <t>MSDN</t>
+  </si>
+  <si>
+    <t>Frede, HG</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>Breuer, L</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>Henriques-Oliveira, AL</t>
+  </si>
+  <si>
+    <t>ALHO</t>
+  </si>
+  <si>
+    <t>Jacobsen, D</t>
+  </si>
+  <si>
+    <t>DJA</t>
+  </si>
+  <si>
+    <t>Dangles, O</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Andino, P</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Espinosa, R</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>Hamerlik, L</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>Cadier, E</t>
+  </si>
+  <si>
+    <t>ECDI</t>
+  </si>
+  <si>
+    <t>Buss, DF</t>
+  </si>
+  <si>
+    <t>DFBU</t>
+  </si>
+  <si>
+    <t>Vitorino, AS</t>
+  </si>
+  <si>
+    <t>ASVT</t>
+  </si>
+  <si>
+    <t>Valdovinos, C</t>
+  </si>
+  <si>
+    <t>CVAV</t>
+  </si>
+  <si>
+    <t>Kiessling, A</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Mardones, M</t>
+  </si>
+  <si>
+    <t>MMDA</t>
+  </si>
+  <si>
+    <t>Moya, C</t>
+  </si>
+  <si>
+    <t>CMY</t>
+  </si>
+  <si>
+    <t>Oyanedel, A</t>
+  </si>
+  <si>
+    <t>AOY</t>
+  </si>
+  <si>
+    <t>Salvo, J</t>
+  </si>
+  <si>
+    <t>Olmos, V</t>
+  </si>
+  <si>
+    <t>VOM</t>
+  </si>
+  <si>
+    <t>Parra, O</t>
+  </si>
+  <si>
+    <t>OPRR</t>
+  </si>
+  <si>
+    <t>Dumas, LL</t>
+  </si>
+  <si>
+    <t>LLD</t>
+  </si>
+  <si>
+    <t>Acosta, R</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>NPT</t>
+  </si>
+  <si>
+    <t>Ribeiro, MC</t>
+  </si>
+  <si>
+    <t>MCRB</t>
+  </si>
+  <si>
+    <t>Tambosi, LR</t>
+  </si>
+  <si>
+    <t>LRTM</t>
+  </si>
+  <si>
+    <t>Ciocheti, G</t>
+  </si>
+  <si>
+    <t>GCI</t>
+  </si>
+  <si>
+    <t>dos Santos, RB</t>
+  </si>
+  <si>
+    <t>RBS</t>
+  </si>
+  <si>
+    <t>Lopes, J</t>
+  </si>
+  <si>
+    <t>JLS</t>
+  </si>
+  <si>
+    <t>dos Santos, KB</t>
+  </si>
+  <si>
+    <t>KBS</t>
+  </si>
+  <si>
+    <t>Ligeiro, R</t>
+  </si>
+  <si>
+    <t>RLG</t>
+  </si>
+  <si>
+    <t>Marques Couceiro, SR</t>
+  </si>
+  <si>
+    <t>SRMC</t>
+  </si>
+  <si>
+    <t>Forsberg, BR</t>
+  </si>
+  <si>
+    <t>BRF</t>
+  </si>
+  <si>
+    <t>Padovesi-Fonseca, C</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Schneck, F</t>
+  </si>
+  <si>
+    <t>FSCH</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,19 +1003,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF231F20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -498,8 +1063,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,10 +1418,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -852,10 +1432,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -866,10 +1446,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -880,10 +1460,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -894,10 +1474,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -908,10 +1488,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -922,10 +1502,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -936,10 +1516,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -950,10 +1530,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -964,10 +1544,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -978,10 +1558,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -992,10 +1572,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1006,10 +1586,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1020,10 +1600,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -1034,16 +1614,1723 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16">
         <v>2006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
+  <dimension ref="A1:G84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="2">
+        <v>16</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="2">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2">
+        <v>18</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2">
+        <v>18</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" s="2">
+        <v>23</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="2">
+        <v>23</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2">
+        <v>23</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="2">
+        <v>23</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="2">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2">
+        <v>25</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2">
+        <v>25</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2">
+        <v>26</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="2">
+        <v>26</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2">
+        <v>26</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="2">
+        <v>26</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="2">
+        <v>26</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="2">
+        <v>26</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="2">
+        <v>26</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2">
+        <v>27</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2">
+        <v>31</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="2">
+        <v>31</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="2">
+        <v>33</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2">
+        <v>33</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="2">
+        <v>33</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2">
+        <v>33</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2">
+        <v>33</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2">
+        <v>33</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2">
+        <v>33</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2">
+        <v>40</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2">
+        <v>40</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2">
+        <v>40</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="2">
+        <v>42</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="2">
+        <v>42</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="2">
+        <v>42</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,24 +3374,24 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>2006</v>
@@ -1112,19 +3399,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>2006</v>
@@ -1132,19 +3419,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>2006</v>
@@ -1152,19 +3439,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>2006</v>
@@ -1175,16 +3462,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>2006</v>
@@ -1192,19 +3479,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>2006</v>
@@ -1215,16 +3502,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>2006</v>
@@ -1232,19 +3519,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>2006</v>
@@ -1255,16 +3542,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>2006</v>
@@ -1275,16 +3562,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>2006</v>
@@ -1292,19 +3579,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>2006</v>
@@ -1312,19 +3599,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>2006</v>
@@ -1332,19 +3619,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>2006</v>
@@ -1352,19 +3639,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>2006</v>
@@ -1372,19 +3659,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>2006</v>
@@ -1392,19 +3679,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>2006</v>
@@ -1412,19 +3699,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>2006</v>
@@ -1435,16 +3722,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>2006</v>
@@ -1452,19 +3739,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>2006</v>
@@ -1472,19 +3759,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>2006</v>
@@ -1492,19 +3779,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>2006</v>
@@ -1541,10 +3828,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1555,10 +3842,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1569,10 +3856,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1583,10 +3870,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1597,10 +3884,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1611,10 +3898,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1625,10 +3912,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1639,10 +3926,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1653,10 +3940,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1667,10 +3954,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1681,10 +3968,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -1695,10 +3982,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -1709,10 +3996,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -1723,10 +4010,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -1737,10 +4024,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1751,10 +4038,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -1765,10 +4052,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -1787,7 +4074,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1818,24 +4105,24 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>2007</v>
@@ -1843,19 +4130,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -1863,19 +4150,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>2007</v>
@@ -1883,19 +4170,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>2007</v>
@@ -1903,19 +4190,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>2007</v>
@@ -1923,19 +4210,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>2007</v>
@@ -1943,19 +4230,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>2007</v>
@@ -1963,19 +4250,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>2007</v>
@@ -1983,19 +4270,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>2007</v>
@@ -2003,19 +4290,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2023,19 +4310,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>2007</v>
@@ -2043,19 +4330,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2063,19 +4350,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>2007</v>
@@ -2083,19 +4370,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>2007</v>
@@ -2103,19 +4390,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>2007</v>
@@ -2123,19 +4410,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>2007</v>
@@ -2143,19 +4430,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>2007</v>
@@ -2163,19 +4450,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>2007</v>
@@ -2183,19 +4470,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>2007</v>
@@ -2203,19 +4490,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>2007</v>
@@ -2223,19 +4510,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>2007</v>
@@ -2243,19 +4530,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>2007</v>
@@ -2292,10 +4579,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2306,10 +4593,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2320,10 +4607,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2334,10 +4621,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2348,10 +4635,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2362,10 +4649,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -2376,10 +4663,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -2390,10 +4677,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -2404,10 +4691,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -2418,10 +4705,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -2440,7 +4727,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,24 +4757,24 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>2008</v>
@@ -2495,19 +4782,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>2008</v>
@@ -2515,19 +4802,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>2008</v>
@@ -2535,19 +4822,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>2008</v>
@@ -2555,19 +4842,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>2008</v>
@@ -2575,19 +4862,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>2008</v>
@@ -2595,19 +4882,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>2008</v>
@@ -2615,19 +4902,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>2008</v>
@@ -2635,19 +4922,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>2008</v>
@@ -2655,19 +4942,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>2008</v>
@@ -2675,19 +4962,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>2008</v>
@@ -2695,19 +4982,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>2008</v>
@@ -2715,19 +5002,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>2008</v>
@@ -2735,19 +5022,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>2008</v>
@@ -2755,19 +5042,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>2008</v>
@@ -2775,22 +5062,2208 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>2008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="2">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="2">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="2">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="2">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="2">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="2">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="2">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="2">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="2">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="2">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="2">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="2">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="2">
+        <v>26</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="2">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="2">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2">
+        <v>26</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="2">
+        <v>26</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" s="2">
+        <v>26</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" s="2">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="2">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="2">
+        <v>31</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="2">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="2">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="2">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="2">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="2">
+        <v>33</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="2">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2">
+        <v>42</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABEA873-99E5-46C0-A353-E45FC47E3202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42ECF18-F151-46B2-BA6D-3BFCD456340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18145C-2A6A-4B4F-A60B-42F255DE5BF1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3343,7 +3343,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6336,7 +6336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42ECF18-F151-46B2-BA6D-3BFCD456340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3992C1-7C0E-4AFB-A14D-93F259BC3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,29 +1003,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF231F20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1048,37 +1035,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18145C-2A6A-4B4F-A60B-42F255DE5BF1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1635,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,7 +1617,7 @@
     <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1673,1663 +1640,1663 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="F2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="F3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="F4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="F5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="F6">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="F7">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="F8">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="F9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="F15">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="F18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>9</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="F19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="F20">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>9</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="F21">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>9</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="F22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="F23">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="F24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
         <v>14</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
         <v>14</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
         <v>14</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>223</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
         <v>15</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
         <v>15</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
         <v>15</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
         <v>15</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
         <v>15</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>16</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>311</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>16</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="F36">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>312</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>16</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="F37">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>312</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>16</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="F38">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>312</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>16</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="F39">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>17</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="F40">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="F41">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>247</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>17</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="F42">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>17</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="F43">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>251</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44">
         <v>18</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45">
         <v>18</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>313</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>23</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="F46">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>256</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>23</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>23</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>259</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>23</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>262</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>314</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>23</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="F50">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>263</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>23</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="F51">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>25</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="F52">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>267</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53">
         <v>25</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>270</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>26</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>26</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>274</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>26</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>275</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>26</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>278</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>26</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>279</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>26</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>281</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>26</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>282</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>283</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>26</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62">
         <v>27</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63">
         <v>27</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>286</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>287</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>31</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="F64">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>288</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>31</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="F65">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="2">
-        <v>33</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="2">
-        <v>33</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="2">
-        <v>33</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>289</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="2">
-        <v>33</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>291</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>292</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="2">
-        <v>33</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>293</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>294</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="2">
-        <v>33</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="2">
-        <v>33</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73">
         <v>40</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>298</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74">
         <v>40</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75">
         <v>40</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>301</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>302</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76">
         <v>42</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="E76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="2">
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77">
         <v>42</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78">
         <v>42</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79">
         <v>43</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="2">
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80">
         <v>43</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>305</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>306</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81">
         <v>43</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>307</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>308</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="2">
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82">
         <v>43</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>309</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>310</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="2">
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83">
         <v>45</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>25</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84">
         <v>45</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="2">
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84">
         <v>2010</v>
       </c>
     </row>
@@ -3343,7 +3310,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C8" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4074,7 +4041,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4727,7 +4694,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="C16" sqref="C16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5513,7 +5480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3992C1-7C0E-4AFB-A14D-93F259BC3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582BB9A-6287-4A5D-A880-5699BF0D7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="323">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -163,9 +163,6 @@
     <t>Latin America</t>
   </si>
   <si>
-    <t>duplicate removed</t>
-  </si>
-  <si>
     <t>MTB</t>
   </si>
   <si>
@@ -989,6 +986,33 @@
   </si>
   <si>
     <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Jour_country</t>
+  </si>
+  <si>
+    <t>Impact_Factor</t>
+  </si>
+  <si>
+    <t>Jour_continent</t>
+  </si>
+  <si>
+    <t>country_study</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1409,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1399,10 +1423,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1413,10 +1437,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1427,10 +1451,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1441,10 +1465,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1455,7 +1479,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -1469,10 +1493,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1483,10 +1507,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1497,10 +1521,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -1511,10 +1535,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1525,10 +1549,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1539,10 +1563,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1553,10 +1577,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1567,10 +1591,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -1581,10 +1605,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1600,24 +1624,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1637,18 +1665,30 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
-        <v>201</v>
-      </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1659,153 +1699,177 @@
       <c r="F2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2010</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
         <v>206</v>
       </c>
-      <c r="B4" t="s">
-        <v>207</v>
-      </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>2010</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
         <v>204</v>
       </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>2010</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
         <v>208</v>
       </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>2010</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
         <v>212</v>
       </c>
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>2010</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
         <v>210</v>
       </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>2010</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1819,13 +1883,16 @@
       <c r="F10">
         <v>2010</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1839,13 +1906,16 @@
       <c r="F11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1859,13 +1929,16 @@
       <c r="F12">
         <v>2010</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s">
         <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1879,13 +1952,16 @@
       <c r="F13">
         <v>2010</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
         <v>217</v>
-      </c>
-      <c r="B14" t="s">
-        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1899,33 +1975,39 @@
       <c r="F14">
         <v>2010</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
         <v>219</v>
       </c>
-      <c r="B15" t="s">
-        <v>220</v>
-      </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>2010</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
         <v>221</v>
-      </c>
-      <c r="B16" t="s">
-        <v>222</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1939,16 +2021,19 @@
       <c r="F16">
         <v>2010</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
         <v>200</v>
       </c>
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -1959,153 +2044,177 @@
       <c r="F17">
         <v>2010</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
         <v>202</v>
       </c>
-      <c r="B18" t="s">
-        <v>203</v>
-      </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>2010</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s">
         <v>212</v>
       </c>
-      <c r="B19" t="s">
-        <v>213</v>
-      </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>2010</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
         <v>204</v>
       </c>
-      <c r="B20" t="s">
-        <v>205</v>
-      </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>2010</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
         <v>206</v>
       </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>2010</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
         <v>208</v>
       </c>
-      <c r="B23" t="s">
-        <v>209</v>
-      </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>2010</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
         <v>210</v>
       </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>2010</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -2119,13 +2228,16 @@
       <c r="F25">
         <v>2010</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -2139,8 +2251,11 @@
       <c r="F26">
         <v>2010</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2159,13 +2274,16 @@
       <c r="F27">
         <v>2010</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
         <v>223</v>
-      </c>
-      <c r="B28" t="s">
-        <v>224</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -2179,13 +2297,16 @@
       <c r="F28">
         <v>2010</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
         <v>225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>226</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -2199,13 +2320,16 @@
       <c r="F29">
         <v>2010</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
         <v>227</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -2219,13 +2343,16 @@
       <c r="F30">
         <v>2010</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
         <v>229</v>
-      </c>
-      <c r="B31" t="s">
-        <v>230</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -2239,13 +2366,16 @@
       <c r="F31">
         <v>2010</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -2259,13 +2389,16 @@
       <c r="F32">
         <v>2010</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" t="s">
         <v>231</v>
-      </c>
-      <c r="B33" t="s">
-        <v>232</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -2279,13 +2412,16 @@
       <c r="F33">
         <v>2010</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
         <v>233</v>
-      </c>
-      <c r="B34" t="s">
-        <v>234</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -2299,8 +2435,11 @@
       <c r="F34">
         <v>2010</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2319,173 +2458,200 @@
       <c r="F35">
         <v>2010</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
         <v>235</v>
       </c>
-      <c r="B36" t="s">
-        <v>236</v>
-      </c>
       <c r="C36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>2010</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
         <v>237</v>
       </c>
-      <c r="B37" t="s">
-        <v>238</v>
-      </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>2010</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" t="s">
-        <v>240</v>
-      </c>
       <c r="C38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>2010</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
         <v>241</v>
       </c>
-      <c r="B39" t="s">
-        <v>242</v>
-      </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>2010</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
         <v>243</v>
       </c>
-      <c r="B40" t="s">
-        <v>244</v>
-      </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>2010</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" t="s">
         <v>245</v>
       </c>
-      <c r="B41" t="s">
-        <v>246</v>
-      </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41">
         <v>2010</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" t="s">
         <v>247</v>
       </c>
-      <c r="B42" t="s">
-        <v>248</v>
-      </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42">
         <v>2010</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
         <v>249</v>
       </c>
-      <c r="B43" t="s">
-        <v>250</v>
-      </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43">
         <v>2010</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" t="s">
         <v>251</v>
-      </c>
-      <c r="B44" t="s">
-        <v>252</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
@@ -2499,13 +2665,16 @@
       <c r="F44">
         <v>2010</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
         <v>159</v>
-      </c>
-      <c r="B45" t="s">
-        <v>160</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
@@ -2519,33 +2688,39 @@
       <c r="F45">
         <v>2010</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
         <v>253</v>
       </c>
-      <c r="B46" t="s">
-        <v>254</v>
-      </c>
       <c r="C46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46">
         <v>2010</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" t="s">
         <v>255</v>
-      </c>
-      <c r="B47" t="s">
-        <v>256</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
@@ -2559,13 +2734,16 @@
       <c r="F47">
         <v>2010</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" t="s">
         <v>257</v>
-      </c>
-      <c r="B48" t="s">
-        <v>258</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -2579,13 +2757,16 @@
       <c r="F48">
         <v>2010</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" t="s">
         <v>259</v>
-      </c>
-      <c r="B49" t="s">
-        <v>260</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -2599,73 +2780,85 @@
       <c r="F49">
         <v>2010</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
         <v>261</v>
       </c>
-      <c r="B50" t="s">
-        <v>262</v>
-      </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D50">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50">
         <v>2010</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" t="s">
         <v>263</v>
       </c>
-      <c r="B51" t="s">
-        <v>264</v>
-      </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51">
         <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>2010</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" t="s">
         <v>265</v>
       </c>
-      <c r="B52" t="s">
-        <v>266</v>
-      </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>2010</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" t="s">
         <v>267</v>
-      </c>
-      <c r="B53" t="s">
-        <v>268</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
@@ -2679,16 +2872,19 @@
       <c r="F53">
         <v>2010</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" t="s">
         <v>269</v>
       </c>
-      <c r="B54" t="s">
-        <v>270</v>
-      </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54">
         <v>26</v>
@@ -2699,16 +2895,19 @@
       <c r="F54">
         <v>2010</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" t="s">
         <v>271</v>
       </c>
-      <c r="B55" t="s">
-        <v>272</v>
-      </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55">
         <v>26</v>
@@ -2719,16 +2918,19 @@
       <c r="F55">
         <v>2010</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" t="s">
         <v>273</v>
       </c>
-      <c r="B56" t="s">
-        <v>274</v>
-      </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>26</v>
@@ -2739,16 +2941,19 @@
       <c r="F56">
         <v>2010</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" t="s">
         <v>275</v>
       </c>
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57">
         <v>26</v>
@@ -2759,16 +2964,19 @@
       <c r="F57">
         <v>2010</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" t="s">
         <v>277</v>
       </c>
-      <c r="B58" t="s">
-        <v>278</v>
-      </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>26</v>
@@ -2779,16 +2987,19 @@
       <c r="F58">
         <v>2010</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59">
         <v>26</v>
@@ -2799,16 +3010,19 @@
       <c r="F59">
         <v>2010</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" t="s">
         <v>280</v>
       </c>
-      <c r="B60" t="s">
-        <v>281</v>
-      </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60">
         <v>26</v>
@@ -2819,16 +3033,19 @@
       <c r="F60">
         <v>2010</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" t="s">
         <v>282</v>
       </c>
-      <c r="B61" t="s">
-        <v>283</v>
-      </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61">
         <v>26</v>
@@ -2839,13 +3056,16 @@
       <c r="F61">
         <v>2010</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" t="s">
-        <v>160</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
@@ -2859,13 +3079,16 @@
       <c r="F62">
         <v>2010</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" t="s">
         <v>284</v>
-      </c>
-      <c r="B63" t="s">
-        <v>285</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
@@ -2879,53 +3102,62 @@
       <c r="F63">
         <v>2010</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" t="s">
         <v>286</v>
       </c>
-      <c r="B64" t="s">
-        <v>287</v>
-      </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64">
         <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F64">
         <v>2010</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65">
         <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F65">
         <v>2010</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
         <v>33</v>
@@ -2939,13 +3171,16 @@
       <c r="F66">
         <v>2010</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
@@ -2959,14 +3194,17 @@
       <c r="F67">
         <v>2010</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
-        <v>164</v>
-      </c>
       <c r="C68" t="s">
         <v>33</v>
       </c>
@@ -2979,54 +3217,63 @@
       <c r="F68">
         <v>2010</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
         <v>289</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69">
+        <v>2010</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>290</v>
       </c>
-      <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69">
-        <v>33</v>
-      </c>
-      <c r="E69" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>291</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70">
+        <v>2010</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>292</v>
       </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70">
-        <v>33</v>
-      </c>
-      <c r="E70" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>293</v>
       </c>
-      <c r="B71" t="s">
-        <v>294</v>
-      </c>
       <c r="C71" t="s">
         <v>33</v>
       </c>
@@ -3039,13 +3286,16 @@
       <c r="F71">
         <v>2010</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
@@ -3059,13 +3309,16 @@
       <c r="F72">
         <v>2010</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" t="s">
         <v>295</v>
-      </c>
-      <c r="B73" t="s">
-        <v>296</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -3079,13 +3332,16 @@
       <c r="F73">
         <v>2010</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" t="s">
         <v>297</v>
-      </c>
-      <c r="B74" t="s">
-        <v>298</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
@@ -3099,13 +3355,16 @@
       <c r="F74">
         <v>2010</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" t="s">
         <v>299</v>
-      </c>
-      <c r="B75" t="s">
-        <v>300</v>
       </c>
       <c r="C75" t="s">
         <v>33</v>
@@ -3119,13 +3378,16 @@
       <c r="F75">
         <v>2010</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>300</v>
+      </c>
+      <c r="B76" t="s">
         <v>301</v>
-      </c>
-      <c r="B76" t="s">
-        <v>302</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
@@ -3139,8 +3401,11 @@
       <c r="F76">
         <v>2010</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -3159,8 +3424,11 @@
       <c r="F77">
         <v>2010</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -3179,13 +3447,16 @@
       <c r="F78">
         <v>2010</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" t="s">
         <v>303</v>
-      </c>
-      <c r="B79" t="s">
-        <v>304</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
@@ -3199,13 +3470,16 @@
       <c r="F79">
         <v>2010</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
         <v>33</v>
@@ -3219,13 +3493,16 @@
       <c r="F80">
         <v>2010</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>304</v>
+      </c>
+      <c r="B81" t="s">
         <v>305</v>
-      </c>
-      <c r="B81" t="s">
-        <v>306</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
@@ -3239,13 +3516,16 @@
       <c r="F81">
         <v>2010</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" t="s">
         <v>307</v>
-      </c>
-      <c r="B82" t="s">
-        <v>308</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
@@ -3259,13 +3539,16 @@
       <c r="F82">
         <v>2010</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" t="s">
         <v>309</v>
-      </c>
-      <c r="B83" t="s">
-        <v>310</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
@@ -3279,8 +3562,11 @@
       <c r="F83">
         <v>2010</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -3298,6 +3584,9 @@
       </c>
       <c r="F84">
         <v>2010</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3307,10 +3596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C5:C8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3318,10 +3607,10 @@
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3341,75 +3630,96 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>2006</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2006</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>2006</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -3423,13 +3733,16 @@
       <c r="F5">
         <v>2006</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -3443,13 +3756,16 @@
       <c r="F6">
         <v>2006</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -3463,13 +3779,16 @@
       <c r="F7">
         <v>2006</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -3483,28 +3802,34 @@
       <c r="F8">
         <v>2006</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>2006</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3512,27 +3837,30 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>2006</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -3543,16 +3871,19 @@
       <c r="F11">
         <v>2006</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>18</v>
@@ -3563,133 +3894,154 @@
       <c r="F12">
         <v>2006</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>2006</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>2006</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>2006</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>2006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>2006</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18">
         <v>2006</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -3703,33 +4055,39 @@
       <c r="F19">
         <v>2006</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>2006</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -3743,13 +4101,16 @@
       <c r="F21">
         <v>2006</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -3762,6 +4123,9 @@
       </c>
       <c r="F22">
         <v>2006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3795,10 +4159,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -3809,10 +4173,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -3823,10 +4187,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -3837,10 +4201,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -3851,10 +4215,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -3865,10 +4229,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3879,10 +4243,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -3893,10 +4257,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -3907,10 +4271,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -3921,10 +4285,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -3935,10 +4299,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3949,10 +4313,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3963,10 +4327,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3977,10 +4341,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3991,10 +4355,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -4005,10 +4369,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -4019,10 +4383,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -4038,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9BF568-6440-4200-94F4-9E9147DF6D37}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,7 +4416,7 @@
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4072,38 +4436,53 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -4114,96 +4493,111 @@
       <c r="F3">
         <v>2007</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>2007</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>2007</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>2007</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -4214,16 +4608,19 @@
       <c r="F8">
         <v>2007</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -4234,16 +4631,19 @@
       <c r="F9">
         <v>2007</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -4254,33 +4654,39 @@
       <c r="F10">
         <v>2007</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>2007</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4294,53 +4700,62 @@
       <c r="F12">
         <v>2007</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>2007</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>2007</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
         <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -4354,13 +4769,16 @@
       <c r="F15">
         <v>2007</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -4374,13 +4792,16 @@
       <c r="F16">
         <v>2007</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -4394,13 +4815,16 @@
       <c r="F17">
         <v>2007</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -4414,13 +4838,16 @@
       <c r="F18">
         <v>2007</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -4434,13 +4861,16 @@
       <c r="F19">
         <v>2007</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -4454,13 +4884,16 @@
       <c r="F20">
         <v>2007</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
         <v>120</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -4474,13 +4907,16 @@
       <c r="F21">
         <v>2007</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
         <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -4494,13 +4930,16 @@
       <c r="F22">
         <v>2007</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -4513,6 +4952,9 @@
       </c>
       <c r="F23">
         <v>2007</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4546,10 +4988,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -4560,10 +5002,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -4574,10 +5016,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -4588,10 +5030,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -4602,10 +5044,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -4616,10 +5058,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4630,10 +5072,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -4644,10 +5086,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -4658,10 +5100,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -4672,10 +5114,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -4691,10 +5133,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2375E4-9474-4375-9C46-93CF815E5F32}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4704,7 +5146,7 @@
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4724,35 +5166,50 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -4766,13 +5223,16 @@
       <c r="F3">
         <v>2008</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -4786,13 +5246,16 @@
       <c r="F4">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -4806,13 +5269,16 @@
       <c r="F5">
         <v>2008</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -4826,13 +5292,16 @@
       <c r="F6">
         <v>2008</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -4846,13 +5315,16 @@
       <c r="F7">
         <v>2008</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -4866,13 +5338,16 @@
       <c r="F8">
         <v>2008</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -4886,13 +5361,16 @@
       <c r="F9">
         <v>2008</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -4906,13 +5384,16 @@
       <c r="F10">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
         <v>147</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -4926,13 +5407,16 @@
       <c r="F11">
         <v>2008</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
         <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -4946,13 +5430,16 @@
       <c r="F12">
         <v>2008</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
         <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -4966,13 +5453,16 @@
       <c r="F13">
         <v>2008</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
         <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -4986,13 +5476,16 @@
       <c r="F14">
         <v>2008</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
         <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -5006,33 +5499,39 @@
       <c r="F15">
         <v>2008</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
         <v>157</v>
       </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>2008</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" t="s">
-        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -5045,6 +5544,9 @@
       </c>
       <c r="F17">
         <v>2008</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5081,10 +5583,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -5095,10 +5597,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -5109,10 +5611,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -5123,10 +5625,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -5137,10 +5639,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -5154,7 +5656,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -5168,7 +5670,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -5179,10 +5681,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -5193,10 +5695,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -5207,10 +5709,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -5221,10 +5723,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -5235,10 +5737,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -5252,7 +5754,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -5263,10 +5765,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -5277,10 +5779,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -5291,10 +5793,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -5305,10 +5807,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -5319,10 +5821,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -5333,10 +5835,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -5347,10 +5849,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -5378,7 +5880,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -5389,10 +5891,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -5403,10 +5905,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -5417,10 +5919,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -5431,10 +5933,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>35</v>
@@ -5445,10 +5947,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -5459,10 +5961,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -5478,19 +5980,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5510,15 +6013,27 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -5532,13 +6047,16 @@
       <c r="F2">
         <v>2009</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -5552,13 +6070,16 @@
       <c r="F3">
         <v>2009</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -5572,13 +6093,16 @@
       <c r="F4">
         <v>2009</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -5592,13 +6116,16 @@
       <c r="F5">
         <v>2009</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -5612,13 +6139,16 @@
       <c r="F6">
         <v>2009</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
         <v>167</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -5632,13 +6162,16 @@
       <c r="F7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
         <v>169</v>
-      </c>
-      <c r="B8" t="s">
-        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -5652,8 +6185,11 @@
       <c r="F8">
         <v>2009</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5672,13 +6208,16 @@
       <c r="F9">
         <v>2009</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -5692,13 +6231,16 @@
       <c r="F10">
         <v>2009</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -5712,13 +6254,16 @@
       <c r="F11">
         <v>2009</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -5732,13 +6277,16 @@
       <c r="F12">
         <v>2009</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -5752,13 +6300,16 @@
       <c r="F13">
         <v>2009</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -5772,13 +6323,16 @@
       <c r="F14">
         <v>2009</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -5792,13 +6346,16 @@
       <c r="F15">
         <v>2009</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
         <v>173</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -5812,13 +6369,16 @@
       <c r="F16">
         <v>2009</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" t="s">
-        <v>176</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -5832,13 +6392,16 @@
       <c r="F17">
         <v>2009</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
         <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -5852,8 +6415,11 @@
       <c r="F18">
         <v>2009</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5872,93 +6438,108 @@
       <c r="F19">
         <v>2009</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
         <v>179</v>
       </c>
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>2009</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
         <v>181</v>
       </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>2009</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
         <v>183</v>
       </c>
-      <c r="B22" t="s">
-        <v>184</v>
-      </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>2009</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
         <v>185</v>
       </c>
-      <c r="B23" t="s">
-        <v>186</v>
-      </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
         <v>187</v>
-      </c>
-      <c r="B24" t="s">
-        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -5972,33 +6553,39 @@
       <c r="F24">
         <v>2009</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="B25" t="s">
-        <v>190</v>
-      </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>2009</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
         <v>191</v>
-      </c>
-      <c r="B26" t="s">
-        <v>192</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -6012,33 +6599,39 @@
       <c r="F26">
         <v>2009</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
         <v>183</v>
       </c>
-      <c r="B27" t="s">
-        <v>184</v>
-      </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>2009</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
         <v>133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -6052,36 +6645,42 @@
       <c r="F28">
         <v>2009</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
         <v>193</v>
       </c>
-      <c r="B29" t="s">
-        <v>194</v>
-      </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>2009</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
         <v>195</v>
       </c>
-      <c r="B30" t="s">
-        <v>196</v>
-      </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>32</v>
@@ -6092,28 +6691,34 @@
       <c r="F30">
         <v>2009</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31">
         <v>2009</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -6132,165 +6737,192 @@
       <c r="F32">
         <v>2009</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
         <v>198</v>
       </c>
-      <c r="B33" t="s">
-        <v>199</v>
-      </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>2009</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
         <v>200</v>
       </c>
-      <c r="B34" t="s">
-        <v>201</v>
-      </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>2009</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
         <v>202</v>
       </c>
-      <c r="B35" t="s">
-        <v>203</v>
-      </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>2009</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
         <v>204</v>
       </c>
-      <c r="B36" t="s">
-        <v>205</v>
-      </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>2009</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
         <v>206</v>
       </c>
-      <c r="B37" t="s">
-        <v>207</v>
-      </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>2009</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>2009</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
         <v>208</v>
       </c>
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
         <v>210</v>
       </c>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>2009</v>
+      </c>
+      <c r="G40" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6303,7 +6935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -6325,10 +6957,10 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -6339,10 +6971,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -6353,10 +6985,10 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -6367,10 +6999,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -6381,10 +7013,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -6395,10 +7027,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -6409,10 +7041,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -6423,10 +7055,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -6437,10 +7069,10 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -6451,10 +7083,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -6465,10 +7097,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -6479,10 +7111,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -6493,10 +7125,10 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -6507,10 +7139,10 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -6521,10 +7153,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -6535,10 +7167,10 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -6549,10 +7181,10 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -6563,10 +7195,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -6577,10 +7209,10 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -6591,10 +7223,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2">
         <v>14</v>
@@ -6605,7 +7237,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -6619,10 +7251,10 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -6633,10 +7265,10 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -6647,10 +7279,10 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -6661,10 +7293,10 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -6675,10 +7307,10 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -6689,10 +7321,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -6706,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -6720,7 +7352,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -6734,7 +7366,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -6748,7 +7380,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -6759,10 +7391,10 @@
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -6773,10 +7405,10 @@
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -6787,10 +7419,10 @@
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -6801,10 +7433,10 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2">
         <v>18</v>
@@ -6815,10 +7447,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -6829,10 +7461,10 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -6843,10 +7475,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -6857,10 +7489,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -6871,10 +7503,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -6885,10 +7517,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -6899,10 +7531,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -6913,10 +7545,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -6927,10 +7559,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -6941,10 +7573,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -6955,7 +7587,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>28</v>
@@ -6969,10 +7601,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -6983,10 +7615,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -6997,10 +7629,10 @@
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -7011,10 +7643,10 @@
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -7025,10 +7657,10 @@
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -7039,10 +7671,10 @@
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2">
         <v>33</v>
@@ -7053,10 +7685,10 @@
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="2">
         <v>33</v>
@@ -7067,10 +7699,10 @@
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -7081,10 +7713,10 @@
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -7095,10 +7727,10 @@
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -7109,10 +7741,10 @@
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C58" s="2">
         <v>33</v>
@@ -7123,10 +7755,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -7137,10 +7769,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -7151,7 +7783,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -7165,7 +7797,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -7179,10 +7811,10 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2">
         <v>43</v>
@@ -7193,10 +7825,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -7207,10 +7839,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -7221,7 +7853,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582BB9A-6287-4A5D-A880-5699BF0D7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E69170-213B-4736-8030-944C1037CB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="324">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>Peru</t>
+  </si>
+  <si>
+    <t>Peru, Costa Rica</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3602,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3607,7 +3610,8 @@
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5136,7 +5140,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5144,6 +5148,7 @@
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5983,7 +5988,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6485,7 +6490,7 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -6508,7 +6513,7 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -6531,7 +6536,7 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -6554,7 +6559,7 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -6577,7 +6582,7 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E69170-213B-4736-8030-944C1037CB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F8BA7-4D72-4A3A-8A39-B78BD8A195C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="357">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -1016,14 +1016,121 @@
   </si>
   <si>
     <t>Peru, Costa Rica</t>
+  </si>
+  <si>
+    <t>HYDROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>Limnology</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Journal of the North American Benthological Society</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>ZOOTAXA</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Revista de Biología Tropical</t>
+  </si>
+  <si>
+    <t>FRESHWATER BIOLOGY</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Archiv fur Hydrobiologie</t>
+  </si>
+  <si>
+    <t>International Review of Hydrobiology</t>
+  </si>
+  <si>
+    <t>Micron</t>
+  </si>
+  <si>
+    <t>Ecological Engineering</t>
+  </si>
+  <si>
+    <t>Austral Ecology</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Environmental Pollution</t>
+  </si>
+  <si>
+    <t>Aquatic Insects</t>
+  </si>
+  <si>
+    <t>Fundamental and Applied Limnology</t>
+  </si>
+  <si>
+    <t>Revista Brasileira de Entomologia</t>
+  </si>
+  <si>
+    <t>Zoologia</t>
+  </si>
+  <si>
+    <t>Neotropical Entomology</t>
+  </si>
+  <si>
+    <t>Journal of the Kansas Entomological Society</t>
+  </si>
+  <si>
+    <t>Brazilian Journal of Biology</t>
+  </si>
+  <si>
+    <t>Zootaxa</t>
+  </si>
+  <si>
+    <t>Limnology and Oceanography</t>
+  </si>
+  <si>
+    <t>Limnetica</t>
+  </si>
+  <si>
+    <t>Biota Neotropica</t>
+  </si>
+  <si>
+    <t>Revista Chilena de Historia Natural</t>
+  </si>
+  <si>
+    <t>Journal of Soils and Sediments</t>
+  </si>
+  <si>
+    <t>International Journal of Limnology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1066,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1074,6 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,7 +1738,7 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,44 +1750,44 @@
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -1705,6 +1813,18 @@
       <c r="G2" t="s">
         <v>321</v>
       </c>
+      <c r="H2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2">
+        <v>2.17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1728,6 +1848,18 @@
       <c r="G3" t="s">
         <v>321</v>
       </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3">
+        <v>2.17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1751,6 +1883,18 @@
       <c r="G4" t="s">
         <v>321</v>
       </c>
+      <c r="H4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4">
+        <v>2.17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1774,6 +1918,18 @@
       <c r="G5" t="s">
         <v>321</v>
       </c>
+      <c r="H5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5">
+        <v>2.17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1797,6 +1953,18 @@
       <c r="G6" t="s">
         <v>321</v>
       </c>
+      <c r="H6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6">
+        <v>2.17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1820,6 +1988,18 @@
       <c r="G7" t="s">
         <v>321</v>
       </c>
+      <c r="H7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J7">
+        <v>2.17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1843,6 +2023,18 @@
       <c r="G8" t="s">
         <v>321</v>
       </c>
+      <c r="H8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8">
+        <v>2.17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1866,6 +2058,18 @@
       <c r="G9" t="s">
         <v>321</v>
       </c>
+      <c r="H9" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9">
+        <v>2.17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1889,6 +2093,18 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
+      <c r="H10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>1.32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1912,6 +2128,18 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
+      <c r="H11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>1.32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1935,6 +2163,18 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
+      <c r="H12" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>1.32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1958,6 +2198,18 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
+      <c r="H13" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>1.89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1981,6 +2233,18 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
+      <c r="H14" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>1.89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2004,6 +2268,18 @@
       <c r="G15" t="s">
         <v>37</v>
       </c>
+      <c r="H15" t="s">
+        <v>352</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>1.89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2027,8 +2303,20 @@
       <c r="G16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>1.89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2050,8 +2338,20 @@
       <c r="G17" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" t="s">
+        <v>335</v>
+      </c>
+      <c r="J17">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -2073,8 +2373,20 @@
       <c r="G18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -2096,8 +2408,20 @@
       <c r="G19" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" t="s">
+        <v>335</v>
+      </c>
+      <c r="J19">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -2119,8 +2443,20 @@
       <c r="G20" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>334</v>
+      </c>
+      <c r="I20" t="s">
+        <v>335</v>
+      </c>
+      <c r="J20">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -2142,8 +2478,20 @@
       <c r="G21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2165,8 +2513,20 @@
       <c r="G22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" t="s">
+        <v>335</v>
+      </c>
+      <c r="J22">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -2188,8 +2548,20 @@
       <c r="G23" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" t="s">
+        <v>335</v>
+      </c>
+      <c r="J23">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -2211,8 +2583,20 @@
       <c r="G24" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J24">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2234,8 +2618,20 @@
       <c r="G25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>349</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>1.32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2257,8 +2653,20 @@
       <c r="G26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26">
+        <v>1.32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2280,8 +2688,20 @@
       <c r="G27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>1.32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -2303,8 +2723,20 @@
       <c r="G28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>1.32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -2326,8 +2758,20 @@
       <c r="G29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>349</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>1.32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -2349,8 +2793,20 @@
       <c r="G30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>349</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>1.32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -2372,8 +2828,20 @@
       <c r="G31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>349</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>1.32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2395,8 +2863,20 @@
       <c r="G32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32">
+        <v>1.32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>230</v>
       </c>
@@ -2418,8 +2898,20 @@
       <c r="G33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>349</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>1.32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -2441,8 +2933,20 @@
       <c r="G34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>1.32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2464,8 +2968,20 @@
       <c r="G35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" t="s">
+        <v>335</v>
+      </c>
+      <c r="J35">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -2487,8 +3003,20 @@
       <c r="G36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>334</v>
+      </c>
+      <c r="I36" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -2510,8 +3038,20 @@
       <c r="G37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I37" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -2533,8 +3073,20 @@
       <c r="G38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>334</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -2556,8 +3108,20 @@
       <c r="G39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>334</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -2579,8 +3143,20 @@
       <c r="G40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>344</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>244</v>
       </c>
@@ -2602,8 +3178,20 @@
       <c r="G41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -2625,8 +3213,20 @@
       <c r="G42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -2648,8 +3248,20 @@
       <c r="G43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>344</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -2671,8 +3283,20 @@
       <c r="G44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>353</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -2694,8 +3318,20 @@
       <c r="G45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>353</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -2717,8 +3353,20 @@
       <c r="G46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>334</v>
+      </c>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -2740,8 +3388,20 @@
       <c r="G47" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -2763,8 +3423,20 @@
       <c r="G48" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>334</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -2786,8 +3458,20 @@
       <c r="G49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" t="s">
+        <v>335</v>
+      </c>
+      <c r="J49">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -2809,8 +3493,20 @@
       <c r="G50" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>262</v>
       </c>
@@ -2832,8 +3528,20 @@
       <c r="G51" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>334</v>
+      </c>
+      <c r="I51" t="s">
+        <v>335</v>
+      </c>
+      <c r="J51">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>264</v>
       </c>
@@ -2855,8 +3563,20 @@
       <c r="G52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>328</v>
+      </c>
+      <c r="I52" t="s">
+        <v>329</v>
+      </c>
+      <c r="J52">
+        <v>2.17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -2878,8 +3598,20 @@
       <c r="G53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I53" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53">
+        <v>2.17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -2901,8 +3633,20 @@
       <c r="G54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>354</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54">
+        <v>1.429</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -2924,8 +3668,20 @@
       <c r="G55" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>354</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55">
+        <v>1.429</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -2947,8 +3703,20 @@
       <c r="G56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>354</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56">
+        <v>1.429</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -2970,8 +3738,20 @@
       <c r="G57" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57">
+        <v>1.429</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>276</v>
       </c>
@@ -2993,8 +3773,20 @@
       <c r="G58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58">
+        <v>1.429</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -3016,8 +3808,20 @@
       <c r="G59" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>354</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>1.429</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>279</v>
       </c>
@@ -3039,8 +3843,20 @@
       <c r="G60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>354</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60">
+        <v>1.429</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>281</v>
       </c>
@@ -3062,8 +3878,20 @@
       <c r="G61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>354</v>
+      </c>
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61">
+        <v>1.429</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -3085,8 +3913,20 @@
       <c r="G62" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>346</v>
+      </c>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>283</v>
       </c>
@@ -3108,8 +3948,20 @@
       <c r="G63" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>346</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>285</v>
       </c>
@@ -3131,8 +3983,20 @@
       <c r="G64" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>344</v>
+      </c>
+      <c r="I64" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3154,8 +4018,20 @@
       <c r="G65" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>344</v>
+      </c>
+      <c r="I65" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3177,8 +4053,20 @@
       <c r="G66" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>334</v>
+      </c>
+      <c r="I66" t="s">
+        <v>335</v>
+      </c>
+      <c r="J66">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3200,8 +4088,20 @@
       <c r="G67" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>334</v>
+      </c>
+      <c r="I67" t="s">
+        <v>335</v>
+      </c>
+      <c r="J67">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -3223,8 +4123,20 @@
       <c r="G68" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>334</v>
+      </c>
+      <c r="I68" t="s">
+        <v>335</v>
+      </c>
+      <c r="J68">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -3246,8 +4158,20 @@
       <c r="G69" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>334</v>
+      </c>
+      <c r="I69" t="s">
+        <v>335</v>
+      </c>
+      <c r="J69">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>290</v>
       </c>
@@ -3269,8 +4193,20 @@
       <c r="G70" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>334</v>
+      </c>
+      <c r="I70" t="s">
+        <v>335</v>
+      </c>
+      <c r="J70">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -3292,8 +4228,20 @@
       <c r="G71" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>334</v>
+      </c>
+      <c r="I71" t="s">
+        <v>335</v>
+      </c>
+      <c r="J71">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -3315,8 +4263,20 @@
       <c r="G72" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>334</v>
+      </c>
+      <c r="I72" t="s">
+        <v>335</v>
+      </c>
+      <c r="J72">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -3338,8 +4298,20 @@
       <c r="G73" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>347</v>
+      </c>
+      <c r="I73" t="s">
+        <v>329</v>
+      </c>
+      <c r="J73">
+        <v>1.59</v>
+      </c>
+      <c r="K73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>296</v>
       </c>
@@ -3361,8 +4333,20 @@
       <c r="G74" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>347</v>
+      </c>
+      <c r="I74" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74">
+        <v>1.59</v>
+      </c>
+      <c r="K74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -3384,8 +4368,20 @@
       <c r="G75" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>347</v>
+      </c>
+      <c r="I75" t="s">
+        <v>329</v>
+      </c>
+      <c r="J75">
+        <v>1.59</v>
+      </c>
+      <c r="K75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>300</v>
       </c>
@@ -3407,8 +4403,20 @@
       <c r="G76" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>334</v>
+      </c>
+      <c r="I76" t="s">
+        <v>335</v>
+      </c>
+      <c r="J76">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -3430,8 +4438,20 @@
       <c r="G77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>334</v>
+      </c>
+      <c r="I77" t="s">
+        <v>335</v>
+      </c>
+      <c r="J77">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -3453,8 +4473,20 @@
       <c r="G78" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>334</v>
+      </c>
+      <c r="I78" t="s">
+        <v>335</v>
+      </c>
+      <c r="J78">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>302</v>
       </c>
@@ -3476,8 +4508,20 @@
       <c r="G79" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>355</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="K79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -3499,8 +4543,20 @@
       <c r="G80" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>355</v>
+      </c>
+      <c r="I80" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="K80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>304</v>
       </c>
@@ -3522,8 +4578,20 @@
       <c r="G81" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>355</v>
+      </c>
+      <c r="I81" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="K81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>306</v>
       </c>
@@ -3545,8 +4613,20 @@
       <c r="G82" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>355</v>
+      </c>
+      <c r="I82" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="K82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>308</v>
       </c>
@@ -3568,8 +4648,20 @@
       <c r="G83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>356</v>
+      </c>
+      <c r="I83" t="s">
+        <v>329</v>
+      </c>
+      <c r="J83">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -3590,6 +4682,18 @@
       </c>
       <c r="G84" t="s">
         <v>33</v>
+      </c>
+      <c r="H84" t="s">
+        <v>356</v>
+      </c>
+      <c r="I84" t="s">
+        <v>329</v>
+      </c>
+      <c r="J84">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K84" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +4706,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3615,37 +4719,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3671,6 +4775,18 @@
       <c r="G2" t="s">
         <v>319</v>
       </c>
+      <c r="H2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>2.694</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3694,6 +4810,18 @@
       <c r="G3" t="s">
         <v>319</v>
       </c>
+      <c r="H3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3">
+        <v>2.694</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3717,6 +4845,18 @@
       <c r="G4" t="s">
         <v>319</v>
       </c>
+      <c r="H4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4">
+        <v>2.694</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3740,6 +4880,18 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
+      <c r="H5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3763,6 +4915,18 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
+      <c r="H6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3786,6 +4950,18 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
+      <c r="H7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3809,6 +4985,18 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
+      <c r="H8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J8">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3832,6 +5020,18 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
+      <c r="H9" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9">
+        <v>2.17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3855,6 +5055,18 @@
       <c r="G10" t="s">
         <v>48</v>
       </c>
+      <c r="H10" t="s">
+        <v>328</v>
+      </c>
+      <c r="I10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10">
+        <v>2.17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3878,6 +5090,18 @@
       <c r="G11" t="s">
         <v>48</v>
       </c>
+      <c r="H11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11">
+        <v>2.17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3901,6 +5125,18 @@
       <c r="G12" t="s">
         <v>48</v>
       </c>
+      <c r="H12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J12">
+        <v>2.17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3924,6 +5160,18 @@
       <c r="G13" t="s">
         <v>48</v>
       </c>
+      <c r="H13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I13" t="s">
+        <v>329</v>
+      </c>
+      <c r="J13">
+        <v>2.17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3947,6 +5195,18 @@
       <c r="G14" t="s">
         <v>48</v>
       </c>
+      <c r="H14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14">
+        <v>2.17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3970,6 +5230,18 @@
       <c r="G15" t="s">
         <v>48</v>
       </c>
+      <c r="H15" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15">
+        <v>2.17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3993,8 +5265,20 @@
       <c r="G16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16">
+        <v>2.17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -4016,8 +5300,20 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J17">
+        <v>2.17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4039,8 +5335,20 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18">
+        <v>2.17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4062,8 +5370,20 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>330</v>
+      </c>
+      <c r="I19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J19">
+        <v>1.091</v>
+      </c>
+      <c r="K19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4085,8 +5405,20 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>330</v>
+      </c>
+      <c r="I20" t="s">
+        <v>331</v>
+      </c>
+      <c r="J20">
+        <v>1.091</v>
+      </c>
+      <c r="K20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -4108,8 +5440,20 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" t="s">
+        <v>331</v>
+      </c>
+      <c r="J21">
+        <v>1.091</v>
+      </c>
+      <c r="K21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4130,6 +5474,18 @@
       </c>
       <c r="G22" t="s">
         <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" t="s">
+        <v>331</v>
+      </c>
+      <c r="J22">
+        <v>1.091</v>
+      </c>
+      <c r="K22" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +5765,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4418,40 +5774,44 @@
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4477,6 +5837,18 @@
       <c r="G2" t="s">
         <v>126</v>
       </c>
+      <c r="H2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>0.86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4500,6 +5872,18 @@
       <c r="G3" t="s">
         <v>126</v>
       </c>
+      <c r="H3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>0.86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4523,6 +5907,18 @@
       <c r="G4" t="s">
         <v>320</v>
       </c>
+      <c r="H4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4546,6 +5942,18 @@
       <c r="G5" t="s">
         <v>320</v>
       </c>
+      <c r="H5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4569,6 +5977,18 @@
       <c r="G6" t="s">
         <v>126</v>
       </c>
+      <c r="H6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>1.528</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4592,6 +6012,18 @@
       <c r="G7" t="s">
         <v>126</v>
       </c>
+      <c r="H7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>1.528</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4615,6 +6047,18 @@
       <c r="G8" t="s">
         <v>126</v>
       </c>
+      <c r="H8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>1.528</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4638,6 +6082,18 @@
       <c r="G9" t="s">
         <v>126</v>
       </c>
+      <c r="H9" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>1.528</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4661,6 +6117,18 @@
       <c r="G10" t="s">
         <v>126</v>
       </c>
+      <c r="H10" t="s">
+        <v>336</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>1.528</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4684,6 +6152,18 @@
       <c r="G11" t="s">
         <v>126</v>
       </c>
+      <c r="H11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>1.528</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4707,6 +6187,18 @@
       <c r="G12" t="s">
         <v>37</v>
       </c>
+      <c r="H12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4730,6 +6222,18 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
+      <c r="H13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4753,6 +6257,18 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
+      <c r="H14" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4776,6 +6292,18 @@
       <c r="G15" t="s">
         <v>37</v>
       </c>
+      <c r="H15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4799,8 +6327,20 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>338</v>
+      </c>
+      <c r="I16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -4822,8 +6362,20 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I17" t="s">
+        <v>335</v>
+      </c>
+      <c r="J17">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -4845,8 +6397,20 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>338</v>
+      </c>
+      <c r="I18" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -4868,8 +6432,20 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I19" t="s">
+        <v>335</v>
+      </c>
+      <c r="J19">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -4891,8 +6467,20 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>338</v>
+      </c>
+      <c r="I20" t="s">
+        <v>335</v>
+      </c>
+      <c r="J20">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -4914,8 +6502,20 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>338</v>
+      </c>
+      <c r="I21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -4937,8 +6537,20 @@
       <c r="G22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>338</v>
+      </c>
+      <c r="I22" t="s">
+        <v>335</v>
+      </c>
+      <c r="J22">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -4959,6 +6571,18 @@
       </c>
       <c r="G23" t="s">
         <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>338</v>
+      </c>
+      <c r="I23" t="s">
+        <v>335</v>
+      </c>
+      <c r="J23">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4971,7 +6595,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D2:D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5140,7 +6764,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5149,40 +6773,44 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5208,6 +6836,18 @@
       <c r="G2" t="s">
         <v>35</v>
       </c>
+      <c r="H2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5231,6 +6871,18 @@
       <c r="G3" t="s">
         <v>35</v>
       </c>
+      <c r="H3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5254,6 +6906,18 @@
       <c r="G4" t="s">
         <v>35</v>
       </c>
+      <c r="H4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5277,6 +6941,18 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
+      <c r="H5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5300,6 +6976,18 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
+      <c r="H6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -5323,6 +7011,18 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
+      <c r="H7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J7">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5346,6 +7046,18 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
+      <c r="H8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J8">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5369,6 +7081,18 @@
       <c r="G9" t="s">
         <v>36</v>
       </c>
+      <c r="H9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5392,6 +7116,18 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
+      <c r="H10" t="s">
+        <v>342</v>
+      </c>
+      <c r="I10" t="s">
+        <v>335</v>
+      </c>
+      <c r="J10">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5415,6 +7151,18 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
+      <c r="H11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J11">
+        <v>1.07</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5438,6 +7186,18 @@
       <c r="G12" t="s">
         <v>36</v>
       </c>
+      <c r="H12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12">
+        <v>1.07</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5461,6 +7221,18 @@
       <c r="G13" t="s">
         <v>36</v>
       </c>
+      <c r="H13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -5484,6 +7256,18 @@
       <c r="G14" t="s">
         <v>36</v>
       </c>
+      <c r="H14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5507,6 +7291,18 @@
       <c r="G15" t="s">
         <v>36</v>
       </c>
+      <c r="H15" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5530,8 +7326,20 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>1.133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -5552,6 +7360,18 @@
       </c>
       <c r="G17" t="s">
         <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>1.133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5988,7 +7808,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5999,37 +7819,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6055,6 +7875,18 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
+      <c r="H2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>2.694</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6078,6 +7910,18 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
+      <c r="H3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3">
+        <v>2.694</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6101,6 +7945,18 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
+      <c r="H4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4">
+        <v>2.694</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6124,6 +7980,18 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
+      <c r="H5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5">
+        <v>2.694</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6147,6 +8015,18 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J6">
+        <v>2.694</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6170,6 +8050,18 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6193,6 +8085,18 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
+      <c r="H8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6216,6 +8120,18 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
+      <c r="H9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9">
+        <v>1.59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6239,6 +8155,18 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
+      <c r="H10" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10">
+        <v>1.59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6262,6 +8190,18 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
+      <c r="H11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11">
+        <v>1.59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6285,6 +8225,18 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
+      <c r="H12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J12">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6308,6 +8260,18 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
+      <c r="H13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" t="s">
+        <v>329</v>
+      </c>
+      <c r="J13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6331,6 +8295,18 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
+      <c r="H14" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6354,6 +8330,18 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
+      <c r="H15" t="s">
+        <v>348</v>
+      </c>
+      <c r="I15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6377,8 +8365,20 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>1.32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -6400,8 +8400,20 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>1.32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>176</v>
       </c>
@@ -6423,8 +8435,20 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>1.32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -6446,8 +8470,20 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J19">
+        <v>1.091</v>
+      </c>
+      <c r="K19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -6469,8 +8505,20 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20" t="s">
+        <v>331</v>
+      </c>
+      <c r="J20">
+        <v>1.091</v>
+      </c>
+      <c r="K20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -6492,8 +8540,20 @@
       <c r="G21" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21">
+        <v>1.07</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -6515,8 +8575,20 @@
       <c r="G22" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>343</v>
+      </c>
+      <c r="I22" t="s">
+        <v>335</v>
+      </c>
+      <c r="J22">
+        <v>1.07</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>184</v>
       </c>
@@ -6538,8 +8610,20 @@
       <c r="G23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>343</v>
+      </c>
+      <c r="I23" t="s">
+        <v>335</v>
+      </c>
+      <c r="J23">
+        <v>1.07</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -6561,8 +8645,20 @@
       <c r="G24" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>343</v>
+      </c>
+      <c r="I24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J24">
+        <v>1.07</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -6584,8 +8680,20 @@
       <c r="G25" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I25" t="s">
+        <v>335</v>
+      </c>
+      <c r="J25">
+        <v>1.07</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>190</v>
       </c>
@@ -6607,8 +8715,20 @@
       <c r="G26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>343</v>
+      </c>
+      <c r="I26" t="s">
+        <v>335</v>
+      </c>
+      <c r="J26">
+        <v>1.07</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -6630,8 +8750,20 @@
       <c r="G27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>343</v>
+      </c>
+      <c r="I27" t="s">
+        <v>335</v>
+      </c>
+      <c r="J27">
+        <v>1.07</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -6653,8 +8785,20 @@
       <c r="G28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>343</v>
+      </c>
+      <c r="I28" t="s">
+        <v>335</v>
+      </c>
+      <c r="J28">
+        <v>1.07</v>
+      </c>
+      <c r="K28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -6676,8 +8820,20 @@
       <c r="G29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>334</v>
+      </c>
+      <c r="I29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J29">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -6699,8 +8855,20 @@
       <c r="G30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>334</v>
+      </c>
+      <c r="I30" t="s">
+        <v>335</v>
+      </c>
+      <c r="J30">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="K30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -6722,8 +8890,20 @@
       <c r="G31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31">
+        <v>2.16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -6745,8 +8925,20 @@
       <c r="G32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32">
+        <v>2.16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>197</v>
       </c>
@@ -6768,8 +8960,20 @@
       <c r="G33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33">
+        <v>2.16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -6791,8 +8995,20 @@
       <c r="G34" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>351</v>
+      </c>
+      <c r="I34" t="s">
+        <v>329</v>
+      </c>
+      <c r="J34">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -6814,8 +9030,20 @@
       <c r="G35" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>351</v>
+      </c>
+      <c r="I35" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>203</v>
       </c>
@@ -6837,8 +9065,20 @@
       <c r="G36" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>351</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>205</v>
       </c>
@@ -6860,8 +9100,20 @@
       <c r="G37" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>351</v>
+      </c>
+      <c r="I37" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -6883,8 +9135,20 @@
       <c r="G38" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>351</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>207</v>
       </c>
@@ -6906,8 +9170,20 @@
       <c r="G39" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>351</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -6928,6 +9204,18 @@
       </c>
       <c r="G40" t="s">
         <v>321</v>
+      </c>
+      <c r="H40" t="s">
+        <v>351</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F8BA7-4D72-4A3A-8A39-B78BD8A195C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC39D1-3BE9-4405-9ED9-CAB0F811E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="2007nodes" sheetId="4" r:id="rId4"/>
     <sheet name="2008authors" sheetId="5" r:id="rId5"/>
     <sheet name="2008nodes" sheetId="6" r:id="rId6"/>
-    <sheet name="2009authors" sheetId="7" r:id="rId7"/>
-    <sheet name="2009nodes" sheetId="8" r:id="rId8"/>
+    <sheet name="2009nodes" sheetId="8" r:id="rId7"/>
+    <sheet name="2009authors" sheetId="7" r:id="rId8"/>
     <sheet name="2010authors" sheetId="9" r:id="rId9"/>
     <sheet name="2010nodes" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="356">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -992,9 +992,6 @@
   </si>
   <si>
     <t>Jour_country</t>
-  </si>
-  <si>
-    <t>Impact_Factor</t>
   </si>
   <si>
     <t>Jour_continent</t>
@@ -1498,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18145C-2A6A-4B4F-A60B-42F255DE5BF1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,11 +1749,10 @@
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>314</v>
@@ -1787,11 +1783,8 @@
       <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1811,22 +1804,19 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" t="s">
         <v>328</v>
       </c>
-      <c r="I2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J2">
-        <v>2.17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -1846,22 +1836,19 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" t="s">
         <v>328</v>
       </c>
-      <c r="I3" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3">
-        <v>2.17</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -1881,22 +1868,19 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" t="s">
         <v>328</v>
       </c>
-      <c r="I4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J4">
-        <v>2.17</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1916,22 +1900,19 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" t="s">
         <v>328</v>
       </c>
-      <c r="I5" t="s">
-        <v>329</v>
-      </c>
-      <c r="J5">
-        <v>2.17</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -1951,22 +1932,19 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" t="s">
         <v>328</v>
       </c>
-      <c r="I6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J6">
-        <v>2.17</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -1986,22 +1964,19 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" t="s">
         <v>328</v>
       </c>
-      <c r="I7" t="s">
-        <v>329</v>
-      </c>
-      <c r="J7">
-        <v>2.17</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -2021,22 +1996,19 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" t="s">
         <v>328</v>
       </c>
-      <c r="I8" t="s">
-        <v>329</v>
-      </c>
-      <c r="J8">
-        <v>2.17</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -2056,22 +2028,19 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="I9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J9">
-        <v>2.17</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2094,19 +2063,16 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="J10">
-        <v>1.32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2129,19 +2095,16 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="J11">
-        <v>1.32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2164,19 +2127,16 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="J12">
-        <v>1.32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -2199,19 +2159,16 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
       </c>
-      <c r="J13">
-        <v>1.89</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -2234,19 +2191,16 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
       </c>
-      <c r="J14">
-        <v>1.89</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -2269,19 +2223,16 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
       </c>
-      <c r="J15">
-        <v>1.89</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -2304,19 +2255,16 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
       </c>
-      <c r="J16">
-        <v>1.89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2336,22 +2284,19 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" t="s">
         <v>334</v>
       </c>
-      <c r="I17" t="s">
-        <v>335</v>
-      </c>
-      <c r="J17">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -2371,22 +2316,19 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H18" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" t="s">
         <v>334</v>
       </c>
-      <c r="I18" t="s">
-        <v>335</v>
-      </c>
-      <c r="J18">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -2406,22 +2348,19 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H19" t="s">
+        <v>333</v>
+      </c>
+      <c r="I19" t="s">
         <v>334</v>
       </c>
-      <c r="I19" t="s">
-        <v>335</v>
-      </c>
-      <c r="J19">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -2441,22 +2380,19 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H20" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" t="s">
         <v>334</v>
       </c>
-      <c r="I20" t="s">
-        <v>335</v>
-      </c>
-      <c r="J20">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -2476,22 +2412,19 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" t="s">
         <v>334</v>
       </c>
-      <c r="I21" t="s">
-        <v>335</v>
-      </c>
-      <c r="J21">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2511,22 +2444,19 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" t="s">
         <v>334</v>
       </c>
-      <c r="I22" t="s">
-        <v>335</v>
-      </c>
-      <c r="J22">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -2546,22 +2476,19 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H23" t="s">
+        <v>333</v>
+      </c>
+      <c r="I23" t="s">
         <v>334</v>
       </c>
-      <c r="I23" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -2581,22 +2508,19 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" t="s">
         <v>334</v>
       </c>
-      <c r="I24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J24">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2619,19 +2543,16 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="J25">
-        <v>1.32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2654,19 +2575,16 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I26" t="s">
         <v>33</v>
       </c>
-      <c r="J26">
-        <v>1.32</v>
-      </c>
-      <c r="K26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2689,19 +2607,16 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I27" t="s">
         <v>33</v>
       </c>
-      <c r="J27">
-        <v>1.32</v>
-      </c>
-      <c r="K27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -2724,19 +2639,16 @@
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I28" t="s">
         <v>33</v>
       </c>
-      <c r="J28">
-        <v>1.32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -2759,19 +2671,16 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I29" t="s">
         <v>33</v>
       </c>
-      <c r="J29">
-        <v>1.32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -2794,19 +2703,16 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
       </c>
-      <c r="J30">
-        <v>1.32</v>
-      </c>
-      <c r="K30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -2829,19 +2735,16 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I31" t="s">
         <v>33</v>
       </c>
-      <c r="J31">
-        <v>1.32</v>
-      </c>
-      <c r="K31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2864,19 +2767,16 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I32" t="s">
         <v>33</v>
       </c>
-      <c r="J32">
-        <v>1.32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>230</v>
       </c>
@@ -2899,19 +2799,16 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I33" t="s">
         <v>33</v>
       </c>
-      <c r="J33">
-        <v>1.32</v>
-      </c>
-      <c r="K33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -2934,19 +2831,16 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I34" t="s">
         <v>33</v>
       </c>
-      <c r="J34">
-        <v>1.32</v>
-      </c>
-      <c r="K34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2969,19 +2863,16 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
+        <v>333</v>
+      </c>
+      <c r="I35" t="s">
         <v>334</v>
       </c>
-      <c r="I35" t="s">
-        <v>335</v>
-      </c>
-      <c r="J35">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -3004,19 +2895,16 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
+        <v>333</v>
+      </c>
+      <c r="I36" t="s">
         <v>334</v>
       </c>
-      <c r="I36" t="s">
-        <v>335</v>
-      </c>
-      <c r="J36">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -3039,19 +2927,16 @@
         <v>34</v>
       </c>
       <c r="H37" t="s">
+        <v>333</v>
+      </c>
+      <c r="I37" t="s">
         <v>334</v>
       </c>
-      <c r="I37" t="s">
-        <v>335</v>
-      </c>
-      <c r="J37">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -3074,19 +2959,16 @@
         <v>34</v>
       </c>
       <c r="H38" t="s">
+        <v>333</v>
+      </c>
+      <c r="I38" t="s">
         <v>334</v>
       </c>
-      <c r="I38" t="s">
-        <v>335</v>
-      </c>
-      <c r="J38">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -3109,19 +2991,16 @@
         <v>34</v>
       </c>
       <c r="H39" t="s">
+        <v>333</v>
+      </c>
+      <c r="I39" t="s">
         <v>334</v>
       </c>
-      <c r="I39" t="s">
-        <v>335</v>
-      </c>
-      <c r="J39">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -3144,19 +3023,16 @@
         <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I40" t="s">
         <v>46</v>
       </c>
-      <c r="J40">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>244</v>
       </c>
@@ -3179,19 +3055,16 @@
         <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I41" t="s">
         <v>46</v>
       </c>
-      <c r="J41">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -3214,19 +3087,16 @@
         <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
       </c>
-      <c r="J42">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -3249,19 +3119,16 @@
         <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I43" t="s">
         <v>46</v>
       </c>
-      <c r="J43">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -3284,19 +3151,16 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I44" t="s">
         <v>33</v>
       </c>
-      <c r="J44">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="K44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -3319,19 +3183,16 @@
         <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I45" t="s">
         <v>33</v>
       </c>
-      <c r="J45">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="K45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -3354,19 +3215,16 @@
         <v>34</v>
       </c>
       <c r="H46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I46" t="s">
         <v>334</v>
       </c>
-      <c r="I46" t="s">
-        <v>335</v>
-      </c>
-      <c r="J46">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -3389,19 +3247,16 @@
         <v>34</v>
       </c>
       <c r="H47" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" t="s">
         <v>334</v>
       </c>
-      <c r="I47" t="s">
-        <v>335</v>
-      </c>
-      <c r="J47">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -3424,19 +3279,16 @@
         <v>34</v>
       </c>
       <c r="H48" t="s">
+        <v>333</v>
+      </c>
+      <c r="I48" t="s">
         <v>334</v>
       </c>
-      <c r="I48" t="s">
-        <v>335</v>
-      </c>
-      <c r="J48">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -3459,19 +3311,16 @@
         <v>34</v>
       </c>
       <c r="H49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I49" t="s">
         <v>334</v>
       </c>
-      <c r="I49" t="s">
-        <v>335</v>
-      </c>
-      <c r="J49">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -3494,19 +3343,16 @@
         <v>34</v>
       </c>
       <c r="H50" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50" t="s">
         <v>334</v>
       </c>
-      <c r="I50" t="s">
-        <v>335</v>
-      </c>
-      <c r="J50">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>262</v>
       </c>
@@ -3529,19 +3375,16 @@
         <v>34</v>
       </c>
       <c r="H51" t="s">
+        <v>333</v>
+      </c>
+      <c r="I51" t="s">
         <v>334</v>
       </c>
-      <c r="I51" t="s">
-        <v>335</v>
-      </c>
-      <c r="J51">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>264</v>
       </c>
@@ -3564,19 +3407,16 @@
         <v>33</v>
       </c>
       <c r="H52" t="s">
+        <v>327</v>
+      </c>
+      <c r="I52" t="s">
         <v>328</v>
       </c>
-      <c r="I52" t="s">
-        <v>329</v>
-      </c>
-      <c r="J52">
-        <v>2.17</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="J52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -3599,19 +3439,16 @@
         <v>33</v>
       </c>
       <c r="H53" t="s">
+        <v>327</v>
+      </c>
+      <c r="I53" t="s">
         <v>328</v>
       </c>
-      <c r="I53" t="s">
-        <v>329</v>
-      </c>
-      <c r="J53">
-        <v>2.17</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="J53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -3634,19 +3471,16 @@
         <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
       </c>
-      <c r="J54">
-        <v>1.429</v>
-      </c>
-      <c r="K54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -3669,19 +3503,16 @@
         <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
       </c>
-      <c r="J55">
-        <v>1.429</v>
-      </c>
-      <c r="K55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -3704,19 +3535,16 @@
         <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I56" t="s">
         <v>45</v>
       </c>
-      <c r="J56">
-        <v>1.429</v>
-      </c>
-      <c r="K56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -3739,19 +3567,16 @@
         <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
       </c>
-      <c r="J57">
-        <v>1.429</v>
-      </c>
-      <c r="K57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>276</v>
       </c>
@@ -3774,19 +3599,16 @@
         <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I58" t="s">
         <v>45</v>
       </c>
-      <c r="J58">
-        <v>1.429</v>
-      </c>
-      <c r="K58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -3809,19 +3631,16 @@
         <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
       </c>
-      <c r="J59">
-        <v>1.429</v>
-      </c>
-      <c r="K59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>279</v>
       </c>
@@ -3844,19 +3663,16 @@
         <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I60" t="s">
         <v>45</v>
       </c>
-      <c r="J60">
-        <v>1.429</v>
-      </c>
-      <c r="K60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>281</v>
       </c>
@@ -3879,19 +3695,16 @@
         <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I61" t="s">
         <v>45</v>
       </c>
-      <c r="J61">
-        <v>1.429</v>
-      </c>
-      <c r="K61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -3914,19 +3727,16 @@
         <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I62" t="s">
         <v>33</v>
       </c>
-      <c r="J62">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="K62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>283</v>
       </c>
@@ -3949,19 +3759,16 @@
         <v>33</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I63" t="s">
         <v>33</v>
       </c>
-      <c r="J63">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="K63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>285</v>
       </c>
@@ -3981,22 +3788,19 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I64" t="s">
         <v>46</v>
       </c>
-      <c r="J64">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -4016,22 +3820,19 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
       </c>
-      <c r="J65">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -4054,19 +3855,16 @@
         <v>33</v>
       </c>
       <c r="H66" t="s">
+        <v>333</v>
+      </c>
+      <c r="I66" t="s">
         <v>334</v>
       </c>
-      <c r="I66" t="s">
-        <v>335</v>
-      </c>
-      <c r="J66">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -4089,19 +3887,16 @@
         <v>33</v>
       </c>
       <c r="H67" t="s">
+        <v>333</v>
+      </c>
+      <c r="I67" t="s">
         <v>334</v>
       </c>
-      <c r="I67" t="s">
-        <v>335</v>
-      </c>
-      <c r="J67">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -4124,19 +3919,16 @@
         <v>33</v>
       </c>
       <c r="H68" t="s">
+        <v>333</v>
+      </c>
+      <c r="I68" t="s">
         <v>334</v>
       </c>
-      <c r="I68" t="s">
-        <v>335</v>
-      </c>
-      <c r="J68">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -4159,19 +3951,16 @@
         <v>33</v>
       </c>
       <c r="H69" t="s">
+        <v>333</v>
+      </c>
+      <c r="I69" t="s">
         <v>334</v>
       </c>
-      <c r="I69" t="s">
-        <v>335</v>
-      </c>
-      <c r="J69">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>290</v>
       </c>
@@ -4194,19 +3983,16 @@
         <v>33</v>
       </c>
       <c r="H70" t="s">
+        <v>333</v>
+      </c>
+      <c r="I70" t="s">
         <v>334</v>
       </c>
-      <c r="I70" t="s">
-        <v>335</v>
-      </c>
-      <c r="J70">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -4229,19 +4015,16 @@
         <v>33</v>
       </c>
       <c r="H71" t="s">
+        <v>333</v>
+      </c>
+      <c r="I71" t="s">
         <v>334</v>
       </c>
-      <c r="I71" t="s">
-        <v>335</v>
-      </c>
-      <c r="J71">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -4264,19 +4047,16 @@
         <v>33</v>
       </c>
       <c r="H72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I72" t="s">
         <v>334</v>
       </c>
-      <c r="I72" t="s">
-        <v>335</v>
-      </c>
-      <c r="J72">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -4299,19 +4079,16 @@
         <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I73" t="s">
-        <v>329</v>
-      </c>
-      <c r="J73">
-        <v>1.59</v>
-      </c>
-      <c r="K73" t="s">
+        <v>328</v>
+      </c>
+      <c r="J73" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>296</v>
       </c>
@@ -4334,19 +4111,16 @@
         <v>33</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
-      </c>
-      <c r="J74">
-        <v>1.59</v>
-      </c>
-      <c r="K74" t="s">
+        <v>328</v>
+      </c>
+      <c r="J74" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -4369,19 +4143,16 @@
         <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
-      </c>
-      <c r="J75">
-        <v>1.59</v>
-      </c>
-      <c r="K75" t="s">
+        <v>328</v>
+      </c>
+      <c r="J75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>300</v>
       </c>
@@ -4404,19 +4175,16 @@
         <v>33</v>
       </c>
       <c r="H76" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76" t="s">
         <v>334</v>
       </c>
-      <c r="I76" t="s">
-        <v>335</v>
-      </c>
-      <c r="J76">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -4439,19 +4207,16 @@
         <v>33</v>
       </c>
       <c r="H77" t="s">
+        <v>333</v>
+      </c>
+      <c r="I77" t="s">
         <v>334</v>
       </c>
-      <c r="I77" t="s">
-        <v>335</v>
-      </c>
-      <c r="J77">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4474,19 +4239,16 @@
         <v>33</v>
       </c>
       <c r="H78" t="s">
+        <v>333</v>
+      </c>
+      <c r="I78" t="s">
         <v>334</v>
       </c>
-      <c r="I78" t="s">
-        <v>335</v>
-      </c>
-      <c r="J78">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>302</v>
       </c>
@@ -4509,19 +4271,16 @@
         <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
       </c>
-      <c r="J79">
-        <v>3.3079999999999998</v>
-      </c>
-      <c r="K79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4544,19 +4303,16 @@
         <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
       </c>
-      <c r="J80">
-        <v>3.3079999999999998</v>
-      </c>
-      <c r="K80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>304</v>
       </c>
@@ -4579,19 +4335,16 @@
         <v>33</v>
       </c>
       <c r="H81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I81" t="s">
         <v>46</v>
       </c>
-      <c r="J81">
-        <v>3.3079999999999998</v>
-      </c>
-      <c r="K81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>306</v>
       </c>
@@ -4614,19 +4367,16 @@
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I82" t="s">
         <v>46</v>
       </c>
-      <c r="J82">
-        <v>3.3079999999999998</v>
-      </c>
-      <c r="K82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>308</v>
       </c>
@@ -4649,19 +4399,16 @@
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I83" t="s">
-        <v>329</v>
-      </c>
-      <c r="J83">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="K83" t="s">
+        <v>328</v>
+      </c>
+      <c r="J83" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -4684,15 +4431,12 @@
         <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I84" t="s">
-        <v>329</v>
-      </c>
-      <c r="J84">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="K84" t="s">
+        <v>328</v>
+      </c>
+      <c r="J84" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4703,10 +4447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H18"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4718,7 +4462,7 @@
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4738,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>314</v>
@@ -4749,11 +4493,8 @@
       <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4773,22 +4514,19 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I2" t="s">
         <v>310</v>
       </c>
-      <c r="J2">
-        <v>2.694</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4808,22 +4546,19 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" t="s">
         <v>310</v>
       </c>
-      <c r="J3">
-        <v>2.694</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4843,22 +4578,19 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
         <v>310</v>
       </c>
-      <c r="J4">
-        <v>2.694</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4881,19 +4613,16 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" t="s">
         <v>325</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>326</v>
       </c>
-      <c r="J5">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="K5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4916,19 +4645,16 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" t="s">
         <v>325</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>326</v>
       </c>
-      <c r="J6">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="K6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -4951,19 +4677,16 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" t="s">
         <v>325</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>326</v>
       </c>
-      <c r="J7">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="K7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4986,19 +4709,16 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" t="s">
         <v>325</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>326</v>
       </c>
-      <c r="J8">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="K8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -5021,19 +4741,16 @@
         <v>48</v>
       </c>
       <c r="H9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="I9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J9">
-        <v>2.17</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5056,19 +4773,16 @@
         <v>48</v>
       </c>
       <c r="H10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" t="s">
         <v>328</v>
       </c>
-      <c r="I10" t="s">
-        <v>329</v>
-      </c>
-      <c r="J10">
-        <v>2.17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5091,19 +4805,16 @@
         <v>48</v>
       </c>
       <c r="H11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" t="s">
         <v>328</v>
       </c>
-      <c r="I11" t="s">
-        <v>329</v>
-      </c>
-      <c r="J11">
-        <v>2.17</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -5126,19 +4837,16 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I12" t="s">
         <v>328</v>
       </c>
-      <c r="I12" t="s">
-        <v>329</v>
-      </c>
-      <c r="J12">
-        <v>2.17</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -5161,19 +4869,16 @@
         <v>48</v>
       </c>
       <c r="H13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13" t="s">
         <v>328</v>
       </c>
-      <c r="I13" t="s">
-        <v>329</v>
-      </c>
-      <c r="J13">
-        <v>2.17</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -5196,19 +4901,16 @@
         <v>48</v>
       </c>
       <c r="H14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" t="s">
         <v>328</v>
       </c>
-      <c r="I14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J14">
-        <v>2.17</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -5231,19 +4933,16 @@
         <v>48</v>
       </c>
       <c r="H15" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" t="s">
         <v>328</v>
       </c>
-      <c r="I15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J15">
-        <v>2.17</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -5266,19 +4965,16 @@
         <v>48</v>
       </c>
       <c r="H16" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" t="s">
         <v>328</v>
       </c>
-      <c r="I16" t="s">
-        <v>329</v>
-      </c>
-      <c r="J16">
-        <v>2.17</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5301,19 +4997,16 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" t="s">
         <v>328</v>
       </c>
-      <c r="I17" t="s">
-        <v>329</v>
-      </c>
-      <c r="J17">
-        <v>2.17</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -5336,19 +5029,16 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" t="s">
         <v>328</v>
       </c>
-      <c r="I18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J18">
-        <v>2.17</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5371,19 +5061,16 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" t="s">
         <v>330</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>331</v>
       </c>
-      <c r="J19">
-        <v>1.091</v>
-      </c>
-      <c r="K19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5406,19 +5093,16 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
+        <v>329</v>
+      </c>
+      <c r="I20" t="s">
         <v>330</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>331</v>
       </c>
-      <c r="J20">
-        <v>1.091</v>
-      </c>
-      <c r="K20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -5441,19 +5125,16 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" t="s">
         <v>330</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>331</v>
       </c>
-      <c r="J21">
-        <v>1.091</v>
-      </c>
-      <c r="K21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -5476,16 +5157,13 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
+        <v>329</v>
+      </c>
+      <c r="I22" t="s">
         <v>330</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>331</v>
-      </c>
-      <c r="J22">
-        <v>1.091</v>
-      </c>
-      <c r="K22" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5762,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9BF568-6440-4200-94F4-9E9147DF6D37}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5776,11 +5454,10 @@
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5800,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>314</v>
@@ -5811,11 +5488,8 @@
       <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5838,19 +5512,16 @@
         <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="J2">
-        <v>0.86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -5873,19 +5544,16 @@
         <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J3">
-        <v>0.86</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -5905,22 +5573,19 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" t="s">
         <v>334</v>
       </c>
-      <c r="I4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J4">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5940,22 +5605,19 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" t="s">
         <v>334</v>
       </c>
-      <c r="I5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J5">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -5978,19 +5640,16 @@
         <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
       </c>
-      <c r="J6">
-        <v>1.528</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -6013,19 +5672,16 @@
         <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="J7">
-        <v>1.528</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -6048,19 +5704,16 @@
         <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8">
-        <v>1.528</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -6083,19 +5736,16 @@
         <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="J9">
-        <v>1.528</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -6118,19 +5768,16 @@
         <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
-      <c r="J10">
-        <v>1.528</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -6153,19 +5800,16 @@
         <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="J11">
-        <v>1.528</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -6188,19 +5832,16 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="J12">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -6223,19 +5864,16 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
-      <c r="J13">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -6258,19 +5896,16 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
       </c>
-      <c r="J14">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -6293,19 +5928,16 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
       </c>
-      <c r="J15">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -6328,19 +5960,16 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I16" t="s">
-        <v>335</v>
-      </c>
-      <c r="J16">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -6363,19 +5992,16 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I17" t="s">
-        <v>335</v>
-      </c>
-      <c r="J17">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -6398,19 +6024,16 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I18" t="s">
-        <v>335</v>
-      </c>
-      <c r="J18">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -6433,19 +6056,16 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
-      </c>
-      <c r="J19">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -6468,19 +6088,16 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I20" t="s">
-        <v>335</v>
-      </c>
-      <c r="J20">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -6503,19 +6120,16 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
-      </c>
-      <c r="J21">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -6538,19 +6152,16 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
-      </c>
-      <c r="J22">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -6573,15 +6184,12 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="K23" t="s">
+        <v>334</v>
+      </c>
+      <c r="J23" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6761,10 +6369,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2375E4-9474-4375-9C46-93CF815E5F32}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6775,11 +6383,10 @@
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6799,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>314</v>
@@ -6810,11 +6417,8 @@
       <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -6837,19 +6441,16 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
         <v>310</v>
       </c>
-      <c r="J2">
-        <v>4.0350000000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -6872,19 +6473,16 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
         <v>310</v>
       </c>
-      <c r="J3">
-        <v>4.0350000000000001</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -6907,19 +6505,16 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
         <v>310</v>
       </c>
-      <c r="J4">
-        <v>4.0350000000000001</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -6942,19 +6537,16 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" t="s">
         <v>340</v>
       </c>
-      <c r="I5" t="s">
-        <v>341</v>
-      </c>
-      <c r="J5">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="K5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -6977,19 +6569,16 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" t="s">
         <v>340</v>
       </c>
-      <c r="I6" t="s">
-        <v>341</v>
-      </c>
-      <c r="J6">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="K6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -7012,19 +6601,16 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" t="s">
         <v>340</v>
       </c>
-      <c r="I7" t="s">
-        <v>341</v>
-      </c>
-      <c r="J7">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="K7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -7047,19 +6633,16 @@
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
-      </c>
-      <c r="J8">
-        <v>8.0709999999999997</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -7082,19 +6665,16 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I9" t="s">
-        <v>335</v>
-      </c>
-      <c r="J9">
-        <v>8.0709999999999997</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -7117,19 +6697,16 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
-      </c>
-      <c r="J10">
-        <v>8.0709999999999997</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -7152,19 +6729,16 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J11">
-        <v>1.07</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -7187,19 +6761,16 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I12" t="s">
-        <v>335</v>
-      </c>
-      <c r="J12">
-        <v>1.07</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -7222,19 +6793,16 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
-      <c r="J13">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7257,19 +6825,16 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
       </c>
-      <c r="J14">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -7292,19 +6857,16 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
       </c>
-      <c r="J15">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -7327,19 +6889,16 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
       </c>
-      <c r="J16">
-        <v>1.133</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -7362,15 +6921,12 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I17" t="s">
         <v>33</v>
       </c>
-      <c r="J17">
-        <v>1.133</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7380,6 +6936,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>2009</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>2009</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>2009</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>2009</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>2009</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>2009</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>2009</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>2009</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>2009</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>2009</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" t="s">
+        <v>328</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>2009</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12" t="s">
+        <v>328</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>2009</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13" t="s">
+        <v>328</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>2009</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>347</v>
+      </c>
+      <c r="I14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>2009</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>347</v>
+      </c>
+      <c r="I15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>2009</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>348</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>2009</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>2009</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>2009</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19" t="s">
+        <v>330</v>
+      </c>
+      <c r="J19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>2009</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" t="s">
+        <v>330</v>
+      </c>
+      <c r="J20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>2009</v>
+      </c>
+      <c r="G21" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I21" t="s">
+        <v>334</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>2009</v>
+      </c>
+      <c r="G22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" t="s">
+        <v>342</v>
+      </c>
+      <c r="I22" t="s">
+        <v>334</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>2009</v>
+      </c>
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" t="s">
+        <v>334</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>2009</v>
+      </c>
+      <c r="G24" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" t="s">
+        <v>334</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>2009</v>
+      </c>
+      <c r="G25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I25" t="s">
+        <v>334</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>2009</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>342</v>
+      </c>
+      <c r="I26" t="s">
+        <v>334</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>2009</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>342</v>
+      </c>
+      <c r="I27" t="s">
+        <v>334</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>2009</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>342</v>
+      </c>
+      <c r="I28" t="s">
+        <v>334</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>2009</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" t="s">
+        <v>334</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>2009</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I30" t="s">
+        <v>334</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>2009</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>336</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>2009</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>2009</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>2009</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H34" t="s">
+        <v>350</v>
+      </c>
+      <c r="I34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>2009</v>
+      </c>
+      <c r="G35" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" t="s">
+        <v>350</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>2009</v>
+      </c>
+      <c r="G36" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" t="s">
+        <v>350</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>2009</v>
+      </c>
+      <c r="G37" t="s">
+        <v>320</v>
+      </c>
+      <c r="H37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>2009</v>
+      </c>
+      <c r="G38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <v>2009</v>
+      </c>
+      <c r="G39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H39" t="s">
+        <v>350</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>2009</v>
+      </c>
+      <c r="G40" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" t="s">
+        <v>350</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -7800,1427 +8657,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
-  <dimension ref="A1:K40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>2009</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2">
-        <v>2.694</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>2009</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3">
-        <v>2.694</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <v>2009</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4">
-        <v>2.694</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>2009</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5">
-        <v>2.694</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>2009</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" t="s">
-        <v>310</v>
-      </c>
-      <c r="J6">
-        <v>2.694</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>2009</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>2009</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>2009</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>347</v>
-      </c>
-      <c r="I9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J9">
-        <v>1.59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>2009</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>347</v>
-      </c>
-      <c r="I10" t="s">
-        <v>329</v>
-      </c>
-      <c r="J10">
-        <v>1.59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <v>2009</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>347</v>
-      </c>
-      <c r="I11" t="s">
-        <v>329</v>
-      </c>
-      <c r="J11">
-        <v>1.59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12">
-        <v>2009</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>348</v>
-      </c>
-      <c r="I12" t="s">
-        <v>329</v>
-      </c>
-      <c r="J12">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13">
-        <v>2009</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>348</v>
-      </c>
-      <c r="I13" t="s">
-        <v>329</v>
-      </c>
-      <c r="J13">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="K13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14">
-        <v>2009</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>348</v>
-      </c>
-      <c r="I14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J14">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="K14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15">
-        <v>2009</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>348</v>
-      </c>
-      <c r="I15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J15">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>2009</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16">
-        <v>1.32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>2009</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>349</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17">
-        <v>1.32</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <v>2009</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18">
-        <v>1.32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19">
-        <v>2009</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>350</v>
-      </c>
-      <c r="I19" t="s">
-        <v>331</v>
-      </c>
-      <c r="J19">
-        <v>1.091</v>
-      </c>
-      <c r="K19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20">
-        <v>2009</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>350</v>
-      </c>
-      <c r="I20" t="s">
-        <v>331</v>
-      </c>
-      <c r="J20">
-        <v>1.091</v>
-      </c>
-      <c r="K20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <v>2009</v>
-      </c>
-      <c r="G21" t="s">
-        <v>323</v>
-      </c>
-      <c r="H21" t="s">
-        <v>343</v>
-      </c>
-      <c r="I21" t="s">
-        <v>335</v>
-      </c>
-      <c r="J21">
-        <v>1.07</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>2009</v>
-      </c>
-      <c r="G22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H22" t="s">
-        <v>343</v>
-      </c>
-      <c r="I22" t="s">
-        <v>335</v>
-      </c>
-      <c r="J22">
-        <v>1.07</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23">
-        <v>2009</v>
-      </c>
-      <c r="G23" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23" t="s">
-        <v>343</v>
-      </c>
-      <c r="I23" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23">
-        <v>1.07</v>
-      </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24">
-        <v>2009</v>
-      </c>
-      <c r="G24" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" t="s">
-        <v>343</v>
-      </c>
-      <c r="I24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J24">
-        <v>1.07</v>
-      </c>
-      <c r="K24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25">
-        <v>2009</v>
-      </c>
-      <c r="G25" t="s">
-        <v>323</v>
-      </c>
-      <c r="H25" t="s">
-        <v>343</v>
-      </c>
-      <c r="I25" t="s">
-        <v>335</v>
-      </c>
-      <c r="J25">
-        <v>1.07</v>
-      </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26">
-        <v>2009</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s">
-        <v>343</v>
-      </c>
-      <c r="I26" t="s">
-        <v>335</v>
-      </c>
-      <c r="J26">
-        <v>1.07</v>
-      </c>
-      <c r="K26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>2009</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s">
-        <v>343</v>
-      </c>
-      <c r="I27" t="s">
-        <v>335</v>
-      </c>
-      <c r="J27">
-        <v>1.07</v>
-      </c>
-      <c r="K27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28">
-        <v>2009</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>343</v>
-      </c>
-      <c r="I28" t="s">
-        <v>335</v>
-      </c>
-      <c r="J28">
-        <v>1.07</v>
-      </c>
-      <c r="K28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>2009</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" t="s">
-        <v>335</v>
-      </c>
-      <c r="J29">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30">
-        <v>2009</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>334</v>
-      </c>
-      <c r="I30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J30">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31">
-        <v>2009</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>337</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31">
-        <v>2.16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32">
-        <v>2009</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s">
-        <v>337</v>
-      </c>
-      <c r="I32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32">
-        <v>2.16</v>
-      </c>
-      <c r="K32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33">
-        <v>2009</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s">
-        <v>337</v>
-      </c>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33">
-        <v>2.16</v>
-      </c>
-      <c r="K33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34">
-        <v>2009</v>
-      </c>
-      <c r="G34" t="s">
-        <v>321</v>
-      </c>
-      <c r="H34" t="s">
-        <v>351</v>
-      </c>
-      <c r="I34" t="s">
-        <v>329</v>
-      </c>
-      <c r="J34">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35">
-        <v>2009</v>
-      </c>
-      <c r="G35" t="s">
-        <v>321</v>
-      </c>
-      <c r="H35" t="s">
-        <v>351</v>
-      </c>
-      <c r="I35" t="s">
-        <v>329</v>
-      </c>
-      <c r="J35">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36">
-        <v>2009</v>
-      </c>
-      <c r="G36" t="s">
-        <v>321</v>
-      </c>
-      <c r="H36" t="s">
-        <v>351</v>
-      </c>
-      <c r="I36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J36">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37">
-        <v>2009</v>
-      </c>
-      <c r="G37" t="s">
-        <v>321</v>
-      </c>
-      <c r="H37" t="s">
-        <v>351</v>
-      </c>
-      <c r="I37" t="s">
-        <v>329</v>
-      </c>
-      <c r="J37">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38">
-        <v>2009</v>
-      </c>
-      <c r="G38" t="s">
-        <v>321</v>
-      </c>
-      <c r="H38" t="s">
-        <v>351</v>
-      </c>
-      <c r="I38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J38">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39">
-        <v>2009</v>
-      </c>
-      <c r="G39" t="s">
-        <v>321</v>
-      </c>
-      <c r="H39" t="s">
-        <v>351</v>
-      </c>
-      <c r="I39" t="s">
-        <v>329</v>
-      </c>
-      <c r="J39">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40">
-        <v>2009</v>
-      </c>
-      <c r="G40" t="s">
-        <v>321</v>
-      </c>
-      <c r="H40" t="s">
-        <v>351</v>
-      </c>
-      <c r="I40" t="s">
-        <v>329</v>
-      </c>
-      <c r="J40">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="K40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC39D1-3BE9-4405-9ED9-CAB0F811E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="2007nodes" sheetId="4" r:id="rId4"/>
     <sheet name="2008authors" sheetId="5" r:id="rId5"/>
     <sheet name="2008nodes" sheetId="6" r:id="rId6"/>
-    <sheet name="2009nodes" sheetId="8" r:id="rId7"/>
-    <sheet name="2009authors" sheetId="7" r:id="rId8"/>
+    <sheet name="2009authors" sheetId="7" r:id="rId7"/>
+    <sheet name="2009nodes" sheetId="8" r:id="rId8"/>
     <sheet name="2010authors" sheetId="9" r:id="rId9"/>
     <sheet name="2010nodes" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -1495,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18145C-2A6A-4B4F-A60B-42F255DE5BF1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5452,6 +5452,7 @@
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
@@ -6936,6 +6937,430 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -8236,430 +8661,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21">
-        <v>32</v>
-      </c>
-      <c r="D21">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23">
-        <v>34</v>
-      </c>
-      <c r="D23">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26">
-        <v>35</v>
-      </c>
-      <c r="D26">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27">
-        <v>35</v>
-      </c>
-      <c r="D27">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>2009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F1DDC3-4F58-407A-BA9A-C44F1B08F2FD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -805,9 +805,6 @@
     <t>Jacobsen, D</t>
   </si>
   <si>
-    <t>DJA</t>
-  </si>
-  <si>
     <t>Dangles, O</t>
   </si>
   <si>
@@ -841,9 +838,6 @@
     <t>Buss, DF</t>
   </si>
   <si>
-    <t>DFBU</t>
-  </si>
-  <si>
     <t>Vitorino, AS</t>
   </si>
   <si>
@@ -1112,6 +1106,12 @@
   </si>
   <si>
     <t>International Journal of Limnology</t>
+  </si>
+  <si>
+    <t>DANFB</t>
+  </si>
+  <si>
+    <t>DENJD</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1196,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1485,7 +1489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1734,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1772,16 +1776,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1804,13 +1808,13 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J2" t="s">
         <v>50</v>
@@ -1836,13 +1840,13 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
@@ -1868,13 +1872,13 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
@@ -1900,13 +1904,13 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
@@ -1932,13 +1936,13 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
@@ -1964,13 +1968,13 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
@@ -1996,13 +2000,13 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -2028,13 +2032,13 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -2063,7 +2067,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I10" t="s">
         <v>33</v>
@@ -2095,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
@@ -2127,7 +2131,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I12" t="s">
         <v>33</v>
@@ -2159,7 +2163,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
@@ -2191,7 +2195,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
@@ -2223,7 +2227,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
@@ -2255,7 +2259,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
@@ -2284,13 +2288,13 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
@@ -2316,13 +2320,13 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
@@ -2348,13 +2352,13 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -2380,13 +2384,13 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -2412,13 +2416,13 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -2444,13 +2448,13 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -2476,13 +2480,13 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
@@ -2508,13 +2512,13 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
@@ -2543,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I25" t="s">
         <v>33</v>
@@ -2575,7 +2579,7 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I26" t="s">
         <v>33</v>
@@ -2607,7 +2611,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I27" t="s">
         <v>33</v>
@@ -2639,7 +2643,7 @@
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I28" t="s">
         <v>33</v>
@@ -2671,7 +2675,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I29" t="s">
         <v>33</v>
@@ -2703,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
@@ -2735,7 +2739,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I31" t="s">
         <v>33</v>
@@ -2767,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I32" t="s">
         <v>33</v>
@@ -2799,7 +2803,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I33" t="s">
         <v>33</v>
@@ -2831,7 +2835,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I34" t="s">
         <v>33</v>
@@ -2863,10 +2867,10 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
@@ -2880,7 +2884,7 @@
         <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2895,10 +2899,10 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
         <v>49</v>
@@ -2912,7 +2916,7 @@
         <v>237</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2927,10 +2931,10 @@
         <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
         <v>49</v>
@@ -2944,7 +2948,7 @@
         <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2959,10 +2963,10 @@
         <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
         <v>49</v>
@@ -2976,7 +2980,7 @@
         <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2991,10 +2995,10 @@
         <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
         <v>49</v>
@@ -3023,7 +3027,7 @@
         <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I40" t="s">
         <v>46</v>
@@ -3055,7 +3059,7 @@
         <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I41" t="s">
         <v>46</v>
@@ -3087,7 +3091,7 @@
         <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -3119,7 +3123,7 @@
         <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I43" t="s">
         <v>46</v>
@@ -3151,7 +3155,7 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I44" t="s">
         <v>33</v>
@@ -3183,7 +3187,7 @@
         <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I45" t="s">
         <v>33</v>
@@ -3197,10 +3201,10 @@
         <v>252</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3215,10 +3219,10 @@
         <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J46" t="s">
         <v>49</v>
@@ -3226,10 +3230,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" t="s">
         <v>254</v>
-      </c>
-      <c r="B47" t="s">
-        <v>255</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
@@ -3247,10 +3251,10 @@
         <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
         <v>49</v>
@@ -3258,10 +3262,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" t="s">
         <v>256</v>
-      </c>
-      <c r="B48" t="s">
-        <v>257</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -3279,10 +3283,10 @@
         <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
         <v>49</v>
@@ -3290,10 +3294,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" t="s">
         <v>258</v>
-      </c>
-      <c r="B49" t="s">
-        <v>259</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -3311,10 +3315,10 @@
         <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J49" t="s">
         <v>49</v>
@@ -3322,13 +3326,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" t="s">
         <v>260</v>
       </c>
-      <c r="B50" t="s">
-        <v>261</v>
-      </c>
       <c r="C50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3343,10 +3347,10 @@
         <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
@@ -3354,10 +3358,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
         <v>262</v>
-      </c>
-      <c r="B51" t="s">
-        <v>263</v>
       </c>
       <c r="C51" t="s">
         <v>127</v>
@@ -3375,10 +3379,10 @@
         <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
@@ -3386,10 +3390,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
@@ -3407,10 +3411,10 @@
         <v>33</v>
       </c>
       <c r="H52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
@@ -3418,10 +3422,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
@@ -3439,10 +3443,10 @@
         <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -3450,10 +3454,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
         <v>45</v>
@@ -3471,7 +3475,7 @@
         <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
@@ -3482,10 +3486,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
         <v>45</v>
@@ -3503,7 +3507,7 @@
         <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
@@ -3514,10 +3518,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
         <v>45</v>
@@ -3535,7 +3539,7 @@
         <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I56" t="s">
         <v>45</v>
@@ -3546,10 +3550,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
         <v>45</v>
@@ -3567,7 +3571,7 @@
         <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
@@ -3578,10 +3582,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
         <v>45</v>
@@ -3599,7 +3603,7 @@
         <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I58" t="s">
         <v>45</v>
@@ -3610,7 +3614,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -3631,7 +3635,7 @@
         <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
@@ -3642,10 +3646,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s">
         <v>45</v>
@@ -3663,7 +3667,7 @@
         <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I60" t="s">
         <v>45</v>
@@ -3674,10 +3678,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -3695,7 +3699,7 @@
         <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I61" t="s">
         <v>45</v>
@@ -3727,7 +3731,7 @@
         <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I62" t="s">
         <v>33</v>
@@ -3738,10 +3742,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B63" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
@@ -3759,7 +3763,7 @@
         <v>33</v>
       </c>
       <c r="H63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I63" t="s">
         <v>33</v>
@@ -3770,10 +3774,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C64" t="s">
         <v>43</v>
@@ -3788,10 +3792,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H64" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I64" t="s">
         <v>46</v>
@@ -3805,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C65" t="s">
         <v>43</v>
@@ -3820,10 +3824,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H65" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
@@ -3855,10 +3859,10 @@
         <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J66" t="s">
         <v>49</v>
@@ -3887,10 +3891,10 @@
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J67" t="s">
         <v>49</v>
@@ -3919,10 +3923,10 @@
         <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J68" t="s">
         <v>49</v>
@@ -3930,10 +3934,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
@@ -3951,10 +3955,10 @@
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
@@ -3962,10 +3966,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
@@ -3983,10 +3987,10 @@
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I70" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J70" t="s">
         <v>49</v>
@@ -3994,10 +3998,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
@@ -4015,10 +4019,10 @@
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J71" t="s">
         <v>49</v>
@@ -4047,10 +4051,10 @@
         <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J72" t="s">
         <v>49</v>
@@ -4058,10 +4062,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -4079,10 +4083,10 @@
         <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J73" t="s">
         <v>50</v>
@@ -4090,10 +4094,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
@@ -4111,10 +4115,10 @@
         <v>33</v>
       </c>
       <c r="H74" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J74" t="s">
         <v>50</v>
@@ -4122,10 +4126,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
         <v>33</v>
@@ -4143,10 +4147,10 @@
         <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J75" t="s">
         <v>50</v>
@@ -4154,10 +4158,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
@@ -4175,10 +4179,10 @@
         <v>33</v>
       </c>
       <c r="H76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
@@ -4207,10 +4211,10 @@
         <v>33</v>
       </c>
       <c r="H77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J77" t="s">
         <v>49</v>
@@ -4239,10 +4243,10 @@
         <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J78" t="s">
         <v>49</v>
@@ -4250,10 +4254,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
@@ -4271,7 +4275,7 @@
         <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
@@ -4303,7 +4307,7 @@
         <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
@@ -4314,10 +4318,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
@@ -4335,7 +4339,7 @@
         <v>33</v>
       </c>
       <c r="H81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I81" t="s">
         <v>46</v>
@@ -4346,10 +4350,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
@@ -4367,7 +4371,7 @@
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I82" t="s">
         <v>46</v>
@@ -4378,10 +4382,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
@@ -4399,10 +4403,10 @@
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J83" t="s">
         <v>50</v>
@@ -4431,10 +4435,10 @@
         <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J84" t="s">
         <v>50</v>
@@ -4482,16 +4486,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,13 +4518,13 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -4546,13 +4550,13 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
@@ -4578,13 +4582,13 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -4613,13 +4617,13 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J5" t="s">
         <v>324</v>
-      </c>
-      <c r="I5" t="s">
-        <v>325</v>
-      </c>
-      <c r="J5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,13 +4649,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" t="s">
         <v>324</v>
-      </c>
-      <c r="I6" t="s">
-        <v>325</v>
-      </c>
-      <c r="J6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,13 +4681,13 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" t="s">
         <v>324</v>
-      </c>
-      <c r="I7" t="s">
-        <v>325</v>
-      </c>
-      <c r="J7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4709,13 +4713,13 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" t="s">
         <v>324</v>
-      </c>
-      <c r="I8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,10 +4745,10 @@
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -4773,10 +4777,10 @@
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J10" t="s">
         <v>50</v>
@@ -4805,10 +4809,10 @@
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
@@ -4837,10 +4841,10 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -4869,10 +4873,10 @@
         <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
@@ -4901,10 +4905,10 @@
         <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
@@ -4933,10 +4937,10 @@
         <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J15" t="s">
         <v>50</v>
@@ -4965,10 +4969,10 @@
         <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J16" t="s">
         <v>50</v>
@@ -4997,10 +5001,10 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
         <v>50</v>
@@ -5029,10 +5033,10 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J18" t="s">
         <v>50</v>
@@ -5061,13 +5065,13 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J19" t="s">
         <v>329</v>
-      </c>
-      <c r="I19" t="s">
-        <v>330</v>
-      </c>
-      <c r="J19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5093,13 +5097,13 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" t="s">
         <v>329</v>
-      </c>
-      <c r="I20" t="s">
-        <v>330</v>
-      </c>
-      <c r="J20" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,13 +5129,13 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J21" t="s">
         <v>329</v>
-      </c>
-      <c r="I21" t="s">
-        <v>330</v>
-      </c>
-      <c r="J21" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5157,13 +5161,13 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" t="s">
+        <v>328</v>
+      </c>
+      <c r="J22" t="s">
         <v>329</v>
-      </c>
-      <c r="I22" t="s">
-        <v>330</v>
-      </c>
-      <c r="J22" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5478,16 +5482,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5513,7 +5517,7 @@
         <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
@@ -5545,7 +5549,7 @@
         <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -5574,13 +5578,13 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -5606,13 +5610,13 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
@@ -5641,7 +5645,7 @@
         <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -5673,7 +5677,7 @@
         <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
@@ -5705,7 +5709,7 @@
         <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
@@ -5737,7 +5741,7 @@
         <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -5769,7 +5773,7 @@
         <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -5801,7 +5805,7 @@
         <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -5833,7 +5837,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -5865,7 +5869,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -5897,7 +5901,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -5929,7 +5933,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -5961,10 +5965,10 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
@@ -5993,10 +5997,10 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
@@ -6025,10 +6029,10 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
@@ -6057,10 +6061,10 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -6089,10 +6093,10 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -6121,10 +6125,10 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -6153,10 +6157,10 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -6185,10 +6189,10 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
@@ -6407,16 +6411,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6442,10 +6446,10 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -6474,10 +6478,10 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
@@ -6506,10 +6510,10 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -6538,13 +6542,13 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6570,13 +6574,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6602,13 +6606,13 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6634,10 +6638,10 @@
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -6666,10 +6670,10 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -6698,10 +6702,10 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
@@ -6730,10 +6734,10 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -6762,10 +6766,10 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
@@ -6794,7 +6798,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -6826,7 +6830,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -6858,7 +6862,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -6890,7 +6894,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
@@ -6922,7 +6926,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I17" t="s">
         <v>33</v>
@@ -7395,16 +7399,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7430,10 +7434,10 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -7462,10 +7466,10 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
@@ -7494,10 +7498,10 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -7526,10 +7530,10 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
@@ -7558,10 +7562,10 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -7590,7 +7594,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -7622,7 +7626,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
@@ -7654,10 +7658,10 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -7686,10 +7690,10 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J10" t="s">
         <v>50</v>
@@ -7718,10 +7722,10 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
@@ -7750,10 +7754,10 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -7782,10 +7786,10 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
@@ -7814,10 +7818,10 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
@@ -7846,10 +7850,10 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J15" t="s">
         <v>50</v>
@@ -7878,7 +7882,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
@@ -7910,7 +7914,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I17" t="s">
         <v>33</v>
@@ -7942,7 +7946,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I18" t="s">
         <v>33</v>
@@ -7974,13 +7978,13 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8006,13 +8010,13 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8035,13 +8039,13 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -8067,13 +8071,13 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -8099,13 +8103,13 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
@@ -8131,13 +8135,13 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
@@ -8163,13 +8167,13 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
@@ -8198,10 +8202,10 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J26" t="s">
         <v>49</v>
@@ -8230,10 +8234,10 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
@@ -8262,10 +8266,10 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
@@ -8294,10 +8298,10 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
@@ -8326,10 +8330,10 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
@@ -8358,7 +8362,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
@@ -8390,7 +8394,7 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
@@ -8422,7 +8426,7 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I33" t="s">
         <v>46</v>
@@ -8451,13 +8455,13 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J34" t="s">
         <v>50</v>
@@ -8483,13 +8487,13 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
@@ -8515,13 +8519,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
@@ -8547,13 +8551,13 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
         <v>50</v>
@@ -8579,13 +8583,13 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
         <v>50</v>
@@ -8611,13 +8615,13 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J39" t="s">
         <v>50</v>
@@ -8643,13 +8647,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
         <v>50</v>
@@ -8665,8 +8669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9176,11 +9180,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>253</v>
+      <c r="A37" t="s">
+        <v>355</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9190,11 +9194,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>253</v>
+      <c r="A38" t="s">
+        <v>355</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9204,11 +9208,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>253</v>
+      <c r="A39" t="s">
+        <v>355</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9218,11 +9222,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>253</v>
+      <c r="A40" t="s">
+        <v>355</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9232,11 +9236,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>253</v>
+      <c r="A41" t="s">
+        <v>355</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9246,11 +9250,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
+        <v>354</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9261,10 +9265,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9275,10 +9279,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9289,10 +9293,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9303,10 +9307,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9317,7 +9321,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>28</v>
@@ -9331,10 +9335,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9345,10 +9349,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9362,7 +9366,7 @@
         <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9376,7 +9380,7 @@
         <v>159</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9390,7 +9394,7 @@
         <v>159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9432,7 +9436,7 @@
         <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9446,7 +9450,7 @@
         <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9460,7 +9464,7 @@
         <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9485,10 +9489,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9499,10 +9503,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9513,7 +9517,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9527,7 +9531,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9541,7 +9545,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>42</v>
@@ -9555,10 +9559,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9569,10 +9573,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9583,7 +9587,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F1DDC3-4F58-407A-BA9A-C44F1B08F2FD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DACA04-1C38-4F9C-822E-A5DC6046490C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>CBK</t>
   </si>
   <si>
-    <t>JSA</t>
-  </si>
-  <si>
     <t>Roque, FO</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>DENJD</t>
+  </si>
+  <si>
+    <t>JACSL</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,272 +1776,272 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
-        <v>200</v>
-      </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
         <v>325</v>
       </c>
-      <c r="I2" t="s">
-        <v>326</v>
-      </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
         <v>325</v>
       </c>
-      <c r="I3" t="s">
-        <v>326</v>
-      </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
         <v>205</v>
       </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" t="s">
         <v>325</v>
       </c>
-      <c r="I4" t="s">
-        <v>326</v>
-      </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" t="s">
         <v>325</v>
       </c>
-      <c r="I5" t="s">
-        <v>326</v>
-      </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
         <v>203</v>
       </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" t="s">
         <v>325</v>
       </c>
-      <c r="I6" t="s">
-        <v>326</v>
-      </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
         <v>207</v>
       </c>
-      <c r="B7" t="s">
-        <v>208</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" t="s">
         <v>325</v>
       </c>
-      <c r="I7" t="s">
-        <v>326</v>
-      </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
         <v>211</v>
       </c>
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" t="s">
         <v>325</v>
       </c>
-      <c r="I8" t="s">
-        <v>326</v>
-      </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="I9" t="s">
-        <v>326</v>
-      </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2049,31 +2049,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>2010</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2081,31 +2081,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>2010</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2113,415 +2113,415 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2010</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
         <v>214</v>
       </c>
-      <c r="B13" t="s">
-        <v>215</v>
-      </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>2010</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
         <v>216</v>
       </c>
-      <c r="B14" t="s">
-        <v>217</v>
-      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2010</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
         <v>218</v>
       </c>
-      <c r="B15" t="s">
-        <v>219</v>
-      </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>2010</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
         <v>220</v>
       </c>
-      <c r="B16" t="s">
-        <v>221</v>
-      </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>2010</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
         <v>199</v>
       </c>
-      <c r="B17" t="s">
-        <v>200</v>
-      </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H17" t="s">
+        <v>330</v>
+      </c>
+      <c r="I17" t="s">
         <v>331</v>
       </c>
-      <c r="I17" t="s">
-        <v>332</v>
-      </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
         <v>201</v>
       </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18">
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H18" t="s">
+        <v>330</v>
+      </c>
+      <c r="I18" t="s">
         <v>331</v>
       </c>
-      <c r="I18" t="s">
-        <v>332</v>
-      </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
         <v>211</v>
       </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
+        <v>330</v>
+      </c>
+      <c r="I19" t="s">
         <v>331</v>
       </c>
-      <c r="I19" t="s">
-        <v>332</v>
-      </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
         <v>203</v>
       </c>
-      <c r="B20" t="s">
-        <v>204</v>
-      </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H20" t="s">
+        <v>330</v>
+      </c>
+      <c r="I20" t="s">
         <v>331</v>
       </c>
-      <c r="I20" t="s">
-        <v>332</v>
-      </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s">
         <v>205</v>
       </c>
-      <c r="B21" t="s">
-        <v>206</v>
-      </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H21" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" t="s">
         <v>331</v>
       </c>
-      <c r="I21" t="s">
-        <v>332</v>
-      </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" t="s">
         <v>331</v>
       </c>
-      <c r="I22" t="s">
-        <v>332</v>
-      </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
         <v>207</v>
       </c>
-      <c r="B23" t="s">
-        <v>208</v>
-      </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H23" t="s">
+        <v>330</v>
+      </c>
+      <c r="I23" t="s">
         <v>331</v>
       </c>
-      <c r="I23" t="s">
-        <v>332</v>
-      </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
         <v>209</v>
       </c>
-      <c r="B24" t="s">
-        <v>210</v>
-      </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I24" t="s">
         <v>331</v>
       </c>
-      <c r="I24" t="s">
-        <v>332</v>
-      </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2529,31 +2529,31 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25">
         <v>2010</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2561,31 +2561,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26">
         <v>2010</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2596,252 +2596,252 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27">
         <v>2010</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="s">
         <v>222</v>
       </c>
-      <c r="B28" t="s">
-        <v>223</v>
-      </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>2010</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" t="s">
         <v>224</v>
       </c>
-      <c r="B29" t="s">
-        <v>225</v>
-      </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29">
         <v>2010</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s">
         <v>226</v>
       </c>
-      <c r="B30" t="s">
-        <v>227</v>
-      </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>2010</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" t="s">
         <v>228</v>
       </c>
-      <c r="B31" t="s">
-        <v>229</v>
-      </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31">
         <v>2010</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32">
         <v>2010</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
         <v>230</v>
       </c>
-      <c r="B33" t="s">
-        <v>231</v>
-      </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33">
         <v>2010</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
         <v>232</v>
       </c>
-      <c r="B34" t="s">
-        <v>233</v>
-      </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34">
         <v>2010</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2852,956 +2852,956 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35">
         <v>2010</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" t="s">
         <v>331</v>
       </c>
-      <c r="I35" t="s">
-        <v>332</v>
-      </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" t="s">
         <v>234</v>
       </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>2010</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" t="s">
         <v>331</v>
       </c>
-      <c r="I36" t="s">
-        <v>332</v>
-      </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
         <v>236</v>
       </c>
-      <c r="B37" t="s">
-        <v>237</v>
-      </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>2010</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" t="s">
         <v>331</v>
       </c>
-      <c r="I37" t="s">
-        <v>332</v>
-      </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
         <v>238</v>
       </c>
-      <c r="B38" t="s">
-        <v>239</v>
-      </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>2010</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" t="s">
         <v>331</v>
       </c>
-      <c r="I38" t="s">
-        <v>332</v>
-      </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
         <v>240</v>
       </c>
-      <c r="B39" t="s">
-        <v>241</v>
-      </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>2010</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" t="s">
         <v>331</v>
       </c>
-      <c r="I39" t="s">
-        <v>332</v>
-      </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
         <v>242</v>
       </c>
-      <c r="B40" t="s">
-        <v>243</v>
-      </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>2010</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
         <v>244</v>
       </c>
-      <c r="B41" t="s">
-        <v>245</v>
-      </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>2010</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" t="s">
         <v>246</v>
       </c>
-      <c r="B42" t="s">
-        <v>247</v>
-      </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>2010</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" t="s">
         <v>248</v>
       </c>
-      <c r="B43" t="s">
-        <v>249</v>
-      </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>2010</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="s">
         <v>250</v>
       </c>
-      <c r="B44" t="s">
-        <v>251</v>
-      </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44">
         <v>2010</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
         <v>158</v>
       </c>
-      <c r="B45" t="s">
-        <v>159</v>
-      </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45">
         <v>2010</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>2010</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" t="s">
         <v>331</v>
       </c>
-      <c r="I46" t="s">
-        <v>332</v>
-      </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s">
         <v>253</v>
       </c>
-      <c r="B47" t="s">
-        <v>254</v>
-      </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47">
         <v>2010</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I47" t="s">
         <v>331</v>
       </c>
-      <c r="I47" t="s">
-        <v>332</v>
-      </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" t="s">
         <v>255</v>
       </c>
-      <c r="B48" t="s">
-        <v>256</v>
-      </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48">
         <v>2010</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
+        <v>330</v>
+      </c>
+      <c r="I48" t="s">
         <v>331</v>
       </c>
-      <c r="I48" t="s">
-        <v>332</v>
-      </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" t="s">
         <v>257</v>
       </c>
-      <c r="B49" t="s">
-        <v>258</v>
-      </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>2010</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49" t="s">
+        <v>330</v>
+      </c>
+      <c r="I49" t="s">
         <v>331</v>
       </c>
-      <c r="I49" t="s">
-        <v>332</v>
-      </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" t="s">
         <v>259</v>
       </c>
-      <c r="B50" t="s">
-        <v>260</v>
-      </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D50">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>2010</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" t="s">
+        <v>330</v>
+      </c>
+      <c r="I50" t="s">
         <v>331</v>
       </c>
-      <c r="I50" t="s">
-        <v>332</v>
-      </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" t="s">
         <v>261</v>
       </c>
-      <c r="B51" t="s">
-        <v>262</v>
-      </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51">
         <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <v>2010</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51" t="s">
+        <v>330</v>
+      </c>
+      <c r="I51" t="s">
         <v>331</v>
       </c>
-      <c r="I51" t="s">
-        <v>332</v>
-      </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52">
         <v>2010</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
+        <v>324</v>
+      </c>
+      <c r="I52" t="s">
         <v>325</v>
       </c>
-      <c r="I52" t="s">
-        <v>326</v>
-      </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" t="s">
         <v>264</v>
       </c>
-      <c r="B53" t="s">
-        <v>265</v>
-      </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <v>2010</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53" t="s">
         <v>325</v>
       </c>
-      <c r="I53" t="s">
-        <v>326</v>
-      </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" t="s">
         <v>266</v>
       </c>
-      <c r="B54" t="s">
-        <v>267</v>
-      </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54">
         <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54">
         <v>2010</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" t="s">
         <v>268</v>
       </c>
-      <c r="B55" t="s">
-        <v>269</v>
-      </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55">
         <v>2010</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" t="s">
         <v>270</v>
       </c>
-      <c r="B56" t="s">
-        <v>271</v>
-      </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56">
         <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56">
         <v>2010</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" t="s">
         <v>272</v>
       </c>
-      <c r="B57" t="s">
-        <v>273</v>
-      </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57">
         <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57">
         <v>2010</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
         <v>274</v>
       </c>
-      <c r="B58" t="s">
-        <v>275</v>
-      </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58">
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58">
         <v>2010</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D59">
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <v>2010</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" t="s">
         <v>277</v>
       </c>
-      <c r="B60" t="s">
-        <v>278</v>
-      </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60">
         <v>2010</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" t="s">
         <v>279</v>
       </c>
-      <c r="B61" t="s">
-        <v>280</v>
-      </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61">
         <v>2010</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62">
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62">
         <v>2010</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" t="s">
         <v>281</v>
       </c>
-      <c r="B63" t="s">
-        <v>282</v>
-      </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63">
         <v>2010</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" t="s">
         <v>283</v>
       </c>
-      <c r="B64" t="s">
-        <v>284</v>
-      </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64">
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3809,383 +3809,383 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65">
         <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65">
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66">
         <v>2010</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" t="s">
         <v>331</v>
       </c>
-      <c r="I66" t="s">
-        <v>332</v>
-      </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67">
         <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67">
         <v>2010</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
+        <v>330</v>
+      </c>
+      <c r="I67" t="s">
         <v>331</v>
       </c>
-      <c r="I67" t="s">
-        <v>332</v>
-      </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="s">
         <v>162</v>
       </c>
-      <c r="B68" t="s">
-        <v>163</v>
-      </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68">
         <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68">
         <v>2010</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
+        <v>330</v>
+      </c>
+      <c r="I68" t="s">
         <v>331</v>
       </c>
-      <c r="I68" t="s">
-        <v>332</v>
-      </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" t="s">
         <v>286</v>
       </c>
-      <c r="B69" t="s">
-        <v>287</v>
-      </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69">
         <v>2010</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" t="s">
         <v>331</v>
       </c>
-      <c r="I69" t="s">
-        <v>332</v>
-      </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
         <v>288</v>
       </c>
-      <c r="B70" t="s">
-        <v>289</v>
-      </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70">
         <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70">
         <v>2010</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
+        <v>330</v>
+      </c>
+      <c r="I70" t="s">
         <v>331</v>
       </c>
-      <c r="I70" t="s">
-        <v>332</v>
-      </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" t="s">
         <v>290</v>
       </c>
-      <c r="B71" t="s">
-        <v>291</v>
-      </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71">
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F71">
         <v>2010</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I71" t="s">
         <v>331</v>
       </c>
-      <c r="I71" t="s">
-        <v>332</v>
-      </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72">
         <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F72">
         <v>2010</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
+        <v>330</v>
+      </c>
+      <c r="I72" t="s">
         <v>331</v>
       </c>
-      <c r="I72" t="s">
-        <v>332</v>
-      </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" t="s">
         <v>292</v>
       </c>
-      <c r="B73" t="s">
-        <v>293</v>
-      </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73">
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73">
         <v>2010</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" t="s">
         <v>294</v>
       </c>
-      <c r="B74" t="s">
-        <v>295</v>
-      </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74">
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F74">
         <v>2010</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" t="s">
         <v>296</v>
       </c>
-      <c r="B75" t="s">
-        <v>297</v>
-      </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75">
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75">
         <v>2010</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" t="s">
         <v>298</v>
       </c>
-      <c r="B76" t="s">
-        <v>299</v>
-      </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76">
         <v>42</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76">
         <v>2010</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
+        <v>330</v>
+      </c>
+      <c r="I76" t="s">
         <v>331</v>
       </c>
-      <c r="I76" t="s">
-        <v>332</v>
-      </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4196,28 +4196,28 @@
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77">
         <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77">
         <v>2010</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
+        <v>330</v>
+      </c>
+      <c r="I77" t="s">
         <v>331</v>
       </c>
-      <c r="I77" t="s">
-        <v>332</v>
-      </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4228,60 +4228,60 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78">
         <v>42</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F78">
         <v>2010</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I78" t="s">
         <v>331</v>
       </c>
-      <c r="I78" t="s">
-        <v>332</v>
-      </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" t="s">
         <v>300</v>
       </c>
-      <c r="B79" t="s">
-        <v>301</v>
-      </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79">
         <v>2010</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4289,127 +4289,127 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80">
         <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80">
         <v>2010</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" t="s">
         <v>302</v>
       </c>
-      <c r="B81" t="s">
-        <v>303</v>
-      </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81">
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81">
         <v>2010</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" t="s">
         <v>304</v>
       </c>
-      <c r="B82" t="s">
-        <v>305</v>
-      </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82">
         <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82">
         <v>2010</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" t="s">
         <v>306</v>
       </c>
-      <c r="B83" t="s">
-        <v>307</v>
-      </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83">
         <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F83">
         <v>2010</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -4420,28 +4420,28 @@
         <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84">
         <v>45</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84">
         <v>2010</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4486,144 +4486,144 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2006</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" t="s">
         <v>322</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>323</v>
-      </c>
-      <c r="J5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4631,63 +4631,63 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>2006</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>323</v>
-      </c>
-      <c r="J6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2006</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" t="s">
         <v>322</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>323</v>
-      </c>
-      <c r="J7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4695,63 +4695,63 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2006</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" t="s">
         <v>322</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>323</v>
-      </c>
-      <c r="J8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>2006</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="I9" t="s">
-        <v>326</v>
-      </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4759,31 +4759,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" t="s">
         <v>325</v>
       </c>
-      <c r="I10" t="s">
-        <v>326</v>
-      </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4791,255 +4791,255 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>2006</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" t="s">
         <v>325</v>
       </c>
-      <c r="I11" t="s">
-        <v>326</v>
-      </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2006</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" t="s">
         <v>325</v>
       </c>
-      <c r="I12" t="s">
-        <v>326</v>
-      </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>2006</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>326</v>
-      </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>2006</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" t="s">
         <v>325</v>
       </c>
-      <c r="I14" t="s">
-        <v>326</v>
-      </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>2006</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" t="s">
         <v>325</v>
       </c>
-      <c r="I15" t="s">
-        <v>326</v>
-      </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>2006</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" t="s">
         <v>325</v>
       </c>
-      <c r="I16" t="s">
-        <v>326</v>
-      </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>2006</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17" t="s">
         <v>325</v>
       </c>
-      <c r="I17" t="s">
-        <v>326</v>
-      </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>2006</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" t="s">
         <v>325</v>
       </c>
-      <c r="I18" t="s">
-        <v>326</v>
-      </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5047,127 +5047,127 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>2006</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" t="s">
         <v>327</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>328</v>
-      </c>
-      <c r="J19" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>2006</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" t="s">
         <v>327</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>328</v>
-      </c>
-      <c r="J20" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>2006</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" t="s">
         <v>327</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>328</v>
-      </c>
-      <c r="J21" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>2006</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" t="s">
         <v>327</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>328</v>
-      </c>
-      <c r="J22" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -5285,10 +5285,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -5355,10 +5355,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -5482,720 +5482,720 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2007</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2007</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" t="s">
         <v>331</v>
       </c>
-      <c r="I4" t="s">
-        <v>332</v>
-      </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" t="s">
         <v>331</v>
       </c>
-      <c r="I5" t="s">
-        <v>332</v>
-      </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>2007</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>2007</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2007</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2007</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>2007</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>2007</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2007</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>2007</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>2007</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2007</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
         <v>109</v>
       </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>2007</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>2007</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
         <v>113</v>
       </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>2007</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>2007</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
         <v>117</v>
       </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>2007</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>2007</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" t="s">
-        <v>122</v>
-      </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>2007</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
         <v>123</v>
       </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <v>2007</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6243,10 +6243,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6313,10 +6313,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -6411,528 +6411,528 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2008</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2008</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2008</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2008</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" t="s">
         <v>337</v>
       </c>
-      <c r="I5" t="s">
-        <v>338</v>
-      </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>2008</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" t="s">
         <v>337</v>
       </c>
-      <c r="I6" t="s">
-        <v>338</v>
-      </c>
       <c r="J6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2008</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" t="s">
         <v>337</v>
       </c>
-      <c r="I7" t="s">
-        <v>338</v>
-      </c>
       <c r="J7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2008</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
         <v>142</v>
       </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2008</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>2008</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>2008</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2008</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>2008</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
         <v>152</v>
       </c>
-      <c r="B14" t="s">
-        <v>153</v>
-      </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2008</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
         <v>154</v>
       </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2008</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s">
         <v>156</v>
       </c>
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>2008</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
         <v>158</v>
       </c>
-      <c r="B17" t="s">
-        <v>159</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>2008</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6969,10 +6969,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7042,7 +7042,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -7056,7 +7056,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -7067,10 +7067,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -7095,10 +7095,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -7123,10 +7123,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -7140,7 +7140,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -7221,10 +7221,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -7235,10 +7235,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -7266,7 +7266,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7277,10 +7277,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -7319,10 +7319,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>35</v>
@@ -7333,10 +7333,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7347,10 +7347,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7399,240 +7399,240 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2009</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
       </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2009</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2009</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>2009</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2009</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
         <v>168</v>
       </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2009</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7643,60 +7643,60 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2009</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>2009</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7704,31 +7704,31 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>2009</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -7736,31 +7736,31 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2009</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -7768,31 +7768,31 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>2009</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7800,31 +7800,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2009</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -7832,127 +7832,127 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2009</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
         <v>172</v>
       </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>2009</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
         <v>174</v>
       </c>
-      <c r="B17" t="s">
-        <v>175</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
         <v>176</v>
       </c>
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>2009</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -7963,412 +7963,412 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>2009</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I19" t="s">
+        <v>327</v>
+      </c>
+      <c r="J19" t="s">
         <v>328</v>
-      </c>
-      <c r="J19" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
         <v>178</v>
       </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>2009</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I20" t="s">
+        <v>327</v>
+      </c>
+      <c r="J20" t="s">
         <v>328</v>
-      </c>
-      <c r="J20" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
         <v>180</v>
       </c>
-      <c r="B21" t="s">
-        <v>181</v>
-      </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
         <v>182</v>
       </c>
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
         <v>184</v>
       </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
         <v>186</v>
       </c>
-      <c r="B24" t="s">
-        <v>187</v>
-      </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
         <v>188</v>
       </c>
-      <c r="B25" t="s">
-        <v>189</v>
-      </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
         <v>190</v>
       </c>
-      <c r="B26" t="s">
-        <v>191</v>
-      </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26">
         <v>2009</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
         <v>182</v>
       </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27">
         <v>2009</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="B28" t="s">
-        <v>133</v>
-      </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
         <v>192</v>
       </c>
-      <c r="B29" t="s">
-        <v>193</v>
-      </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <v>2009</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
+        <v>330</v>
+      </c>
+      <c r="I29" t="s">
         <v>331</v>
       </c>
-      <c r="I29" t="s">
-        <v>332</v>
-      </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
-        <v>195</v>
-      </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>2009</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I30" t="s">
         <v>331</v>
       </c>
-      <c r="I30" t="s">
-        <v>332</v>
-      </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>2009</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -8379,284 +8379,284 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32">
         <v>2009</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
         <v>197</v>
       </c>
-      <c r="B33" t="s">
-        <v>198</v>
-      </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>2009</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
         <v>199</v>
       </c>
-      <c r="B34" t="s">
-        <v>200</v>
-      </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
         <v>201</v>
       </c>
-      <c r="B35" t="s">
-        <v>202</v>
-      </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
         <v>203</v>
       </c>
-      <c r="B36" t="s">
-        <v>204</v>
-      </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
         <v>205</v>
       </c>
-      <c r="B37" t="s">
-        <v>206</v>
-      </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
-        <v>208</v>
-      </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
-        <v>210</v>
-      </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8669,8 +8669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8691,10 +8691,10 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -8705,10 +8705,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -8719,10 +8719,10 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8761,10 +8761,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8775,10 +8775,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8789,10 +8789,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8803,10 +8803,10 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -8817,10 +8817,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8831,10 +8831,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8859,10 +8859,10 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -8873,10 +8873,10 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -8901,10 +8901,10 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -8915,10 +8915,10 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -8929,10 +8929,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8943,10 +8943,10 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8957,10 +8957,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2">
         <v>14</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -8985,10 +8985,10 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8999,10 +8999,10 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -9013,10 +9013,10 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -9027,10 +9027,10 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -9041,10 +9041,10 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -9055,10 +9055,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -9072,7 +9072,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -9086,7 +9086,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9100,7 +9100,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9114,7 +9114,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9125,10 +9125,10 @@
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9139,10 +9139,10 @@
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9153,10 +9153,10 @@
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2">
         <v>18</v>
@@ -9181,10 +9181,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9223,10 +9223,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9237,10 +9237,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9251,10 +9251,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9265,10 +9265,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9279,10 +9279,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9293,10 +9293,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9307,10 +9307,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9321,10 +9321,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9335,10 +9335,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9349,10 +9349,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9363,10 +9363,10 @@
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9377,10 +9377,10 @@
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9391,10 +9391,10 @@
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9405,10 +9405,10 @@
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="2">
         <v>33</v>
@@ -9419,10 +9419,10 @@
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2">
         <v>33</v>
@@ -9433,10 +9433,10 @@
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9447,10 +9447,10 @@
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9461,10 +9461,10 @@
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9475,10 +9475,10 @@
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C58" s="2">
         <v>33</v>
@@ -9489,10 +9489,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9503,10 +9503,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9545,10 +9545,10 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2">
         <v>43</v>
@@ -9559,10 +9559,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9573,10 +9573,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DACA04-1C38-4F9C-822E-A5DC6046490C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02682B0F-EE2C-466B-A01C-A4AE188A8681}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="355">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -160,9 +160,6 @@
     <t>Latin America</t>
   </si>
   <si>
-    <t>MTB</t>
-  </si>
-  <si>
     <t>Pringle, CM</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>Tedesco, PA</t>
   </si>
   <si>
-    <t>PATS</t>
-  </si>
-  <si>
     <t>Bogan, MT</t>
   </si>
   <si>
@@ -637,9 +631,6 @@
     <t>Prat Fornells, N</t>
   </si>
   <si>
-    <t>NPFL</t>
-  </si>
-  <si>
     <t>Colon-Gaud, C</t>
   </si>
   <si>
@@ -805,9 +796,6 @@
     <t>Dangles, O</t>
   </si>
   <si>
-    <t>OD</t>
-  </si>
-  <si>
     <t>Andino, P</t>
   </si>
   <si>
@@ -898,9 +886,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t>NPT</t>
-  </si>
-  <si>
     <t>Ribeiro, MC</t>
   </si>
   <si>
@@ -1112,6 +1097,18 @@
   </si>
   <si>
     <t>JACSL</t>
+  </si>
+  <si>
+    <t>MICBG</t>
+  </si>
+  <si>
+    <t>OLIDAN</t>
+  </si>
+  <si>
+    <t>PABTED</t>
+  </si>
+  <si>
+    <t>NARPRAF</t>
   </si>
 </sst>
 </file>
@@ -1196,12 +1193,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1489,7 +1482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1503,9 +1496,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,12 +1512,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1533,12 +1526,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1547,12 +1540,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1561,12 +1554,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1575,12 +1568,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1589,9 +1582,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -1603,12 +1596,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1617,12 +1610,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1631,12 +1624,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -1645,12 +1638,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1659,12 +1652,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1673,12 +1666,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1687,12 +1680,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1701,12 +1694,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -1715,12 +1708,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1738,25 +1731,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1776,27 +1769,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1808,248 +1801,248 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2067,7 +2060,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2076,12 +2069,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2099,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2108,12 +2101,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2131,7 +2124,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2140,12 +2133,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2163,21 +2156,21 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2195,30 +2188,30 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>2010</v>
@@ -2227,21 +2220,21 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2259,24 +2252,24 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -2288,248 +2281,248 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H18" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -2547,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2556,12 +2549,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -2579,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2588,7 +2581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2611,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2620,12 +2613,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2643,7 +2636,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2652,12 +2645,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2675,7 +2668,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2684,12 +2677,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2707,7 +2700,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2716,12 +2709,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -2739,7 +2732,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2748,12 +2741,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -2771,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2780,12 +2773,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -2803,7 +2796,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2812,12 +2805,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -2835,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2844,7 +2837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2867,30 +2860,30 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D36">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>2010</v>
@@ -2899,30 +2892,30 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>2010</v>
@@ -2931,30 +2924,30 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>2010</v>
@@ -2963,30 +2956,30 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>2010</v>
@@ -2995,30 +2988,30 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>2010</v>
@@ -3027,30 +3020,30 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>2010</v>
@@ -3059,30 +3052,30 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42">
         <v>2010</v>
@@ -3091,30 +3084,30 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>2010</v>
@@ -3123,21 +3116,21 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3155,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3164,12 +3157,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
@@ -3187,30 +3180,30 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
+        <v>344</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
         <v>349</v>
       </c>
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>251</v>
-      </c>
-      <c r="B46" t="s">
-        <v>354</v>
-      </c>
       <c r="C46" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D46">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>2010</v>
@@ -3219,21 +3212,21 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I46" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3251,21 +3244,21 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3283,21 +3276,21 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I48" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3315,30 +3308,30 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D50">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <v>2010</v>
@@ -3347,30 +3340,30 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D51">
         <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51">
         <v>2010</v>
@@ -3379,30 +3372,30 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I51" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52">
         <v>2010</v>
@@ -3411,21 +3404,21 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I52" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3443,24 +3436,24 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I53" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <v>26</v>
@@ -3472,27 +3465,27 @@
         <v>2010</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55">
         <v>26</v>
@@ -3504,27 +3497,27 @@
         <v>2010</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56">
         <v>26</v>
@@ -3536,27 +3529,27 @@
         <v>2010</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57">
         <v>26</v>
@@ -3568,27 +3561,27 @@
         <v>2010</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <v>26</v>
@@ -3600,27 +3593,27 @@
         <v>2010</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
+        <v>345</v>
+      </c>
+      <c r="I58" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" t="s">
         <v>350</v>
       </c>
-      <c r="I58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>275</v>
-      </c>
-      <c r="B59" t="s">
-        <v>355</v>
-      </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59">
         <v>26</v>
@@ -3632,27 +3625,27 @@
         <v>2010</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60">
         <v>26</v>
@@ -3664,27 +3657,27 @@
         <v>2010</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61">
         <v>26</v>
@@ -3696,24 +3689,24 @@
         <v>2010</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3731,7 +3724,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3740,12 +3733,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B63" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3763,7 +3756,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3772,76 +3765,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64">
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H64" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
-      <c r="B65" t="s">
-        <v>284</v>
+      <c r="B65" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65">
         <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
@@ -3859,21 +3852,21 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -3891,21 +3884,21 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I67" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -3923,21 +3916,21 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I68" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3955,21 +3948,21 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I69" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3987,21 +3980,21 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I70" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4019,21 +4012,21 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I71" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
@@ -4051,21 +4044,21 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I72" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4083,21 +4076,21 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4115,21 +4108,21 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4147,21 +4140,21 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4179,16 +4172,16 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I76" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -4211,16 +4204,16 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I77" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4243,21 +4236,21 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I78" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4275,21 +4268,21 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
         <v>32</v>
@@ -4307,21 +4300,21 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4339,21 +4332,21 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B82" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4371,21 +4364,21 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4403,16 +4396,16 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I83" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -4435,13 +4428,13 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I84" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4457,16 +4450,16 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4486,120 +4479,120 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2006</v>
       </c>
       <c r="G2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" t="s">
         <v>315</v>
       </c>
-      <c r="H2" t="s">
-        <v>320</v>
-      </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>2006</v>
       </c>
       <c r="G3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" t="s">
         <v>315</v>
       </c>
-      <c r="H3" t="s">
-        <v>320</v>
-      </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>2006</v>
       </c>
       <c r="G4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" t="s">
         <v>315</v>
       </c>
-      <c r="H4" t="s">
-        <v>320</v>
-      </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -4617,21 +4610,21 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -4649,21 +4642,21 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -4681,21 +4674,21 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -4713,48 +4706,48 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>2006</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4762,39 +4755,39 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -4806,27 +4799,27 @@
         <v>2006</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>18</v>
@@ -4838,161 +4831,161 @@
         <v>2006</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>2006</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>2006</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>2006</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I15" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>2006</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>2006</v>
@@ -5001,30 +4994,30 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>2006</v>
@@ -5033,21 +5026,21 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I18" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -5065,30 +5058,30 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>2006</v>
@@ -5097,21 +5090,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -5129,21 +5122,21 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5161,13 +5154,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J22" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5180,12 +5173,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5199,12 +5192,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5213,12 +5206,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -5227,12 +5220,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5241,12 +5234,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -5255,12 +5248,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -5269,12 +5262,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -5283,12 +5276,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -5297,12 +5290,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -5311,12 +5304,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -5325,12 +5318,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -5339,12 +5332,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>111</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -5353,12 +5346,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -5367,12 +5360,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -5381,12 +5374,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -5395,12 +5388,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -5409,12 +5402,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -5423,12 +5416,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -5447,22 +5440,22 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5482,42 +5475,42 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>2007</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5526,15 +5519,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -5546,10 +5539,10 @@
         <v>2007</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5558,143 +5551,143 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>2007</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>2007</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -5706,27 +5699,27 @@
         <v>2007</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -5738,27 +5731,27 @@
         <v>2007</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -5770,56 +5763,56 @@
         <v>2007</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>2007</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5837,30 +5830,30 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -5869,30 +5862,30 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>2007</v>
@@ -5901,21 +5894,21 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -5933,21 +5926,21 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -5965,21 +5958,21 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -5997,21 +5990,21 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -6029,21 +6022,21 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -6061,21 +6054,21 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -6093,21 +6086,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -6125,21 +6118,21 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -6157,21 +6150,21 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -6189,13 +6182,13 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6211,9 +6204,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6227,12 +6220,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6241,12 +6234,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6255,12 +6248,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6269,12 +6262,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -6283,12 +6276,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -6297,12 +6290,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6311,12 +6304,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
         <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -6325,12 +6318,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6339,12 +6332,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -6353,12 +6346,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
         <v>156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -6380,18 +6373,18 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6411,33 +6404,33 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>2008</v>
@@ -6446,21 +6439,21 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6478,21 +6471,21 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -6510,21 +6503,21 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -6542,21 +6535,21 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -6574,21 +6567,21 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -6606,21 +6599,21 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -6638,21 +6631,21 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -6670,21 +6663,21 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -6702,21 +6695,21 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -6734,21 +6727,21 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -6766,21 +6759,21 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -6798,21 +6791,21 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -6830,21 +6823,21 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -6862,30 +6855,30 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>2008</v>
@@ -6894,7 +6887,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6903,12 +6896,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -6926,7 +6919,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6945,15 +6938,15 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6967,12 +6960,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6981,12 +6974,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -6995,12 +6988,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7009,12 +7002,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -7023,12 +7016,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
         <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>168</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7037,12 +7030,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -7051,12 +7044,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -7065,12 +7058,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -7079,12 +7072,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -7093,12 +7086,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -7107,12 +7100,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
         <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>174</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -7121,12 +7114,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -7135,12 +7128,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -7149,12 +7142,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
         <v>180</v>
-      </c>
-      <c r="B15" t="s">
-        <v>182</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -7163,12 +7156,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7177,12 +7170,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7191,12 +7184,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -7205,12 +7198,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -7219,12 +7212,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -7233,12 +7226,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
         <v>192</v>
-      </c>
-      <c r="B21" t="s">
-        <v>194</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -7247,7 +7240,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -7261,12 +7254,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7275,12 +7268,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -7289,12 +7282,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -7303,12 +7296,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -7317,12 +7310,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>35</v>
@@ -7331,12 +7324,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7345,12 +7338,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7369,17 +7362,17 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -7399,24 +7392,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -7434,21 +7427,21 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -7466,21 +7459,21 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -7498,21 +7491,21 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -7530,21 +7523,21 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -7562,21 +7555,21 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -7594,7 +7587,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7603,12 +7596,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -7626,7 +7619,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7635,7 +7628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7658,21 +7651,21 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -7690,21 +7683,21 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -7722,21 +7715,21 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -7754,21 +7747,21 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -7786,21 +7779,21 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -7818,21 +7811,21 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -7850,21 +7843,21 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I15" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -7882,7 +7875,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7891,12 +7884,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -7914,7 +7907,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7923,12 +7916,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -7946,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7955,7 +7948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7978,30 +7971,30 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>2009</v>
@@ -8010,117 +8003,117 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I20" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -8135,56 +8128,56 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -8202,30 +8195,30 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I26" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>2009</v>
@@ -8234,21 +8227,21 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
@@ -8266,30 +8259,30 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
       </c>
       <c r="F29">
         <v>2009</v>
@@ -8298,24 +8291,24 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I29" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>32</v>
@@ -8330,30 +8323,30 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>2009</v>
@@ -8362,16 +8355,16 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -8394,30 +8387,30 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>2009</v>
@@ -8426,237 +8419,237 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H34" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H37" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I37" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H38" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40">
         <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8669,13 +8662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8689,12 +8685,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -8703,12 +8699,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -8717,12 +8713,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -8731,12 +8727,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -8745,12 +8741,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8759,12 +8755,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8773,12 +8769,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8787,12 +8783,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8801,12 +8797,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -8815,12 +8811,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8829,12 +8825,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8843,12 +8839,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8857,12 +8853,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -8871,12 +8867,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8885,12 +8881,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -8899,12 +8895,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -8913,12 +8909,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -8927,12 +8923,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8941,12 +8937,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8955,12 +8951,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2">
         <v>14</v>
@@ -8969,9 +8965,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -8983,12 +8979,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8997,12 +8993,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -9011,12 +9007,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -9025,12 +9021,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -9039,12 +9035,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -9053,12 +9049,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -9067,12 +9063,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -9081,12 +9077,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9095,12 +9091,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9109,12 +9105,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9123,12 +9119,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9137,12 +9133,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9151,12 +9147,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9165,12 +9161,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2">
         <v>18</v>
@@ -9179,12 +9175,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>354</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>253</v>
+        <v>349</v>
+      </c>
+      <c r="B37" t="s">
+        <v>352</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9193,12 +9189,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9207,12 +9203,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9221,12 +9217,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9235,12 +9231,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9249,12 +9245,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9263,12 +9259,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9277,12 +9273,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9291,12 +9287,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9305,12 +9301,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9319,12 +9315,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9333,12 +9329,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9347,12 +9343,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9361,12 +9357,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9375,12 +9371,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9389,12 +9385,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9403,12 +9399,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2">
         <v>33</v>
@@ -9417,12 +9413,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" s="2">
         <v>33</v>
@@ -9431,12 +9427,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9445,12 +9441,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9459,12 +9455,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9473,12 +9469,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2">
         <v>33</v>
@@ -9487,12 +9483,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9501,12 +9497,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9515,9 +9511,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9529,9 +9525,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9543,12 +9539,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2">
         <v>43</v>
@@ -9557,12 +9553,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9571,12 +9567,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9585,9 +9581,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02682B0F-EE2C-466B-A01C-A4AE188A8681}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E4EEF8-D7FF-4A55-819A-EF7516D72F71}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -745,9 +745,6 @@
     <t>Ferreira, V</t>
   </si>
   <si>
-    <t>VF</t>
-  </si>
-  <si>
     <t>Canhoto, CM</t>
   </si>
   <si>
@@ -811,9 +808,6 @@
     <t>Hamerlik, L</t>
   </si>
   <si>
-    <t>LH</t>
-  </si>
-  <si>
     <t>Cadier, E</t>
   </si>
   <si>
@@ -1109,6 +1103,12 @@
   </si>
   <si>
     <t>NARPRAF</t>
+  </si>
+  <si>
+    <t>VERFERR</t>
+  </si>
+  <si>
+    <t>LADHAM</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,9 +1496,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1731,25 +1731,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1769,19 +1769,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -1801,19 +1801,19 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -1833,19 +1833,19 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -1865,19 +1865,19 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1897,19 +1897,19 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -1929,19 +1929,19 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -1961,19 +1961,19 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>207</v>
       </c>
@@ -1993,19 +1993,19 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -2025,19 +2025,19 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2069,7 +2069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2101,7 +2101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2133,7 +2133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2165,7 +2165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2197,7 +2197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2229,7 +2229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2261,7 +2261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -2281,19 +2281,19 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -2313,19 +2313,19 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -2345,19 +2345,19 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -2377,19 +2377,19 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -2409,19 +2409,19 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2441,19 +2441,19 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -2473,19 +2473,19 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -2505,19 +2505,19 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2549,7 +2549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2581,7 +2581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2613,7 +2613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>218</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2645,7 +2645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2677,7 +2677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2709,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2741,7 +2741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2773,7 +2773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2805,7 +2805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>228</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2837,7 +2837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2860,16 +2860,16 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>230</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2892,24 +2892,24 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2924,24 +2924,24 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
         <v>234</v>
       </c>
-      <c r="B38" t="s">
-        <v>235</v>
-      </c>
       <c r="C38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2956,24 +2956,24 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
         <v>236</v>
       </c>
-      <c r="B39" t="s">
-        <v>237</v>
-      </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2988,21 +2988,21 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
         <v>238</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3020,7 +3020,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3029,12 +3029,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s">
         <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>241</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3052,7 +3052,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3061,12 +3061,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
         <v>242</v>
-      </c>
-      <c r="B42" t="s">
-        <v>243</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3084,7 +3084,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3093,12 +3093,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
         <v>244</v>
-      </c>
-      <c r="B43" t="s">
-        <v>245</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3116,7 +3116,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3125,12 +3125,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" t="s">
         <v>246</v>
-      </c>
-      <c r="B44" t="s">
-        <v>247</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3148,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3157,7 +3157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3189,15 +3189,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3212,21 +3212,21 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3244,21 +3244,21 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
         <v>250</v>
-      </c>
-      <c r="B48" t="s">
-        <v>251</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3276,21 +3276,21 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" t="s">
         <v>252</v>
-      </c>
-      <c r="B49" t="s">
-        <v>253</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3308,24 +3308,24 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="C50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3340,21 +3340,21 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -3372,21 +3372,21 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -3404,21 +3404,21 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3436,21 +3436,21 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3468,7 +3468,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3477,12 +3477,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3500,7 +3500,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3509,12 +3509,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3532,7 +3532,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3541,12 +3541,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3564,7 +3564,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3573,12 +3573,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3596,7 +3596,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3605,12 +3605,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3628,7 +3628,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3637,12 +3637,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3660,7 +3660,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3669,12 +3669,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3692,7 +3692,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3701,7 +3701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>155</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3733,12 +3733,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3756,7 +3756,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3765,12 +3765,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3785,10 +3785,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3797,12 +3797,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3817,10 +3817,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3829,7 +3829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -3852,16 +3852,16 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -3884,16 +3884,16 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I67" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -3916,21 +3916,21 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3948,21 +3948,21 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I69" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3980,21 +3980,21 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I70" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4012,16 +4012,16 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -4044,21 +4044,21 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4076,21 +4076,21 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I73" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4108,21 +4108,21 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4140,21 +4140,21 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4172,16 +4172,16 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I76" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -4204,16 +4204,16 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I77" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4236,21 +4236,21 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4268,7 +4268,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4277,7 +4277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4309,12 +4309,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4332,7 +4332,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4341,12 +4341,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4364,7 +4364,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4373,12 +4373,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4396,16 +4396,16 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I83" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -4428,10 +4428,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4450,16 +4450,16 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4479,19 +4479,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4511,19 +4511,19 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4543,19 +4543,19 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -4575,19 +4575,19 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4610,16 +4610,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" t="s">
         <v>316</v>
       </c>
-      <c r="I5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4642,16 +4642,16 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" t="s">
         <v>316</v>
       </c>
-      <c r="I6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -4674,16 +4674,16 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" t="s">
         <v>316</v>
       </c>
-      <c r="I7" t="s">
-        <v>317</v>
-      </c>
-      <c r="J7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4706,16 +4706,16 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" t="s">
         <v>316</v>
       </c>
-      <c r="I8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4738,16 +4738,16 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4770,16 +4770,16 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4802,16 +4802,16 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -4834,16 +4834,16 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -4866,16 +4866,16 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -4898,16 +4898,16 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4930,16 +4930,16 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -4962,16 +4962,16 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -4994,16 +4994,16 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -5026,16 +5026,16 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5058,16 +5058,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
         <v>321</v>
       </c>
-      <c r="I19" t="s">
-        <v>322</v>
-      </c>
-      <c r="J19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -5090,16 +5090,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" t="s">
+        <v>320</v>
+      </c>
+      <c r="J20" t="s">
         <v>321</v>
       </c>
-      <c r="I20" t="s">
-        <v>322</v>
-      </c>
-      <c r="J20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -5122,16 +5122,16 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" t="s">
         <v>321</v>
       </c>
-      <c r="I21" t="s">
-        <v>322</v>
-      </c>
-      <c r="J21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -5154,13 +5154,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" t="s">
+        <v>320</v>
+      </c>
+      <c r="J22" t="s">
         <v>321</v>
-      </c>
-      <c r="I22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J22" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5176,9 +5176,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5192,12 +5192,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5206,9 +5206,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5220,12 +5220,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5234,7 +5234,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -5443,19 +5443,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5475,19 +5475,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5519,12 +5519,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -5542,7 +5542,7 @@
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5551,12 +5551,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5571,19 +5571,19 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -5603,19 +5603,19 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5647,12 +5647,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5670,7 +5670,7 @@
         <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5679,7 +5679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5711,7 +5711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5743,7 +5743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5775,7 +5775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5807,7 +5807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5839,7 +5839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5871,7 +5871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5903,7 +5903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5935,7 +5935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -5958,16 +5958,16 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -5990,16 +5990,16 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -6022,16 +6022,16 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -6054,16 +6054,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -6086,16 +6086,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -6118,16 +6118,16 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -6150,16 +6150,16 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -6182,10 +6182,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6204,9 +6204,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -6373,18 +6373,18 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6404,19 +6404,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -6439,16 +6439,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -6471,16 +6471,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -6503,16 +6503,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -6535,16 +6535,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -6567,16 +6567,16 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -6599,16 +6599,16 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -6631,16 +6631,16 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -6663,16 +6663,16 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -6695,16 +6695,16 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -6727,16 +6727,16 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -6759,16 +6759,16 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6800,7 +6800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6832,7 +6832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6864,7 +6864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6896,7 +6896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6941,12 +6941,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>190</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -7254,12 +7254,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7268,7 +7268,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>196</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -7365,14 +7365,14 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -7392,19 +7392,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -7427,16 +7427,16 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -7459,16 +7459,16 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -7491,16 +7491,16 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7523,16 +7523,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7555,16 +7555,16 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7596,7 +7596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7628,7 +7628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7651,16 +7651,16 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7683,16 +7683,16 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -7715,16 +7715,16 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7747,16 +7747,16 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7779,16 +7779,16 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7811,16 +7811,16 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -7843,16 +7843,16 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7884,7 +7884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7916,7 +7916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7948,7 +7948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7971,16 +7971,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -8003,16 +8003,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -8032,19 +8032,19 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -8064,19 +8064,19 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -8096,19 +8096,19 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -8128,19 +8128,19 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -8160,19 +8160,19 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -8195,16 +8195,16 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -8227,16 +8227,16 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -8259,16 +8259,16 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -8291,16 +8291,16 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -8323,16 +8323,16 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>193</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8364,7 +8364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8396,12 +8396,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8419,7 +8419,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8428,7 +8428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -8448,19 +8448,19 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>197</v>
       </c>
@@ -8480,19 +8480,19 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -8512,19 +8512,19 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -8544,19 +8544,19 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -8576,19 +8576,19 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -8608,19 +8608,19 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -8640,13 +8640,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8662,16 +8662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>211</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>211</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>196</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>196</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>196</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>196</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>196</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>196</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>221</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>221</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>221</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>221</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>221</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -9077,12 +9077,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>233</v>
+      <c r="B30" t="s">
+        <v>353</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9091,12 +9091,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9105,12 +9105,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9119,12 +9119,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9133,12 +9133,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9147,12 +9147,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9161,9 +9161,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>156</v>
@@ -9175,12 +9175,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9189,12 +9189,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9203,12 +9203,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9217,12 +9217,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>255</v>
+        <v>347</v>
+      </c>
+      <c r="B40" t="s">
+        <v>354</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9231,12 +9231,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9245,12 +9245,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9259,12 +9259,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9273,12 +9273,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9287,12 +9287,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9301,12 +9301,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9315,12 +9315,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9329,12 +9329,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9343,12 +9343,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9357,12 +9357,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9371,12 +9371,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9385,12 +9385,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9399,7 +9399,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>135</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -9427,12 +9427,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9441,12 +9441,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9455,12 +9455,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9469,7 +9469,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>135</v>
       </c>
@@ -9483,12 +9483,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9497,12 +9497,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9511,9 +9511,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9525,9 +9525,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9539,9 +9539,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>40</v>
@@ -9553,12 +9553,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9567,12 +9567,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9581,9 +9581,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E4EEF8-D7FF-4A55-819A-EF7516D72F71}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F340A5E8-A235-4842-821C-B042E80B0774}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -778,9 +778,6 @@
     <t>Breuer, L</t>
   </si>
   <si>
-    <t>LBR</t>
-  </si>
-  <si>
     <t>Henriques-Oliveira, AL</t>
   </si>
   <si>
@@ -877,9 +874,6 @@
     <t>Acosta, R</t>
   </si>
   <si>
-    <t>RA</t>
-  </si>
-  <si>
     <t>Ribeiro, MC</t>
   </si>
   <si>
@@ -1109,6 +1103,12 @@
   </si>
   <si>
     <t>LADHAM</t>
+  </si>
+  <si>
+    <t>RAUACO</t>
+  </si>
+  <si>
+    <t>LUTBRE</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,16 +1769,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1801,13 +1801,13 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -1833,13 +1833,13 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -1865,13 +1865,13 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -1897,13 +1897,13 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -1929,13 +1929,13 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
@@ -1961,13 +1961,13 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
@@ -1993,13 +1993,13 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -2025,13 +2025,13 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -2060,7 +2060,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2092,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2124,7 +2124,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2156,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2188,7 +2188,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2220,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2252,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2281,13 +2281,13 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -2313,13 +2313,13 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -2345,13 +2345,13 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -2377,13 +2377,13 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -2409,13 +2409,13 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -2441,13 +2441,13 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -2473,13 +2473,13 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -2505,13 +2505,13 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -2540,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2572,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2604,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2636,7 +2636,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2668,7 +2668,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2700,7 +2700,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2732,7 +2732,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2764,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2796,7 +2796,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2828,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2860,10 +2860,10 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
@@ -2877,7 +2877,7 @@
         <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2892,10 +2892,10 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
@@ -2906,10 +2906,10 @@
         <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2924,10 +2924,10 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
@@ -2941,7 +2941,7 @@
         <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2956,10 +2956,10 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
@@ -2973,7 +2973,7 @@
         <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2988,10 +2988,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
@@ -3020,7 +3020,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3052,7 +3052,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3084,7 +3084,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3098,7 +3098,7 @@
         <v>243</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3116,7 +3116,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" t="s">
         <v>245</v>
-      </c>
-      <c r="B44" t="s">
-        <v>246</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3148,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3180,7 +3180,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3212,10 +3212,10 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3244,10 +3244,10 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
         <v>249</v>
-      </c>
-      <c r="B48" t="s">
-        <v>250</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3276,10 +3276,10 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" t="s">
         <v>251</v>
-      </c>
-      <c r="B49" t="s">
-        <v>252</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3308,10 +3308,10 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3340,10 +3340,10 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
         <v>254</v>
-      </c>
-      <c r="B51" t="s">
-        <v>255</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -3372,10 +3372,10 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
@@ -3383,13 +3383,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>25</v>
@@ -3404,10 +3404,10 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" t="s">
         <v>257</v>
-      </c>
-      <c r="B53" t="s">
-        <v>258</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3436,10 +3436,10 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" t="s">
         <v>259</v>
-      </c>
-      <c r="B54" t="s">
-        <v>260</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3468,7 +3468,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
         <v>261</v>
-      </c>
-      <c r="B55" t="s">
-        <v>262</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3500,7 +3500,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" t="s">
         <v>263</v>
-      </c>
-      <c r="B56" t="s">
-        <v>264</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3532,7 +3532,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
         <v>265</v>
-      </c>
-      <c r="B57" t="s">
-        <v>266</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3564,7 +3564,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" t="s">
         <v>267</v>
-      </c>
-      <c r="B58" t="s">
-        <v>268</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3596,7 +3596,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3628,7 +3628,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" t="s">
         <v>270</v>
-      </c>
-      <c r="B60" t="s">
-        <v>271</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3660,7 +3660,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3671,10 +3671,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" t="s">
         <v>272</v>
-      </c>
-      <c r="B61" t="s">
-        <v>273</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3692,7 +3692,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3724,7 +3724,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" t="s">
         <v>274</v>
-      </c>
-      <c r="B63" t="s">
-        <v>275</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3756,7 +3756,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3785,10 +3785,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3802,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3817,10 +3817,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3852,10 +3852,10 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
@@ -3884,10 +3884,10 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I67" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
@@ -3916,10 +3916,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3948,10 +3948,10 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3980,10 +3980,10 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
@@ -3991,10 +3991,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4012,10 +4012,10 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I71" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -4044,10 +4044,10 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4076,10 +4076,10 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I73" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4108,10 +4108,10 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I74" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4140,10 +4140,10 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
@@ -4151,10 +4151,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4172,10 +4172,10 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
@@ -4204,10 +4204,10 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
@@ -4236,10 +4236,10 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4268,7 +4268,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4300,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4332,7 +4332,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4343,10 +4343,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4364,7 +4364,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4396,10 +4396,10 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I83" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -4428,10 +4428,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4479,16 +4479,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4511,13 +4511,13 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -4543,13 +4543,13 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -4575,13 +4575,13 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -4610,13 +4610,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" t="s">
         <v>314</v>
-      </c>
-      <c r="I5" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4642,13 +4642,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" t="s">
         <v>314</v>
-      </c>
-      <c r="I6" t="s">
-        <v>315</v>
-      </c>
-      <c r="J6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4674,13 +4674,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" t="s">
         <v>314</v>
-      </c>
-      <c r="I7" t="s">
-        <v>315</v>
-      </c>
-      <c r="J7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" t="s">
         <v>314</v>
-      </c>
-      <c r="I8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4738,10 +4738,10 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -4770,10 +4770,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -4802,10 +4802,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -4834,10 +4834,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -4866,10 +4866,10 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -4898,10 +4898,10 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -4930,10 +4930,10 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -4962,10 +4962,10 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -4994,10 +4994,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -5026,10 +5026,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -5058,13 +5058,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" t="s">
         <v>319</v>
-      </c>
-      <c r="I19" t="s">
-        <v>320</v>
-      </c>
-      <c r="J19" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5090,13 +5090,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" t="s">
         <v>319</v>
-      </c>
-      <c r="I20" t="s">
-        <v>320</v>
-      </c>
-      <c r="J20" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5122,13 +5122,13 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" t="s">
+        <v>318</v>
+      </c>
+      <c r="J21" t="s">
         <v>319</v>
-      </c>
-      <c r="I21" t="s">
-        <v>320</v>
-      </c>
-      <c r="J21" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5154,13 +5154,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" t="s">
+        <v>318</v>
+      </c>
+      <c r="J22" t="s">
         <v>319</v>
-      </c>
-      <c r="I22" t="s">
-        <v>320</v>
-      </c>
-      <c r="J22" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5197,7 +5197,7 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5225,7 +5225,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5475,16 +5475,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5524,7 +5524,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -5542,7 +5542,7 @@
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5556,7 +5556,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5571,13 +5571,13 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -5603,13 +5603,13 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -5638,7 +5638,7 @@
         <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5652,7 +5652,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5670,7 +5670,7 @@
         <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5702,7 +5702,7 @@
         <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5734,7 +5734,7 @@
         <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5766,7 +5766,7 @@
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5798,7 +5798,7 @@
         <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5830,7 +5830,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5862,7 +5862,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5894,7 +5894,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5926,7 +5926,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5958,10 +5958,10 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5990,10 +5990,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -6022,10 +6022,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -6054,10 +6054,10 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -6086,10 +6086,10 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -6118,10 +6118,10 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -6150,10 +6150,10 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -6182,10 +6182,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6404,16 +6404,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6439,10 +6439,10 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -6471,10 +6471,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -6503,10 +6503,10 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -6535,13 +6535,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6567,13 +6567,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6599,13 +6599,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6631,10 +6631,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
@@ -6663,10 +6663,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -6695,10 +6695,10 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
@@ -6727,10 +6727,10 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -6759,10 +6759,10 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -6791,7 +6791,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6823,7 +6823,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6855,7 +6855,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6887,7 +6887,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6919,7 +6919,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7259,7 +7259,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7392,16 +7392,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7427,10 +7427,10 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -7459,10 +7459,10 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -7491,10 +7491,10 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -7523,10 +7523,10 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -7555,10 +7555,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
@@ -7587,7 +7587,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7619,7 +7619,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7651,10 +7651,10 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -7683,10 +7683,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -7715,10 +7715,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -7747,10 +7747,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -7779,10 +7779,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -7811,10 +7811,10 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -7843,10 +7843,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -7875,7 +7875,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7907,7 +7907,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7939,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7971,13 +7971,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8003,13 +8003,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8032,13 +8032,13 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -8064,13 +8064,13 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -8096,13 +8096,13 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -8128,13 +8128,13 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -8160,13 +8160,13 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
@@ -8195,10 +8195,10 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
@@ -8227,10 +8227,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
@@ -8259,10 +8259,10 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -8291,10 +8291,10 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
@@ -8323,10 +8323,10 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
@@ -8355,7 +8355,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8387,7 +8387,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8401,7 +8401,7 @@
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8419,7 +8419,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8448,13 +8448,13 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
@@ -8480,13 +8480,13 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -8512,13 +8512,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
@@ -8544,13 +8544,13 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
@@ -8576,13 +8576,13 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -8608,13 +8608,13 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -8640,13 +8640,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8662,8 +8662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9082,7 +9082,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9151,8 +9151,8 @@
       <c r="A35" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>244</v>
+      <c r="B35" t="s">
+        <v>354</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>156</v>
@@ -9177,10 +9177,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9191,10 +9191,10 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9219,10 +9219,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9233,10 +9233,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9261,10 +9261,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9275,10 +9275,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9289,10 +9289,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9303,10 +9303,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9317,10 +9317,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9331,10 +9331,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9345,10 +9345,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9362,7 +9362,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9375,8 +9375,8 @@
       <c r="A51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>277</v>
+      <c r="B51" t="s">
+        <v>353</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9390,7 +9390,7 @@
         <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9432,7 +9432,7 @@
         <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9446,7 +9446,7 @@
         <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9460,7 +9460,7 @@
         <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9499,10 +9499,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>40</v>
@@ -9555,10 +9555,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F340A5E8-A235-4842-821C-B042E80B0774}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD212A12-8735-48AD-8807-511D2F2D25B8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="356">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -658,9 +658,6 @@
     <t>Connelly, S</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Peterson, SD</t>
   </si>
   <si>
@@ -1109,6 +1106,12 @@
   </si>
   <si>
     <t>LUTBRE</t>
+  </si>
+  <si>
+    <t>JULCHA</t>
+  </si>
+  <si>
+    <t>SCOCONN</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,16 +1772,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1801,13 +1804,13 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" t="s">
         <v>315</v>
-      </c>
-      <c r="I2" t="s">
-        <v>316</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -1833,13 +1836,13 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" t="s">
         <v>315</v>
-      </c>
-      <c r="I3" t="s">
-        <v>316</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -1865,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" t="s">
         <v>315</v>
-      </c>
-      <c r="I4" t="s">
-        <v>316</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -1897,13 +1900,13 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" t="s">
         <v>315</v>
-      </c>
-      <c r="I5" t="s">
-        <v>316</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -1929,13 +1932,13 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" t="s">
         <v>315</v>
-      </c>
-      <c r="I6" t="s">
-        <v>316</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
@@ -1946,7 +1949,7 @@
         <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1961,13 +1964,13 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" t="s">
         <v>315</v>
-      </c>
-      <c r="I7" t="s">
-        <v>316</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
@@ -1975,10 +1978,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
         <v>207</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1993,13 +1996,13 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" t="s">
         <v>315</v>
-      </c>
-      <c r="I8" t="s">
-        <v>316</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -2007,10 +2010,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
         <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2025,13 +2028,13 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" t="s">
         <v>315</v>
-      </c>
-      <c r="I9" t="s">
-        <v>316</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -2060,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2074,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2092,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2124,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2135,10 +2138,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
         <v>210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2156,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2167,10 +2170,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
         <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2188,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2199,10 +2202,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
         <v>214</v>
-      </c>
-      <c r="B15" t="s">
-        <v>215</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2220,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2231,10 +2234,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
         <v>216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2252,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2281,13 +2284,13 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H17" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" t="s">
         <v>321</v>
-      </c>
-      <c r="I17" t="s">
-        <v>322</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -2313,13 +2316,13 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H18" t="s">
+        <v>320</v>
+      </c>
+      <c r="I18" t="s">
         <v>321</v>
-      </c>
-      <c r="I18" t="s">
-        <v>322</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -2327,10 +2330,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" t="s">
-        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2345,13 +2348,13 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" t="s">
         <v>321</v>
-      </c>
-      <c r="I19" t="s">
-        <v>322</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -2377,13 +2380,13 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H20" t="s">
+        <v>320</v>
+      </c>
+      <c r="I20" t="s">
         <v>321</v>
-      </c>
-      <c r="I20" t="s">
-        <v>322</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -2409,13 +2412,13 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H21" t="s">
+        <v>320</v>
+      </c>
+      <c r="I21" t="s">
         <v>321</v>
-      </c>
-      <c r="I21" t="s">
-        <v>322</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -2441,13 +2444,13 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
+        <v>320</v>
+      </c>
+      <c r="I22" t="s">
         <v>321</v>
-      </c>
-      <c r="I22" t="s">
-        <v>322</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -2458,7 +2461,7 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2473,13 +2476,13 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s">
+        <v>320</v>
+      </c>
+      <c r="I23" t="s">
         <v>321</v>
-      </c>
-      <c r="I23" t="s">
-        <v>322</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -2487,10 +2490,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
         <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2505,13 +2508,13 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" t="s">
         <v>321</v>
-      </c>
-      <c r="I24" t="s">
-        <v>322</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -2540,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2572,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2604,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2615,10 +2618,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s">
         <v>218</v>
-      </c>
-      <c r="B28" t="s">
-        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2636,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" t="s">
         <v>220</v>
-      </c>
-      <c r="B29" t="s">
-        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2668,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2679,10 +2682,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" t="s">
         <v>222</v>
-      </c>
-      <c r="B30" t="s">
-        <v>223</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2700,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2711,10 +2714,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" t="s">
         <v>224</v>
-      </c>
-      <c r="B31" t="s">
-        <v>225</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -2732,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2764,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2775,10 +2778,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
         <v>226</v>
-      </c>
-      <c r="B33" t="s">
-        <v>227</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -2796,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2807,10 +2810,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
         <v>228</v>
-      </c>
-      <c r="B34" t="s">
-        <v>229</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -2828,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2860,10 +2863,10 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
+        <v>320</v>
+      </c>
+      <c r="I35" t="s">
         <v>321</v>
-      </c>
-      <c r="I35" t="s">
-        <v>322</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
@@ -2871,13 +2874,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
         <v>230</v>
       </c>
-      <c r="B36" t="s">
-        <v>231</v>
-      </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2892,10 +2895,10 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
+        <v>320</v>
+      </c>
+      <c r="I36" t="s">
         <v>321</v>
-      </c>
-      <c r="I36" t="s">
-        <v>322</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
@@ -2903,13 +2906,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2924,10 +2927,10 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" t="s">
         <v>321</v>
-      </c>
-      <c r="I37" t="s">
-        <v>322</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
@@ -2935,13 +2938,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
         <v>233</v>
       </c>
-      <c r="B38" t="s">
-        <v>234</v>
-      </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2956,10 +2959,10 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
+        <v>320</v>
+      </c>
+      <c r="I38" t="s">
         <v>321</v>
-      </c>
-      <c r="I38" t="s">
-        <v>322</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
@@ -2967,13 +2970,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
         <v>235</v>
       </c>
-      <c r="B39" t="s">
-        <v>236</v>
-      </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2988,10 +2991,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
+        <v>320</v>
+      </c>
+      <c r="I39" t="s">
         <v>321</v>
-      </c>
-      <c r="I39" t="s">
-        <v>322</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
@@ -2999,10 +3002,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s">
         <v>237</v>
-      </c>
-      <c r="B40" t="s">
-        <v>238</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3020,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3031,10 +3034,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" t="s">
         <v>239</v>
-      </c>
-      <c r="B41" t="s">
-        <v>240</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3052,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3063,10 +3066,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
         <v>241</v>
-      </c>
-      <c r="B42" t="s">
-        <v>242</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3084,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3095,10 +3098,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3116,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3127,10 +3130,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
         <v>244</v>
-      </c>
-      <c r="B44" t="s">
-        <v>245</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3148,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3180,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3191,13 +3194,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3212,10 +3215,10 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
+        <v>320</v>
+      </c>
+      <c r="I46" t="s">
         <v>321</v>
-      </c>
-      <c r="I46" t="s">
-        <v>322</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -3223,10 +3226,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3244,10 +3247,10 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" t="s">
         <v>321</v>
-      </c>
-      <c r="I47" t="s">
-        <v>322</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
@@ -3255,10 +3258,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
         <v>248</v>
-      </c>
-      <c r="B48" t="s">
-        <v>249</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3276,10 +3279,10 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
+        <v>320</v>
+      </c>
+      <c r="I48" t="s">
         <v>321</v>
-      </c>
-      <c r="I48" t="s">
-        <v>322</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
@@ -3287,10 +3290,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" t="s">
         <v>250</v>
-      </c>
-      <c r="B49" t="s">
-        <v>251</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3308,10 +3311,10 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" t="s">
         <v>321</v>
-      </c>
-      <c r="I49" t="s">
-        <v>322</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
@@ -3319,13 +3322,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3340,10 +3343,10 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
+        <v>320</v>
+      </c>
+      <c r="I50" t="s">
         <v>321</v>
-      </c>
-      <c r="I50" t="s">
-        <v>322</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
@@ -3351,10 +3354,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
         <v>253</v>
-      </c>
-      <c r="B51" t="s">
-        <v>254</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -3372,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
+        <v>320</v>
+      </c>
+      <c r="I51" t="s">
         <v>321</v>
-      </c>
-      <c r="I51" t="s">
-        <v>322</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
@@ -3383,10 +3386,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -3404,10 +3407,10 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
+        <v>314</v>
+      </c>
+      <c r="I52" t="s">
         <v>315</v>
-      </c>
-      <c r="I52" t="s">
-        <v>316</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
@@ -3415,10 +3418,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" t="s">
         <v>256</v>
-      </c>
-      <c r="B53" t="s">
-        <v>257</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3436,10 +3439,10 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I53" t="s">
         <v>315</v>
-      </c>
-      <c r="I53" t="s">
-        <v>316</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -3447,10 +3450,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" t="s">
         <v>258</v>
-      </c>
-      <c r="B54" t="s">
-        <v>259</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3468,7 +3471,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3479,10 +3482,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" t="s">
         <v>260</v>
-      </c>
-      <c r="B55" t="s">
-        <v>261</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3500,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
         <v>262</v>
-      </c>
-      <c r="B56" t="s">
-        <v>263</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3532,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3543,10 +3546,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" t="s">
         <v>264</v>
-      </c>
-      <c r="B57" t="s">
-        <v>265</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3564,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" t="s">
         <v>266</v>
-      </c>
-      <c r="B58" t="s">
-        <v>267</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3596,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3607,10 +3610,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3628,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3639,10 +3642,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
         <v>269</v>
-      </c>
-      <c r="B60" t="s">
-        <v>270</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3660,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3671,10 +3674,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" t="s">
         <v>271</v>
-      </c>
-      <c r="B61" t="s">
-        <v>272</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3692,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3724,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3735,10 +3738,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" t="s">
         <v>273</v>
-      </c>
-      <c r="B63" t="s">
-        <v>274</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3756,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3767,10 +3770,10 @@
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3785,10 +3788,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3802,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3817,10 +3820,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3852,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
+        <v>320</v>
+      </c>
+      <c r="I66" t="s">
         <v>321</v>
-      </c>
-      <c r="I66" t="s">
-        <v>322</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
@@ -3884,10 +3887,10 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" t="s">
         <v>321</v>
-      </c>
-      <c r="I67" t="s">
-        <v>322</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
@@ -3916,10 +3919,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
+        <v>320</v>
+      </c>
+      <c r="I68" t="s">
         <v>321</v>
-      </c>
-      <c r="I68" t="s">
-        <v>322</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
@@ -3927,10 +3930,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" t="s">
         <v>276</v>
-      </c>
-      <c r="B69" t="s">
-        <v>277</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3948,10 +3951,10 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
+        <v>320</v>
+      </c>
+      <c r="I69" t="s">
         <v>321</v>
-      </c>
-      <c r="I69" t="s">
-        <v>322</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
@@ -3959,10 +3962,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" t="s">
         <v>278</v>
-      </c>
-      <c r="B70" t="s">
-        <v>279</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3980,10 +3983,10 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
+        <v>320</v>
+      </c>
+      <c r="I70" t="s">
         <v>321</v>
-      </c>
-      <c r="I70" t="s">
-        <v>322</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
@@ -3991,10 +3994,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" t="s">
         <v>280</v>
-      </c>
-      <c r="B71" t="s">
-        <v>281</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4012,10 +4015,10 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
+        <v>320</v>
+      </c>
+      <c r="I71" t="s">
         <v>321</v>
-      </c>
-      <c r="I71" t="s">
-        <v>322</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -4044,10 +4047,10 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
+        <v>320</v>
+      </c>
+      <c r="I72" t="s">
         <v>321</v>
-      </c>
-      <c r="I72" t="s">
-        <v>322</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -4055,10 +4058,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" t="s">
         <v>282</v>
-      </c>
-      <c r="B73" t="s">
-        <v>283</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4076,10 +4079,10 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -4087,10 +4090,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" t="s">
         <v>284</v>
-      </c>
-      <c r="B74" t="s">
-        <v>285</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4108,10 +4111,10 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
@@ -4119,10 +4122,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" t="s">
         <v>286</v>
-      </c>
-      <c r="B75" t="s">
-        <v>287</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4140,10 +4143,10 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
@@ -4151,10 +4154,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" t="s">
         <v>288</v>
-      </c>
-      <c r="B76" t="s">
-        <v>289</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4172,10 +4175,10 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
+        <v>320</v>
+      </c>
+      <c r="I76" t="s">
         <v>321</v>
-      </c>
-      <c r="I76" t="s">
-        <v>322</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
@@ -4204,10 +4207,10 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
+        <v>320</v>
+      </c>
+      <c r="I77" t="s">
         <v>321</v>
-      </c>
-      <c r="I77" t="s">
-        <v>322</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
@@ -4236,10 +4239,10 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
+        <v>320</v>
+      </c>
+      <c r="I78" t="s">
         <v>321</v>
-      </c>
-      <c r="I78" t="s">
-        <v>322</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
@@ -4247,10 +4250,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" t="s">
         <v>290</v>
-      </c>
-      <c r="B79" t="s">
-        <v>291</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4268,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4300,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4311,10 +4314,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" t="s">
         <v>292</v>
-      </c>
-      <c r="B81" t="s">
-        <v>293</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4332,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" t="s">
         <v>294</v>
-      </c>
-      <c r="B82" t="s">
-        <v>295</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4364,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4375,10 +4378,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" t="s">
         <v>296</v>
-      </c>
-      <c r="B83" t="s">
-        <v>297</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4396,10 +4399,10 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -4428,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4479,16 +4482,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4511,13 +4514,13 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -4543,13 +4546,13 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -4575,13 +4578,13 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -4610,13 +4613,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
         <v>312</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>313</v>
-      </c>
-      <c r="J5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4642,13 +4645,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" t="s">
         <v>312</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>313</v>
-      </c>
-      <c r="J6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4674,13 +4677,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" t="s">
         <v>312</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>313</v>
-      </c>
-      <c r="J7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4706,13 +4709,13 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="s">
         <v>312</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>313</v>
-      </c>
-      <c r="J8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4738,10 +4741,10 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" t="s">
         <v>315</v>
-      </c>
-      <c r="I9" t="s">
-        <v>316</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -4770,10 +4773,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
+        <v>314</v>
+      </c>
+      <c r="I10" t="s">
         <v>315</v>
-      </c>
-      <c r="I10" t="s">
-        <v>316</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -4802,10 +4805,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" t="s">
         <v>315</v>
-      </c>
-      <c r="I11" t="s">
-        <v>316</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -4834,10 +4837,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" t="s">
         <v>315</v>
-      </c>
-      <c r="I12" t="s">
-        <v>316</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -4866,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
+        <v>314</v>
+      </c>
+      <c r="I13" t="s">
         <v>315</v>
-      </c>
-      <c r="I13" t="s">
-        <v>316</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -4898,10 +4901,10 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I14" t="s">
         <v>315</v>
-      </c>
-      <c r="I14" t="s">
-        <v>316</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -4930,10 +4933,10 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" t="s">
         <v>315</v>
-      </c>
-      <c r="I15" t="s">
-        <v>316</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -4962,10 +4965,10 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
+        <v>314</v>
+      </c>
+      <c r="I16" t="s">
         <v>315</v>
-      </c>
-      <c r="I16" t="s">
-        <v>316</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -4994,10 +4997,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" t="s">
         <v>315</v>
-      </c>
-      <c r="I17" t="s">
-        <v>316</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -5026,10 +5029,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
+        <v>314</v>
+      </c>
+      <c r="I18" t="s">
         <v>315</v>
-      </c>
-      <c r="I18" t="s">
-        <v>316</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -5058,13 +5061,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" t="s">
         <v>317</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>318</v>
-      </c>
-      <c r="J19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5090,13 +5093,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" t="s">
         <v>317</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>318</v>
-      </c>
-      <c r="J20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5122,13 +5125,13 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>316</v>
+      </c>
+      <c r="I21" t="s">
         <v>317</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>318</v>
-      </c>
-      <c r="J21" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5154,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" t="s">
         <v>317</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>318</v>
-      </c>
-      <c r="J22" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5173,7 +5176,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5197,7 +5200,7 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5225,7 +5228,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
@@ -5320,7 +5323,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -5440,7 +5443,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5475,16 +5478,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5510,7 +5513,7 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5524,7 +5527,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -5542,7 +5545,7 @@
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5556,7 +5559,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5571,13 +5574,13 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" t="s">
         <v>321</v>
-      </c>
-      <c r="I4" t="s">
-        <v>322</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -5603,13 +5606,13 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" t="s">
         <v>321</v>
-      </c>
-      <c r="I5" t="s">
-        <v>322</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -5638,7 +5641,7 @@
         <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5652,7 +5655,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5670,7 +5673,7 @@
         <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5702,7 +5705,7 @@
         <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5734,7 +5737,7 @@
         <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5766,7 +5769,7 @@
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5798,7 +5801,7 @@
         <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5812,7 +5815,7 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5830,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5862,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5894,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5926,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5958,10 +5961,10 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5990,10 +5993,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -6022,10 +6025,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -6054,10 +6057,10 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -6086,10 +6089,10 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -6118,10 +6121,10 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -6150,10 +6153,10 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -6182,10 +6185,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6404,16 +6407,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6439,10 +6442,10 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -6471,10 +6474,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -6503,10 +6506,10 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -6535,13 +6538,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" t="s">
         <v>327</v>
       </c>
-      <c r="I5" t="s">
-        <v>328</v>
-      </c>
       <c r="J5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6567,13 +6570,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" t="s">
         <v>327</v>
       </c>
-      <c r="I6" t="s">
-        <v>328</v>
-      </c>
       <c r="J6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6599,13 +6602,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" t="s">
         <v>327</v>
       </c>
-      <c r="I7" t="s">
-        <v>328</v>
-      </c>
       <c r="J7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6631,10 +6634,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
@@ -6663,10 +6666,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -6695,10 +6698,10 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
@@ -6727,10 +6730,10 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -6759,10 +6762,10 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -6791,7 +6794,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6823,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6855,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6887,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6919,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6937,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7259,7 +7262,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7329,7 +7332,7 @@
         <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7343,7 +7346,7 @@
         <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7361,8 +7364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7392,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7427,10 +7430,10 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -7459,10 +7462,10 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -7491,10 +7494,10 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -7523,10 +7526,10 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -7555,10 +7558,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
@@ -7587,7 +7590,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7619,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7651,10 +7654,10 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -7683,10 +7686,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -7715,10 +7718,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -7747,10 +7750,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -7779,10 +7782,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -7811,10 +7814,10 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -7843,10 +7846,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -7875,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7907,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7939,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7971,13 +7974,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I19" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" t="s">
         <v>318</v>
-      </c>
-      <c r="J19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8003,13 +8006,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I20" t="s">
+        <v>317</v>
+      </c>
+      <c r="J20" t="s">
         <v>318</v>
-      </c>
-      <c r="J20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8032,13 +8035,13 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -8064,13 +8067,13 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -8096,13 +8099,13 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -8128,13 +8131,13 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -8160,13 +8163,13 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
@@ -8195,10 +8198,10 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
@@ -8227,10 +8230,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
@@ -8259,10 +8262,10 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -8291,10 +8294,10 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
+        <v>320</v>
+      </c>
+      <c r="I29" t="s">
         <v>321</v>
-      </c>
-      <c r="I29" t="s">
-        <v>322</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
@@ -8323,10 +8326,10 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
+        <v>320</v>
+      </c>
+      <c r="I30" t="s">
         <v>321</v>
-      </c>
-      <c r="I30" t="s">
-        <v>322</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
@@ -8355,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8387,7 +8390,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8401,7 +8404,7 @@
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8419,7 +8422,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8448,13 +8451,13 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
@@ -8480,13 +8483,13 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -8512,13 +8515,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
@@ -8544,13 +8547,13 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
@@ -8576,13 +8579,13 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -8593,7 +8596,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8608,13 +8611,13 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -8622,10 +8625,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
         <v>205</v>
-      </c>
-      <c r="B40" t="s">
-        <v>206</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -8640,13 +8643,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8662,8 +8665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8745,8 +8748,8 @@
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>204</v>
+      <c r="B6" t="s">
+        <v>355</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8760,7 +8763,7 @@
         <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8774,7 +8777,7 @@
         <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8788,7 +8791,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8813,10 +8816,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8827,10 +8830,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8841,10 +8844,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8872,7 +8875,7 @@
         <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8927,8 +8930,8 @@
       <c r="A19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>204</v>
+      <c r="B19" t="s">
+        <v>355</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8942,7 +8945,7 @@
         <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8984,7 +8987,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8995,10 +8998,10 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -9009,10 +9012,10 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -9023,7 +9026,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>136</v>
@@ -9037,10 +9040,10 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -9051,10 +9054,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -9068,7 +9071,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -9082,7 +9085,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9096,7 +9099,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9110,7 +9113,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9121,10 +9124,10 @@
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9135,10 +9138,10 @@
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9149,10 +9152,10 @@
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9163,7 +9166,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>156</v>
@@ -9177,10 +9180,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9191,10 +9194,10 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9205,10 +9208,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9219,10 +9222,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9233,10 +9236,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9247,10 +9250,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9261,10 +9264,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9275,10 +9278,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9289,10 +9292,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9303,10 +9306,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9317,10 +9320,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9331,10 +9334,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9345,10 +9348,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9362,7 +9365,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9376,7 +9379,7 @@
         <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9390,7 +9393,7 @@
         <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9432,7 +9435,7 @@
         <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9446,7 +9449,7 @@
         <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9460,7 +9463,7 @@
         <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9485,10 +9488,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9499,10 +9502,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9513,7 +9516,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>40</v>
@@ -9555,10 +9558,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9569,10 +9572,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD212A12-8735-48AD-8807-511D2F2D25B8}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{570FA4A8-5411-4358-A985-BD6E9AF19E6A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -796,9 +796,6 @@
     <t>Espinosa, R</t>
   </si>
   <si>
-    <t>RES</t>
-  </si>
-  <si>
     <t>Hamerlik, L</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>SCOCONN</t>
+  </si>
+  <si>
+    <t>RODESP</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1772,16 +1772,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1804,13 +1804,13 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" t="s">
         <v>314</v>
-      </c>
-      <c r="I2" t="s">
-        <v>315</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -1836,13 +1836,13 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" t="s">
         <v>314</v>
-      </c>
-      <c r="I3" t="s">
-        <v>315</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -1868,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" t="s">
         <v>314</v>
-      </c>
-      <c r="I4" t="s">
-        <v>315</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -1900,13 +1900,13 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" t="s">
         <v>314</v>
-      </c>
-      <c r="I5" t="s">
-        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -1932,13 +1932,13 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" t="s">
         <v>314</v>
-      </c>
-      <c r="I6" t="s">
-        <v>315</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
@@ -1949,7 +1949,7 @@
         <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1964,13 +1964,13 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" t="s">
         <v>314</v>
-      </c>
-      <c r="I7" t="s">
-        <v>315</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
@@ -1996,13 +1996,13 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" t="s">
         <v>314</v>
-      </c>
-      <c r="I8" t="s">
-        <v>315</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -2028,13 +2028,13 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" t="s">
         <v>314</v>
-      </c>
-      <c r="I9" t="s">
-        <v>315</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -2063,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2127,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2255,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2284,13 +2284,13 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H17" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" t="s">
         <v>320</v>
-      </c>
-      <c r="I17" t="s">
-        <v>321</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -2316,13 +2316,13 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H18" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" t="s">
         <v>320</v>
-      </c>
-      <c r="I18" t="s">
-        <v>321</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -2348,13 +2348,13 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" t="s">
         <v>320</v>
-      </c>
-      <c r="I19" t="s">
-        <v>321</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -2380,13 +2380,13 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" t="s">
         <v>320</v>
-      </c>
-      <c r="I20" t="s">
-        <v>321</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -2412,13 +2412,13 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" t="s">
         <v>320</v>
-      </c>
-      <c r="I21" t="s">
-        <v>321</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -2444,13 +2444,13 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" t="s">
         <v>320</v>
-      </c>
-      <c r="I22" t="s">
-        <v>321</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -2461,7 +2461,7 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2476,13 +2476,13 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" t="s">
         <v>320</v>
-      </c>
-      <c r="I23" t="s">
-        <v>321</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -2508,13 +2508,13 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H24" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" t="s">
         <v>320</v>
-      </c>
-      <c r="I24" t="s">
-        <v>321</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2575,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2639,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2671,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2703,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2735,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2799,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2831,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2863,10 +2863,10 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
+        <v>319</v>
+      </c>
+      <c r="I35" t="s">
         <v>320</v>
-      </c>
-      <c r="I35" t="s">
-        <v>321</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
@@ -2880,7 +2880,7 @@
         <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2895,10 +2895,10 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
+        <v>319</v>
+      </c>
+      <c r="I36" t="s">
         <v>320</v>
-      </c>
-      <c r="I36" t="s">
-        <v>321</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
@@ -2909,10 +2909,10 @@
         <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2927,10 +2927,10 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" t="s">
         <v>320</v>
-      </c>
-      <c r="I37" t="s">
-        <v>321</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
@@ -2944,7 +2944,7 @@
         <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2959,10 +2959,10 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" t="s">
         <v>320</v>
-      </c>
-      <c r="I38" t="s">
-        <v>321</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2991,10 +2991,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" t="s">
         <v>320</v>
-      </c>
-      <c r="I39" t="s">
-        <v>321</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
@@ -3023,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3055,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3101,7 +3101,7 @@
         <v>242</v>
       </c>
       <c r="B43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3119,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3151,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3183,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3197,10 +3197,10 @@
         <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3215,10 +3215,10 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
+        <v>319</v>
+      </c>
+      <c r="I46" t="s">
         <v>320</v>
-      </c>
-      <c r="I46" t="s">
-        <v>321</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -3229,7 +3229,7 @@
         <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3247,10 +3247,10 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
+        <v>319</v>
+      </c>
+      <c r="I47" t="s">
         <v>320</v>
-      </c>
-      <c r="I47" t="s">
-        <v>321</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
@@ -3279,10 +3279,10 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
+        <v>319</v>
+      </c>
+      <c r="I48" t="s">
         <v>320</v>
-      </c>
-      <c r="I48" t="s">
-        <v>321</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
@@ -3293,7 +3293,7 @@
         <v>249</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3311,10 +3311,10 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
+        <v>319</v>
+      </c>
+      <c r="I49" t="s">
         <v>320</v>
-      </c>
-      <c r="I49" t="s">
-        <v>321</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3343,10 +3343,10 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
+        <v>319</v>
+      </c>
+      <c r="I50" t="s">
         <v>320</v>
-      </c>
-      <c r="I50" t="s">
-        <v>321</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" t="s">
         <v>252</v>
-      </c>
-      <c r="B51" t="s">
-        <v>253</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -3375,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
+        <v>319</v>
+      </c>
+      <c r="I51" t="s">
         <v>320</v>
-      </c>
-      <c r="I51" t="s">
-        <v>321</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -3407,10 +3407,10 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" t="s">
         <v>314</v>
-      </c>
-      <c r="I52" t="s">
-        <v>315</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
         <v>255</v>
-      </c>
-      <c r="B53" t="s">
-        <v>256</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3439,10 +3439,10 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
+        <v>313</v>
+      </c>
+      <c r="I53" t="s">
         <v>314</v>
-      </c>
-      <c r="I53" t="s">
-        <v>315</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" t="s">
         <v>257</v>
-      </c>
-      <c r="B54" t="s">
-        <v>258</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3471,7 +3471,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" t="s">
         <v>259</v>
-      </c>
-      <c r="B55" t="s">
-        <v>260</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3503,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" t="s">
         <v>261</v>
-      </c>
-      <c r="B56" t="s">
-        <v>262</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3535,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" t="s">
         <v>263</v>
-      </c>
-      <c r="B57" t="s">
-        <v>264</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3567,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" t="s">
         <v>265</v>
-      </c>
-      <c r="B58" t="s">
-        <v>266</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3631,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" t="s">
         <v>268</v>
-      </c>
-      <c r="B60" t="s">
-        <v>269</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
         <v>270</v>
-      </c>
-      <c r="B61" t="s">
-        <v>271</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3695,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
         <v>272</v>
-      </c>
-      <c r="B63" t="s">
-        <v>273</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3759,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3788,10 +3788,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3805,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3820,10 +3820,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3855,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
+        <v>319</v>
+      </c>
+      <c r="I66" t="s">
         <v>320</v>
-      </c>
-      <c r="I66" t="s">
-        <v>321</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
@@ -3887,10 +3887,10 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
+        <v>319</v>
+      </c>
+      <c r="I67" t="s">
         <v>320</v>
-      </c>
-      <c r="I67" t="s">
-        <v>321</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
@@ -3919,10 +3919,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
+        <v>319</v>
+      </c>
+      <c r="I68" t="s">
         <v>320</v>
-      </c>
-      <c r="I68" t="s">
-        <v>321</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" t="s">
         <v>275</v>
-      </c>
-      <c r="B69" t="s">
-        <v>276</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3951,10 +3951,10 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
+        <v>319</v>
+      </c>
+      <c r="I69" t="s">
         <v>320</v>
-      </c>
-      <c r="I69" t="s">
-        <v>321</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
         <v>277</v>
-      </c>
-      <c r="B70" t="s">
-        <v>278</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3983,10 +3983,10 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
+        <v>319</v>
+      </c>
+      <c r="I70" t="s">
         <v>320</v>
-      </c>
-      <c r="I70" t="s">
-        <v>321</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
         <v>279</v>
-      </c>
-      <c r="B71" t="s">
-        <v>280</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4015,10 +4015,10 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
+        <v>319</v>
+      </c>
+      <c r="I71" t="s">
         <v>320</v>
-      </c>
-      <c r="I71" t="s">
-        <v>321</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -4047,10 +4047,10 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
+        <v>319</v>
+      </c>
+      <c r="I72" t="s">
         <v>320</v>
-      </c>
-      <c r="I72" t="s">
-        <v>321</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" t="s">
         <v>281</v>
-      </c>
-      <c r="B73" t="s">
-        <v>282</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4079,10 +4079,10 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" t="s">
         <v>283</v>
-      </c>
-      <c r="B74" t="s">
-        <v>284</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4111,10 +4111,10 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
         <v>285</v>
-      </c>
-      <c r="B75" t="s">
-        <v>286</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4143,10 +4143,10 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" t="s">
         <v>287</v>
-      </c>
-      <c r="B76" t="s">
-        <v>288</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4175,10 +4175,10 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
+        <v>319</v>
+      </c>
+      <c r="I76" t="s">
         <v>320</v>
-      </c>
-      <c r="I76" t="s">
-        <v>321</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
@@ -4207,10 +4207,10 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
+        <v>319</v>
+      </c>
+      <c r="I77" t="s">
         <v>320</v>
-      </c>
-      <c r="I77" t="s">
-        <v>321</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
@@ -4239,10 +4239,10 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
+        <v>319</v>
+      </c>
+      <c r="I78" t="s">
         <v>320</v>
-      </c>
-      <c r="I78" t="s">
-        <v>321</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
         <v>289</v>
-      </c>
-      <c r="B79" t="s">
-        <v>290</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4271,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4303,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" t="s">
         <v>291</v>
-      </c>
-      <c r="B81" t="s">
-        <v>292</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4335,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82" t="s">
         <v>293</v>
-      </c>
-      <c r="B82" t="s">
-        <v>294</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4367,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4378,10 +4378,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" t="s">
         <v>295</v>
-      </c>
-      <c r="B83" t="s">
-        <v>296</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4399,10 +4399,10 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -4431,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4482,16 +4482,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,13 +4514,13 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -4546,13 +4546,13 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -4578,13 +4578,13 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -4613,13 +4613,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" t="s">
         <v>311</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>312</v>
-      </c>
-      <c r="J5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,13 +4645,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" t="s">
         <v>311</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>312</v>
-      </c>
-      <c r="J6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,13 +4677,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" t="s">
         <v>311</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>312</v>
-      </c>
-      <c r="J7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4709,13 +4709,13 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" t="s">
         <v>311</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>312</v>
-      </c>
-      <c r="J8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,10 +4741,10 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" t="s">
         <v>314</v>
-      </c>
-      <c r="I9" t="s">
-        <v>315</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -4773,10 +4773,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" t="s">
         <v>314</v>
-      </c>
-      <c r="I10" t="s">
-        <v>315</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -4805,10 +4805,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" t="s">
         <v>314</v>
-      </c>
-      <c r="I11" t="s">
-        <v>315</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -4837,10 +4837,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
+        <v>313</v>
+      </c>
+      <c r="I12" t="s">
         <v>314</v>
-      </c>
-      <c r="I12" t="s">
-        <v>315</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -4869,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" t="s">
         <v>314</v>
-      </c>
-      <c r="I13" t="s">
-        <v>315</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -4901,10 +4901,10 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" t="s">
         <v>314</v>
-      </c>
-      <c r="I14" t="s">
-        <v>315</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -4933,10 +4933,10 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I15" t="s">
         <v>314</v>
-      </c>
-      <c r="I15" t="s">
-        <v>315</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -4965,10 +4965,10 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I16" t="s">
         <v>314</v>
-      </c>
-      <c r="I16" t="s">
-        <v>315</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -4997,10 +4997,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
+        <v>313</v>
+      </c>
+      <c r="I17" t="s">
         <v>314</v>
-      </c>
-      <c r="I17" t="s">
-        <v>315</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -5029,10 +5029,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" t="s">
         <v>314</v>
-      </c>
-      <c r="I18" t="s">
-        <v>315</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -5061,13 +5061,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" t="s">
         <v>316</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>317</v>
-      </c>
-      <c r="J19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5093,13 +5093,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>315</v>
+      </c>
+      <c r="I20" t="s">
         <v>316</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>317</v>
-      </c>
-      <c r="J20" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,13 +5125,13 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>315</v>
+      </c>
+      <c r="I21" t="s">
         <v>316</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>317</v>
-      </c>
-      <c r="J21" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5157,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" t="s">
         <v>316</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>317</v>
-      </c>
-      <c r="J22" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5200,7 +5200,7 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5228,7 +5228,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -5478,16 +5478,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5513,7 +5513,7 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5527,7 +5527,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -5545,7 +5545,7 @@
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5559,7 +5559,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5574,13 +5574,13 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I4" t="s">
         <v>320</v>
-      </c>
-      <c r="I4" t="s">
-        <v>321</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -5606,13 +5606,13 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I5" t="s">
         <v>320</v>
-      </c>
-      <c r="I5" t="s">
-        <v>321</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -5641,7 +5641,7 @@
         <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5655,7 +5655,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5673,7 +5673,7 @@
         <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5705,7 +5705,7 @@
         <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5737,7 +5737,7 @@
         <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5769,7 +5769,7 @@
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5801,7 +5801,7 @@
         <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5815,7 +5815,7 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5865,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5897,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5929,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5961,10 +5961,10 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5993,10 +5993,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -6025,10 +6025,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -6057,10 +6057,10 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -6089,10 +6089,10 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -6121,10 +6121,10 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -6153,10 +6153,10 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -6185,10 +6185,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6407,16 +6407,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6442,10 +6442,10 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -6474,10 +6474,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -6506,10 +6506,10 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -6538,13 +6538,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" t="s">
         <v>326</v>
       </c>
-      <c r="I5" t="s">
-        <v>327</v>
-      </c>
       <c r="J5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6570,13 +6570,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" t="s">
         <v>326</v>
       </c>
-      <c r="I6" t="s">
-        <v>327</v>
-      </c>
       <c r="J6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6602,13 +6602,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" t="s">
         <v>326</v>
       </c>
-      <c r="I7" t="s">
-        <v>327</v>
-      </c>
       <c r="J7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6634,10 +6634,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
@@ -6666,10 +6666,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -6698,10 +6698,10 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
@@ -6730,10 +6730,10 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -6762,10 +6762,10 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -6794,7 +6794,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6858,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6890,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6922,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7262,7 +7262,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7332,7 +7332,7 @@
         <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7395,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7430,10 +7430,10 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -7462,10 +7462,10 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -7494,10 +7494,10 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -7526,10 +7526,10 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -7558,10 +7558,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
@@ -7590,7 +7590,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7622,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7654,10 +7654,10 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -7686,10 +7686,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -7718,10 +7718,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -7750,10 +7750,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -7782,10 +7782,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -7814,10 +7814,10 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -7846,10 +7846,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -7878,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7942,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7974,13 +7974,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I19" t="s">
+        <v>316</v>
+      </c>
+      <c r="J19" t="s">
         <v>317</v>
-      </c>
-      <c r="J19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8006,13 +8006,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I20" t="s">
+        <v>316</v>
+      </c>
+      <c r="J20" t="s">
         <v>317</v>
-      </c>
-      <c r="J20" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8035,13 +8035,13 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -8067,13 +8067,13 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -8099,13 +8099,13 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -8131,13 +8131,13 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -8163,13 +8163,13 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
@@ -8198,10 +8198,10 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
@@ -8230,10 +8230,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
@@ -8262,10 +8262,10 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -8294,10 +8294,10 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" t="s">
         <v>320</v>
-      </c>
-      <c r="I29" t="s">
-        <v>321</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
@@ -8326,10 +8326,10 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I30" t="s">
         <v>320</v>
-      </c>
-      <c r="I30" t="s">
-        <v>321</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
@@ -8358,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8390,7 +8390,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8404,7 +8404,7 @@
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8422,7 +8422,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8451,13 +8451,13 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
@@ -8483,13 +8483,13 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -8515,13 +8515,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
@@ -8547,13 +8547,13 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
@@ -8579,13 +8579,13 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -8596,7 +8596,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8611,13 +8611,13 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -8643,13 +8643,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8665,8 +8665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8749,7 +8749,7 @@
         <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8931,7 +8931,7 @@
         <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -9085,7 +9085,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9155,7 +9155,7 @@
         <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9180,10 +9180,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>248</v>
@@ -9208,10 +9208,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>250</v>
+        <v>343</v>
+      </c>
+      <c r="B39" t="s">
+        <v>355</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9236,10 +9236,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9250,10 +9250,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9264,10 +9264,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9278,10 +9278,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9320,10 +9320,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9334,10 +9334,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9348,10 +9348,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9365,7 +9365,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9379,7 +9379,7 @@
         <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9393,7 +9393,7 @@
         <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9435,7 +9435,7 @@
         <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9449,7 +9449,7 @@
         <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9463,7 +9463,7 @@
         <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9488,10 +9488,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9502,10 +9502,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>40</v>
@@ -9558,10 +9558,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9572,10 +9572,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{570FA4A8-5411-4358-A985-BD6E9AF19E6A}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0158B67-A195-4C4A-B142-2AED2BFCCB40}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -586,15 +586,9 @@
     <t>Flowers, RW</t>
   </si>
   <si>
-    <t>RWF</t>
-  </si>
-  <si>
     <t>Funk, DH</t>
   </si>
   <si>
-    <t>DHF</t>
-  </si>
-  <si>
     <t>Avila, S</t>
   </si>
   <si>
@@ -1112,6 +1106,12 @@
   </si>
   <si>
     <t>RODESP</t>
+  </si>
+  <si>
+    <t>RWILFLO</t>
+  </si>
+  <si>
+    <t>DAVHFUN</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -1772,24 +1772,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1804,13 +1804,13 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1836,13 +1836,13 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -1868,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -1900,13 +1900,13 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -1932,13 +1932,13 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1964,13 +1964,13 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1996,13 +1996,13 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2028,13 +2028,13 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -2063,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2077,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2127,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2255,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2284,13 +2284,13 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -2316,13 +2316,13 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2348,13 +2348,13 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -2380,13 +2380,13 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -2412,13 +2412,13 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -2444,13 +2444,13 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2476,13 +2476,13 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2508,13 +2508,13 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2575,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2639,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2671,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2703,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -2735,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2778,10 +2778,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -2799,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -2831,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2863,10 +2863,10 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2895,10 +2895,10 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
@@ -2906,13 +2906,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2927,10 +2927,10 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2959,10 +2959,10 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
@@ -2970,13 +2970,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2991,10 +2991,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3023,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3055,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3119,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3151,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3183,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3194,13 +3194,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3215,10 +3215,10 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3247,10 +3247,10 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3279,10 +3279,10 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3311,10 +3311,10 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3343,10 +3343,10 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -3375,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -3407,10 +3407,10 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3439,10 +3439,10 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3471,7 +3471,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3503,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3535,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3567,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3631,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3695,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3759,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3788,10 +3788,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3805,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3820,10 +3820,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3855,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
@@ -3887,10 +3887,10 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
@@ -3919,10 +3919,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I68" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3951,10 +3951,10 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I69" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3983,10 +3983,10 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4015,10 +4015,10 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I71" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -4047,10 +4047,10 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I72" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4079,10 +4079,10 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4111,10 +4111,10 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4143,10 +4143,10 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4175,10 +4175,10 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I76" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
@@ -4207,10 +4207,10 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
@@ -4239,10 +4239,10 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4271,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4303,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4335,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4367,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4378,10 +4378,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4399,10 +4399,10 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -4431,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4482,16 +4482,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,13 +4514,13 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -4546,13 +4546,13 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -4578,13 +4578,13 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -4613,13 +4613,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" t="s">
         <v>310</v>
-      </c>
-      <c r="I5" t="s">
-        <v>311</v>
-      </c>
-      <c r="J5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,13 +4645,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" t="s">
         <v>310</v>
-      </c>
-      <c r="I6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,13 +4677,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" t="s">
         <v>310</v>
-      </c>
-      <c r="I7" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4709,13 +4709,13 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" t="s">
         <v>310</v>
-      </c>
-      <c r="I8" t="s">
-        <v>311</v>
-      </c>
-      <c r="J8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,10 +4741,10 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -4773,10 +4773,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -4805,10 +4805,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -4837,10 +4837,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -4869,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -4901,10 +4901,10 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -4933,10 +4933,10 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -4965,10 +4965,10 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -4997,10 +4997,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -5029,10 +5029,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -5061,13 +5061,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>313</v>
+      </c>
+      <c r="I19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J19" t="s">
         <v>315</v>
-      </c>
-      <c r="I19" t="s">
-        <v>316</v>
-      </c>
-      <c r="J19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5093,13 +5093,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" t="s">
+        <v>314</v>
+      </c>
+      <c r="J20" t="s">
         <v>315</v>
-      </c>
-      <c r="I20" t="s">
-        <v>316</v>
-      </c>
-      <c r="J20" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,13 +5125,13 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" t="s">
+        <v>314</v>
+      </c>
+      <c r="J21" t="s">
         <v>315</v>
-      </c>
-      <c r="I21" t="s">
-        <v>316</v>
-      </c>
-      <c r="J21" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5157,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" t="s">
+        <v>314</v>
+      </c>
+      <c r="J22" t="s">
         <v>315</v>
-      </c>
-      <c r="I22" t="s">
-        <v>316</v>
-      </c>
-      <c r="J22" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5200,7 +5200,7 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5228,7 +5228,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -5478,16 +5478,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5513,7 +5513,7 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5527,7 +5527,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -5545,7 +5545,7 @@
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5559,7 +5559,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5574,13 +5574,13 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -5606,13 +5606,13 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -5641,7 +5641,7 @@
         <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5655,7 +5655,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5673,7 +5673,7 @@
         <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5705,7 +5705,7 @@
         <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5737,7 +5737,7 @@
         <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5769,7 +5769,7 @@
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5801,7 +5801,7 @@
         <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5815,7 +5815,7 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5865,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5897,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5929,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5961,10 +5961,10 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5993,10 +5993,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -6025,10 +6025,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -6057,10 +6057,10 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -6089,10 +6089,10 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -6121,10 +6121,10 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -6153,10 +6153,10 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -6185,10 +6185,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6407,16 +6407,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6442,10 +6442,10 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -6474,10 +6474,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -6506,10 +6506,10 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -6538,13 +6538,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6570,13 +6570,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6602,13 +6602,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6634,10 +6634,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
@@ -6666,10 +6666,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -6698,10 +6698,10 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
@@ -6730,10 +6730,10 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -6762,10 +6762,10 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -6794,7 +6794,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6858,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6890,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6922,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6940,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7150,7 +7150,7 @@
         <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -7164,7 +7164,7 @@
         <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7178,7 +7178,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7192,7 +7192,7 @@
         <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
         <v>130</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
         <v>190</v>
-      </c>
-      <c r="B21" t="s">
-        <v>192</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -7262,7 +7262,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
         <v>196</v>
-      </c>
-      <c r="B24" t="s">
-        <v>198</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -7287,10 +7287,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -7301,10 +7301,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7343,10 +7343,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7364,8 +7364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7395,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7430,10 +7430,10 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -7462,10 +7462,10 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -7494,10 +7494,10 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -7526,10 +7526,10 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -7558,10 +7558,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
@@ -7590,7 +7590,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7622,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7654,10 +7654,10 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -7686,10 +7686,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -7718,10 +7718,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -7750,10 +7750,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -7782,10 +7782,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -7814,10 +7814,10 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -7846,10 +7846,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -7878,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7942,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7974,13 +7974,13 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8006,13 +8006,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8035,13 +8035,13 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -8052,7 +8052,7 @@
         <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -8067,13 +8067,13 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -8099,13 +8099,13 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -8113,10 +8113,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -8131,13 +8131,13 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
@@ -8163,13 +8163,13 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -8198,10 +8198,10 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
@@ -8212,7 +8212,7 @@
         <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -8230,10 +8230,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
@@ -8262,10 +8262,10 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -8294,10 +8294,10 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
@@ -8305,10 +8305,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -8326,10 +8326,10 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -8358,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8390,7 +8390,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8422,7 +8422,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8433,10 +8433,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -8451,13 +8451,13 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -8483,13 +8483,13 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -8497,10 +8497,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -8515,13 +8515,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -8547,13 +8547,13 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
@@ -8579,13 +8579,13 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -8593,10 +8593,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8611,13 +8611,13 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -8643,13 +8643,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -8704,10 +8704,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -8732,10 +8732,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -8746,10 +8746,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8760,10 +8760,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8774,10 +8774,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8791,7 +8791,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8830,10 +8830,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8844,10 +8844,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8858,10 +8858,10 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -8872,10 +8872,10 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -8900,10 +8900,10 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
@@ -8928,10 +8928,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8987,7 +8987,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -9012,10 +9012,10 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>136</v>
@@ -9040,10 +9040,10 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -9071,7 +9071,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -9085,7 +9085,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9099,7 +9099,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9113,7 +9113,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9124,10 +9124,10 @@
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9138,10 +9138,10 @@
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9152,10 +9152,10 @@
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>156</v>
@@ -9180,10 +9180,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9208,10 +9208,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9236,10 +9236,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9250,10 +9250,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9264,10 +9264,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9278,10 +9278,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9320,10 +9320,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9334,10 +9334,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9348,10 +9348,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9365,7 +9365,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9379,7 +9379,7 @@
         <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2">
         <v>27</v>
@@ -9393,7 +9393,7 @@
         <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2">
         <v>31</v>
@@ -9435,7 +9435,7 @@
         <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9449,7 +9449,7 @@
         <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9463,7 +9463,7 @@
         <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9488,10 +9488,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9502,10 +9502,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>40</v>
@@ -9558,10 +9558,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9572,10 +9572,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C65" s="2">
         <v>43</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0158B67-A195-4C4A-B142-2AED2BFCCB40}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9580046A-4B5E-4970-860D-0A68C90CCF13}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="356">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -331,9 +331,6 @@
     <t>Moya, N</t>
   </si>
   <si>
-    <t>NMY</t>
-  </si>
-  <si>
     <t>Oberdorff, T</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>Ocon, CS</t>
   </si>
   <si>
-    <t>CON</t>
-  </si>
-  <si>
     <t>Capitulo, AR</t>
   </si>
   <si>
@@ -514,9 +508,6 @@
     <t>Nessimian, JL</t>
   </si>
   <si>
-    <t>JLNS</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -901,9 +892,6 @@
     <t>Ligeiro, R</t>
   </si>
   <si>
-    <t>RLG</t>
-  </si>
-  <si>
     <t>Marques Couceiro, SR</t>
   </si>
   <si>
@@ -1112,6 +1100,18 @@
   </si>
   <si>
     <t>DAVHFUN</t>
+  </si>
+  <si>
+    <t>RAPLIG</t>
+  </si>
+  <si>
+    <t>NABMOY</t>
+  </si>
+  <si>
+    <t>JORLNEM</t>
+  </si>
+  <si>
+    <t>CARSOCON</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1499,9 +1499,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1734,25 +1734,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41187-4F0C-47FC-9D22-42C69443B43F}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1772,24 +1772,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1804,24 +1804,24 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1836,24 +1836,24 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -1868,19 +1868,19 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1900,24 +1900,24 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -1932,24 +1932,24 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1964,24 +1964,24 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1996,24 +1996,24 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2028,19 +2028,19 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2072,12 +2072,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2104,7 +2104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2136,12 +2136,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2168,12 +2168,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2200,12 +2200,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2232,12 +2232,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2255,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2264,12 +2264,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2284,24 +2284,24 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -2316,24 +2316,24 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2348,24 +2348,24 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -2380,24 +2380,24 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -2412,19 +2412,19 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2444,24 +2444,24 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2476,24 +2476,24 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2508,19 +2508,19 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2552,7 +2552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2584,7 +2584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2616,12 +2616,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2639,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2648,12 +2648,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2671,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2680,12 +2680,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2703,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2712,12 +2712,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -2735,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2744,12 +2744,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2776,12 +2776,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -2799,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2808,12 +2808,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -2831,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2840,7 +2840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2863,24 +2863,24 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2895,24 +2895,24 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2927,24 +2927,24 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2959,24 +2959,24 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2991,21 +2991,21 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3023,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3032,12 +3032,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3055,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3064,12 +3064,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3096,12 +3096,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3119,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3128,12 +3128,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3151,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3160,12 +3160,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
@@ -3183,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3192,15 +3192,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3215,21 +3215,21 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I46" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3247,21 +3247,21 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3279,21 +3279,21 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I48" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3311,24 +3311,24 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3343,24 +3343,24 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I50" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>23</v>
@@ -3375,21 +3375,21 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I51" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -3407,21 +3407,21 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3439,21 +3439,21 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I53" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3471,7 +3471,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3480,12 +3480,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3503,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3512,12 +3512,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3535,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3544,12 +3544,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3567,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3576,12 +3576,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3608,12 +3608,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3631,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3640,12 +3640,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3672,12 +3672,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3695,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3704,12 +3704,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3736,12 +3736,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3759,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3768,12 +3768,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3788,10 +3788,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H64" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3800,12 +3800,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3820,10 +3820,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H65" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3832,12 +3832,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
@@ -3855,21 +3855,21 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I66" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -3887,21 +3887,21 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I67" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -3919,21 +3919,21 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I68" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3951,21 +3951,21 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I69" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3983,21 +3983,21 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I70" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4015,21 +4015,21 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I71" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
@@ -4047,21 +4047,21 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I72" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4079,21 +4079,21 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I73" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4111,21 +4111,21 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I74" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4143,21 +4143,21 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I75" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4175,16 +4175,16 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I76" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -4207,16 +4207,16 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I77" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4239,21 +4239,21 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I78" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4271,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4280,7 +4280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4312,12 +4312,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4335,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4344,12 +4344,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4367,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4376,12 +4376,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4399,16 +4399,16 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -4431,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I84" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4453,16 +4453,16 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4482,19 +4482,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -4514,19 +4514,19 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -4546,19 +4546,19 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -4578,19 +4578,19 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4613,16 +4613,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4645,16 +4645,16 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -4677,16 +4677,16 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4709,16 +4709,16 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4741,16 +4741,16 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4773,16 +4773,16 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4805,16 +4805,16 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -4837,16 +4837,16 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -4869,16 +4869,16 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -4901,16 +4901,16 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4933,16 +4933,16 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -4965,16 +4965,16 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -4997,16 +4997,16 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -5029,16 +5029,16 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -5093,16 +5093,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -5125,16 +5125,16 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -5157,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5176,12 +5176,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5195,12 +5195,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5209,9 +5209,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5223,12 +5223,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5237,7 +5237,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -5265,12 +5265,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -5279,12 +5279,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -5293,12 +5293,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -5307,12 +5307,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -5321,12 +5321,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -5335,12 +5335,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -5349,12 +5349,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -5363,12 +5363,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -5377,12 +5377,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -5391,12 +5391,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -5405,12 +5405,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -5419,12 +5419,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -5443,22 +5443,22 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5478,19 +5478,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -5510,10 +5510,10 @@
         <v>2007</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5522,15 +5522,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -5542,10 +5542,10 @@
         <v>2007</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5554,12 +5554,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5574,19 +5574,19 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -5606,19 +5606,19 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -5638,10 +5638,10 @@
         <v>2007</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5650,12 +5650,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5670,10 +5670,10 @@
         <v>2007</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5682,7 +5682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -5702,10 +5702,10 @@
         <v>2007</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5714,7 +5714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -5734,10 +5734,10 @@
         <v>2007</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5746,15 +5746,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -5766,10 +5766,10 @@
         <v>2007</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5778,15 +5778,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -5798,10 +5798,10 @@
         <v>2007</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5810,12 +5810,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5842,15 +5842,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -5865,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5874,15 +5874,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -5897,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5906,12 +5906,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -5929,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5938,12 +5938,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -5961,21 +5961,21 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
         <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -5993,21 +5993,21 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -6025,21 +6025,21 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -6057,21 +6057,21 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
         <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -6089,21 +6089,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -6121,21 +6121,21 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
         <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -6153,21 +6153,21 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
         <v>120</v>
-      </c>
-      <c r="B23" t="s">
-        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -6185,10 +6185,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6203,13 +6203,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11584AC6-7BC2-43F8-9DAC-22338D6975F5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6223,12 +6223,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6237,12 +6237,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6251,12 +6251,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6265,12 +6265,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -6279,12 +6279,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -6293,12 +6293,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6307,12 +6307,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -6321,12 +6321,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6335,12 +6335,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -6349,12 +6349,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -6373,21 +6373,21 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6407,24 +6407,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6442,21 +6442,21 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6474,21 +6474,21 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -6506,21 +6506,21 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -6538,21 +6538,21 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -6570,21 +6570,21 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -6602,21 +6602,21 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -6634,21 +6634,21 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -6666,21 +6666,21 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -6698,21 +6698,21 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -6730,21 +6730,21 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -6762,21 +6762,21 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -6794,7 +6794,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6803,12 +6803,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6835,12 +6835,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -6858,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6867,15 +6867,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
         <v>154</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -6890,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6899,12 +6899,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -6922,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6940,16 +6940,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6963,12 +6963,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6977,12 +6977,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -6991,12 +6991,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7005,12 +7005,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -7019,12 +7019,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7033,7 +7033,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -7075,12 +7075,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -7089,12 +7089,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -7103,12 +7103,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -7117,12 +7117,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -7131,12 +7131,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -7145,12 +7145,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -7159,12 +7159,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7173,12 +7173,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7187,12 +7187,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -7201,12 +7201,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -7215,12 +7215,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -7229,12 +7229,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -7243,7 +7243,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -7257,12 +7257,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7271,12 +7271,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -7285,12 +7285,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -7299,12 +7299,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -7313,9 +7313,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -7327,12 +7327,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7341,12 +7341,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7368,14 +7368,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -7395,24 +7395,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -7430,21 +7430,21 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -7462,21 +7462,21 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -7494,21 +7494,21 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -7526,21 +7526,21 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -7558,21 +7558,21 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -7590,7 +7590,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7599,12 +7599,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -7622,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7631,7 +7631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7654,16 +7654,16 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7686,16 +7686,16 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -7718,16 +7718,16 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7750,16 +7750,16 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7782,21 +7782,21 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -7814,21 +7814,21 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -7846,21 +7846,21 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -7878,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7887,12 +7887,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7919,12 +7919,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -7942,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7951,7 +7951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7974,24 +7974,24 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20">
         <v>28</v>
@@ -8006,21 +8006,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -8035,24 +8035,24 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -8067,24 +8067,24 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -8099,24 +8099,24 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -8131,24 +8131,24 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
@@ -8163,24 +8163,24 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -8198,21 +8198,21 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -8230,21 +8230,21 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
         <v>129</v>
-      </c>
-      <c r="B28" t="s">
-        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
@@ -8262,21 +8262,21 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I28" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -8294,21 +8294,21 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -8326,18 +8326,18 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -8358,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8367,7 +8367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8399,12 +8399,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8422,7 +8422,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8431,12 +8431,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -8451,24 +8451,24 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -8483,24 +8483,24 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -8515,24 +8515,24 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H36" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -8547,19 +8547,19 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -8579,24 +8579,24 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8611,24 +8611,24 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H39" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -8643,13 +8643,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8663,18 +8663,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3E30C-E2E0-41A1-BDCA-2AC4560E656A}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8688,12 +8688,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -8702,12 +8702,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -8716,9 +8716,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -8730,12 +8730,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -8744,12 +8744,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8758,12 +8758,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8772,12 +8772,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8786,12 +8786,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8800,7 +8800,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -8814,12 +8814,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8828,12 +8828,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8842,12 +8842,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8856,12 +8856,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -8870,12 +8870,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8884,12 +8884,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -8898,12 +8898,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -8912,9 +8912,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
@@ -8926,12 +8926,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8940,12 +8940,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8954,7 +8954,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -8982,12 +8982,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8996,12 +8996,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -9010,12 +9010,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -9024,12 +9024,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -9038,12 +9038,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -9052,12 +9052,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -9066,12 +9066,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -9080,12 +9080,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9094,12 +9094,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9108,12 +9108,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9122,12 +9122,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9136,12 +9136,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9150,12 +9150,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9164,12 +9164,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>239</v>
+      </c>
+      <c r="B36" t="s">
+        <v>354</v>
       </c>
       <c r="C36" s="2">
         <v>18</v>
@@ -9178,12 +9178,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9192,12 +9192,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9206,12 +9206,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9220,12 +9220,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9234,12 +9234,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9248,12 +9248,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9262,12 +9262,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9276,12 +9276,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9290,12 +9290,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9304,12 +9304,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9318,12 +9318,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9332,12 +9332,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9346,12 +9346,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9360,12 +9360,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>156</v>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>354</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9374,40 +9374,40 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" t="s">
-        <v>349</v>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C51" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2">
         <v>33</v>
@@ -9416,12 +9416,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="C54" s="2">
         <v>33</v>
@@ -9430,12 +9430,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9444,12 +9444,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9458,12 +9458,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C57" s="2">
         <v>33</v>
@@ -9472,26 +9472,26 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="C58" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9500,26 +9500,26 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>279</v>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>352</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>285</v>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>352</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C61" s="2">
         <v>42</v>
@@ -9528,26 +9528,26 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="2">
-        <v>42</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C63" s="2">
         <v>43</v>
@@ -9556,12 +9556,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9570,31 +9570,17 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="C65" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="2">
-        <v>45</v>
-      </c>
-      <c r="D66" s="2">
         <v>2010</v>
       </c>
     </row>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9580046A-4B5E-4970-860D-0A68C90CCF13}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167A12FC-A88A-4B60-A92B-EA9F719825F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -466,9 +466,6 @@
     <t>Paggi, AC</t>
   </si>
   <si>
-    <t>ACP</t>
-  </si>
-  <si>
     <t>Scheibler, EE</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>CARSOCON</t>
+  </si>
+  <si>
+    <t>ACPAGG</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1499,9 +1499,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1738,21 +1738,21 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1772,24 +1772,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1804,24 +1804,24 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" t="s">
         <v>307</v>
-      </c>
-      <c r="I2" t="s">
-        <v>308</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
         <v>192</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1836,24 +1836,24 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="s">
         <v>307</v>
-      </c>
-      <c r="I3" t="s">
-        <v>308</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
         <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -1868,19 +1868,19 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
         <v>307</v>
-      </c>
-      <c r="I4" t="s">
-        <v>308</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1900,24 +1900,24 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" t="s">
         <v>307</v>
-      </c>
-      <c r="I5" t="s">
-        <v>308</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
         <v>194</v>
-      </c>
-      <c r="B6" t="s">
-        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -1932,24 +1932,24 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" t="s">
         <v>307</v>
-      </c>
-      <c r="I6" t="s">
-        <v>308</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1964,24 +1964,24 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" t="s">
         <v>307</v>
-      </c>
-      <c r="I7" t="s">
-        <v>308</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
         <v>201</v>
-      </c>
-      <c r="B8" t="s">
-        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1996,24 +1996,24 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" t="s">
         <v>307</v>
-      </c>
-      <c r="I8" t="s">
-        <v>308</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
         <v>199</v>
-      </c>
-      <c r="B9" t="s">
-        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2028,19 +2028,19 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" t="s">
         <v>307</v>
-      </c>
-      <c r="I9" t="s">
-        <v>308</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2072,12 +2072,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2104,7 +2104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2136,12 +2136,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
         <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2168,12 +2168,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2200,12 +2200,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
         <v>208</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2232,12 +2232,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
         <v>210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2255,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2264,12 +2264,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
         <v>190</v>
-      </c>
-      <c r="B17" t="s">
-        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2284,24 +2284,24 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
+        <v>312</v>
+      </c>
+      <c r="I17" t="s">
         <v>313</v>
       </c>
-      <c r="I17" t="s">
-        <v>314</v>
-      </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
         <v>192</v>
-      </c>
-      <c r="B18" t="s">
-        <v>193</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -2316,24 +2316,24 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H18" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" t="s">
         <v>313</v>
       </c>
-      <c r="I18" t="s">
-        <v>314</v>
-      </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
         <v>201</v>
-      </c>
-      <c r="B19" t="s">
-        <v>202</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2348,24 +2348,24 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I19" t="s">
         <v>313</v>
       </c>
-      <c r="I19" t="s">
-        <v>314</v>
-      </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
         <v>194</v>
-      </c>
-      <c r="B20" t="s">
-        <v>195</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -2380,24 +2380,24 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I20" t="s">
         <v>313</v>
       </c>
-      <c r="I20" t="s">
-        <v>314</v>
-      </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s">
         <v>196</v>
-      </c>
-      <c r="B21" t="s">
-        <v>197</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -2412,19 +2412,19 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H21" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" t="s">
         <v>313</v>
       </c>
-      <c r="I21" t="s">
-        <v>314</v>
-      </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2444,24 +2444,24 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" t="s">
         <v>313</v>
       </c>
-      <c r="I22" t="s">
-        <v>314</v>
-      </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2476,24 +2476,24 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H23" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" t="s">
         <v>313</v>
       </c>
-      <c r="I23" t="s">
-        <v>314</v>
-      </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
         <v>199</v>
-      </c>
-      <c r="B24" t="s">
-        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2508,19 +2508,19 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H24" t="s">
+        <v>312</v>
+      </c>
+      <c r="I24" t="s">
         <v>313</v>
       </c>
-      <c r="I24" t="s">
-        <v>314</v>
-      </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2552,7 +2552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2584,7 +2584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2616,12 +2616,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
         <v>212</v>
-      </c>
-      <c r="B28" t="s">
-        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2639,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2648,12 +2648,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" t="s">
         <v>214</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2671,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2680,12 +2680,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" t="s">
         <v>216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>217</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2703,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2712,12 +2712,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
         <v>218</v>
-      </c>
-      <c r="B31" t="s">
-        <v>219</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -2735,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2744,7 +2744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2776,12 +2776,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
         <v>220</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -2799,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2808,12 +2808,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
         <v>222</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -2831,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2840,7 +2840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2863,24 +2863,24 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
+        <v>312</v>
+      </c>
+      <c r="I35" t="s">
         <v>313</v>
       </c>
-      <c r="I35" t="s">
-        <v>314</v>
-      </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" t="s">
         <v>224</v>
       </c>
-      <c r="B36" t="s">
-        <v>225</v>
-      </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2895,24 +2895,24 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
+        <v>312</v>
+      </c>
+      <c r="I36" t="s">
         <v>313</v>
       </c>
-      <c r="I36" t="s">
-        <v>314</v>
-      </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2927,24 +2927,24 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
+        <v>312</v>
+      </c>
+      <c r="I37" t="s">
         <v>313</v>
       </c>
-      <c r="I37" t="s">
-        <v>314</v>
-      </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
         <v>227</v>
       </c>
-      <c r="B38" t="s">
-        <v>228</v>
-      </c>
       <c r="C38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2959,24 +2959,24 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
+        <v>312</v>
+      </c>
+      <c r="I38" t="s">
         <v>313</v>
       </c>
-      <c r="I38" t="s">
-        <v>314</v>
-      </c>
       <c r="J38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
         <v>229</v>
       </c>
-      <c r="B39" t="s">
-        <v>230</v>
-      </c>
       <c r="C39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2991,21 +2991,21 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
+        <v>312</v>
+      </c>
+      <c r="I39" t="s">
         <v>313</v>
       </c>
-      <c r="I39" t="s">
-        <v>314</v>
-      </c>
       <c r="J39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" t="s">
         <v>231</v>
-      </c>
-      <c r="B40" t="s">
-        <v>232</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3023,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3032,12 +3032,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" t="s">
         <v>233</v>
-      </c>
-      <c r="B41" t="s">
-        <v>234</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3055,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3064,12 +3064,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" t="s">
         <v>235</v>
-      </c>
-      <c r="B42" t="s">
-        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3096,12 +3096,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3119,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3128,12 +3128,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" t="s">
         <v>238</v>
-      </c>
-      <c r="B44" t="s">
-        <v>239</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3151,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3160,12 +3160,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
@@ -3183,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3192,15 +3192,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3215,21 +3215,21 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
+        <v>312</v>
+      </c>
+      <c r="I46" t="s">
         <v>313</v>
       </c>
-      <c r="I46" t="s">
-        <v>314</v>
-      </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3247,21 +3247,21 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
+        <v>312</v>
+      </c>
+      <c r="I47" t="s">
         <v>313</v>
       </c>
-      <c r="I47" t="s">
-        <v>314</v>
-      </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" t="s">
         <v>242</v>
-      </c>
-      <c r="B48" t="s">
-        <v>243</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3279,21 +3279,21 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
+        <v>312</v>
+      </c>
+      <c r="I48" t="s">
         <v>313</v>
       </c>
-      <c r="I48" t="s">
-        <v>314</v>
-      </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3311,24 +3311,24 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
+        <v>312</v>
+      </c>
+      <c r="I49" t="s">
         <v>313</v>
       </c>
-      <c r="I49" t="s">
-        <v>314</v>
-      </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3343,21 +3343,21 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" t="s">
         <v>313</v>
       </c>
-      <c r="I50" t="s">
-        <v>314</v>
-      </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" t="s">
         <v>246</v>
-      </c>
-      <c r="B51" t="s">
-        <v>247</v>
       </c>
       <c r="C51" t="s">
         <v>123</v>
@@ -3375,21 +3375,21 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
+        <v>312</v>
+      </c>
+      <c r="I51" t="s">
         <v>313</v>
       </c>
-      <c r="I51" t="s">
-        <v>314</v>
-      </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -3407,21 +3407,21 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" t="s">
         <v>307</v>
-      </c>
-      <c r="I52" t="s">
-        <v>308</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
         <v>249</v>
-      </c>
-      <c r="B53" t="s">
-        <v>250</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3439,21 +3439,21 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" t="s">
         <v>307</v>
-      </c>
-      <c r="I53" t="s">
-        <v>308</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
         <v>251</v>
-      </c>
-      <c r="B54" t="s">
-        <v>252</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3471,7 +3471,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3480,12 +3480,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
         <v>253</v>
-      </c>
-      <c r="B55" t="s">
-        <v>254</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3503,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3512,12 +3512,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s">
         <v>255</v>
-      </c>
-      <c r="B56" t="s">
-        <v>256</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3535,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3544,12 +3544,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" t="s">
         <v>257</v>
-      </c>
-      <c r="B57" t="s">
-        <v>258</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3567,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3576,12 +3576,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" t="s">
         <v>259</v>
-      </c>
-      <c r="B58" t="s">
-        <v>260</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3608,12 +3608,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3631,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3640,12 +3640,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
         <v>262</v>
-      </c>
-      <c r="B60" t="s">
-        <v>263</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3672,12 +3672,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s">
         <v>264</v>
-      </c>
-      <c r="B61" t="s">
-        <v>265</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3695,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3704,12 +3704,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3736,12 +3736,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
         <v>266</v>
-      </c>
-      <c r="B63" t="s">
-        <v>267</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3759,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3768,12 +3768,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3788,10 +3788,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3800,12 +3800,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3820,10 +3820,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3832,7 +3832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -3855,16 +3855,16 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
+        <v>312</v>
+      </c>
+      <c r="I66" t="s">
         <v>313</v>
       </c>
-      <c r="I66" t="s">
-        <v>314</v>
-      </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -3887,21 +3887,21 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
+        <v>312</v>
+      </c>
+      <c r="I67" t="s">
         <v>313</v>
       </c>
-      <c r="I67" t="s">
-        <v>314</v>
-      </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
         <v>156</v>
-      </c>
-      <c r="B68" t="s">
-        <v>157</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -3919,21 +3919,21 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
+        <v>312</v>
+      </c>
+      <c r="I68" t="s">
         <v>313</v>
       </c>
-      <c r="I68" t="s">
-        <v>314</v>
-      </c>
       <c r="J68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" t="s">
         <v>269</v>
-      </c>
-      <c r="B69" t="s">
-        <v>270</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3951,21 +3951,21 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
+        <v>312</v>
+      </c>
+      <c r="I69" t="s">
         <v>313</v>
       </c>
-      <c r="I69" t="s">
-        <v>314</v>
-      </c>
       <c r="J69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
         <v>271</v>
-      </c>
-      <c r="B70" t="s">
-        <v>272</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3983,21 +3983,21 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
+        <v>312</v>
+      </c>
+      <c r="I70" t="s">
         <v>313</v>
       </c>
-      <c r="I70" t="s">
-        <v>314</v>
-      </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" t="s">
         <v>273</v>
-      </c>
-      <c r="B71" t="s">
-        <v>274</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4015,16 +4015,16 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
+        <v>312</v>
+      </c>
+      <c r="I71" t="s">
         <v>313</v>
       </c>
-      <c r="I71" t="s">
-        <v>314</v>
-      </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -4047,21 +4047,21 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
+        <v>312</v>
+      </c>
+      <c r="I72" t="s">
         <v>313</v>
       </c>
-      <c r="I72" t="s">
-        <v>314</v>
-      </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
         <v>275</v>
-      </c>
-      <c r="B73" t="s">
-        <v>276</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4079,21 +4079,21 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74" t="s">
         <v>277</v>
-      </c>
-      <c r="B74" t="s">
-        <v>278</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4111,21 +4111,21 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" t="s">
         <v>279</v>
-      </c>
-      <c r="B75" t="s">
-        <v>280</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4143,21 +4143,21 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4175,16 +4175,16 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
+        <v>312</v>
+      </c>
+      <c r="I76" t="s">
         <v>313</v>
       </c>
-      <c r="I76" t="s">
-        <v>314</v>
-      </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -4207,16 +4207,16 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
+        <v>312</v>
+      </c>
+      <c r="I77" t="s">
         <v>313</v>
       </c>
-      <c r="I77" t="s">
-        <v>314</v>
-      </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4239,21 +4239,21 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
+        <v>312</v>
+      </c>
+      <c r="I78" t="s">
         <v>313</v>
       </c>
-      <c r="I78" t="s">
-        <v>314</v>
-      </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" t="s">
         <v>282</v>
-      </c>
-      <c r="B79" t="s">
-        <v>283</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4271,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4280,7 +4280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4312,12 +4312,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" t="s">
         <v>284</v>
-      </c>
-      <c r="B81" t="s">
-        <v>285</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4335,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4344,12 +4344,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" t="s">
         <v>286</v>
-      </c>
-      <c r="B82" t="s">
-        <v>287</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4367,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4376,12 +4376,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" t="s">
         <v>288</v>
-      </c>
-      <c r="B83" t="s">
-        <v>289</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4399,16 +4399,16 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -4431,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4453,16 +4453,16 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4482,19 +4482,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4514,19 +4514,19 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4546,19 +4546,19 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -4578,19 +4578,19 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4613,16 +4613,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" t="s">
         <v>304</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>305</v>
       </c>
-      <c r="J5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4645,16 +4645,16 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" t="s">
         <v>304</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>305</v>
       </c>
-      <c r="J6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -4677,16 +4677,16 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" t="s">
         <v>304</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>305</v>
       </c>
-      <c r="J7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4709,16 +4709,16 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" t="s">
         <v>304</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>305</v>
       </c>
-      <c r="J8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4741,16 +4741,16 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" t="s">
         <v>307</v>
-      </c>
-      <c r="I9" t="s">
-        <v>308</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4773,16 +4773,16 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" t="s">
         <v>307</v>
-      </c>
-      <c r="I10" t="s">
-        <v>308</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4805,16 +4805,16 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" t="s">
         <v>307</v>
-      </c>
-      <c r="I11" t="s">
-        <v>308</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -4837,16 +4837,16 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I12" t="s">
         <v>307</v>
-      </c>
-      <c r="I12" t="s">
-        <v>308</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -4869,16 +4869,16 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I13" t="s">
         <v>307</v>
-      </c>
-      <c r="I13" t="s">
-        <v>308</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -4901,16 +4901,16 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" t="s">
         <v>307</v>
-      </c>
-      <c r="I14" t="s">
-        <v>308</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4933,16 +4933,16 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" t="s">
         <v>307</v>
-      </c>
-      <c r="I15" t="s">
-        <v>308</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -4965,16 +4965,16 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" t="s">
         <v>307</v>
-      </c>
-      <c r="I16" t="s">
-        <v>308</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -4997,16 +4997,16 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" t="s">
         <v>307</v>
-      </c>
-      <c r="I17" t="s">
-        <v>308</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -5029,16 +5029,16 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
+        <v>306</v>
+      </c>
+      <c r="I18" t="s">
         <v>307</v>
-      </c>
-      <c r="I18" t="s">
-        <v>308</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" t="s">
         <v>309</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>310</v>
       </c>
-      <c r="J19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -5093,16 +5093,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" t="s">
         <v>309</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>310</v>
       </c>
-      <c r="J20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -5125,16 +5125,16 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" t="s">
         <v>309</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>310</v>
       </c>
-      <c r="J21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -5157,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
+        <v>308</v>
+      </c>
+      <c r="I22" t="s">
         <v>309</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>310</v>
-      </c>
-      <c r="J22" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5179,9 +5179,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5195,12 +5195,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5209,9 +5209,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -5223,12 +5223,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5237,7 +5237,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -5265,12 +5265,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -5279,7 +5279,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -5307,9 +5307,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>102</v>
@@ -5321,9 +5321,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
@@ -5335,7 +5335,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -5446,19 +5446,19 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5478,19 +5478,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5522,12 +5522,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
         <v>122</v>
@@ -5545,7 +5545,7 @@
         <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5554,12 +5554,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5574,19 +5574,19 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" t="s">
         <v>313</v>
       </c>
-      <c r="I4" t="s">
-        <v>314</v>
-      </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -5606,19 +5606,19 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" t="s">
         <v>313</v>
       </c>
-      <c r="I5" t="s">
-        <v>314</v>
-      </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5650,12 +5650,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5673,7 +5673,7 @@
         <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5682,7 +5682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5714,7 +5714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5746,12 +5746,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -5769,7 +5769,7 @@
         <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5778,7 +5778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5810,12 +5810,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5842,7 +5842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5874,7 +5874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5906,7 +5906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5938,7 +5938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -5961,16 +5961,16 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -5993,16 +5993,16 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -6025,16 +6025,16 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -6057,16 +6057,16 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -6089,16 +6089,16 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -6121,16 +6121,16 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -6153,16 +6153,16 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -6185,10 +6185,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6204,12 +6204,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -6279,9 +6279,9 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
@@ -6293,12 +6293,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" t="s">
         <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6307,12 +6307,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -6321,12 +6321,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6335,12 +6335,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -6349,12 +6349,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -6373,21 +6373,21 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6407,19 +6407,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6442,16 +6442,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -6474,16 +6474,16 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -6506,16 +6506,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -6538,16 +6538,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I5" t="s">
         <v>319</v>
       </c>
-      <c r="I5" t="s">
-        <v>320</v>
-      </c>
       <c r="J5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -6570,16 +6570,16 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" t="s">
         <v>319</v>
       </c>
-      <c r="I6" t="s">
-        <v>320</v>
-      </c>
       <c r="J6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -6602,21 +6602,21 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" t="s">
         <v>319</v>
       </c>
-      <c r="I7" t="s">
-        <v>320</v>
-      </c>
       <c r="J7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -6634,16 +6634,16 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -6666,21 +6666,21 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -6698,21 +6698,21 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
         <v>141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -6730,21 +6730,21 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
         <v>143</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -6762,21 +6762,21 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
         <v>145</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -6794,7 +6794,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6803,12 +6803,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
         <v>147</v>
-      </c>
-      <c r="B14" t="s">
-        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6835,12 +6835,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
         <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -6858,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6867,15 +6867,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
         <v>151</v>
       </c>
-      <c r="B16" t="s">
-        <v>152</v>
-      </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -6890,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6899,12 +6899,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -6922,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6944,12 +6944,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6963,12 +6963,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6977,12 +6977,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -6991,7 +6991,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -7019,12 +7019,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7033,7 +7033,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -7075,12 +7075,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -7089,12 +7089,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -7103,12 +7103,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -7117,12 +7117,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -7131,12 +7131,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -7145,12 +7145,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -7159,12 +7159,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7173,12 +7173,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7187,12 +7187,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -7201,12 +7201,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -7215,9 +7215,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>129</v>
@@ -7229,12 +7229,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -7243,7 +7243,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -7257,12 +7257,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7271,12 +7271,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -7285,12 +7285,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -7299,12 +7299,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -7313,9 +7313,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -7327,12 +7327,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7341,12 +7341,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7368,14 +7368,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -7395,19 +7395,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -7430,21 +7430,21 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -7462,21 +7462,21 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -7494,16 +7494,16 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7526,16 +7526,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7558,21 +7558,21 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -7590,7 +7590,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7599,12 +7599,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
         <v>162</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -7622,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7631,7 +7631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7654,16 +7654,16 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7686,16 +7686,16 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -7718,16 +7718,16 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7750,16 +7750,16 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7782,21 +7782,21 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -7814,21 +7814,21 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -7846,21 +7846,21 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
         <v>166</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -7878,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7887,12 +7887,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
         <v>168</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7919,12 +7919,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
         <v>170</v>
-      </c>
-      <c r="B18" t="s">
-        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -7942,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7951,7 +7951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7974,21 +7974,21 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I19" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" t="s">
         <v>310</v>
       </c>
-      <c r="J19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
         <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>124</v>
@@ -8006,21 +8006,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I20" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" t="s">
         <v>310</v>
       </c>
-      <c r="J20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
         <v>174</v>
-      </c>
-      <c r="B21" t="s">
-        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -8035,24 +8035,24 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -8067,24 +8067,24 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -8099,24 +8099,24 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
         <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -8131,24 +8131,24 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
         <v>180</v>
-      </c>
-      <c r="B25" t="s">
-        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
@@ -8163,24 +8163,24 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
         <v>182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -8198,21 +8198,21 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -8230,16 +8230,16 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -8262,21 +8262,21 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
         <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -8294,21 +8294,21 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I29" t="s">
         <v>313</v>
       </c>
-      <c r="I29" t="s">
-        <v>314</v>
-      </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="s">
         <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -8326,18 +8326,18 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" t="s">
         <v>313</v>
       </c>
-      <c r="I30" t="s">
-        <v>314</v>
-      </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -8358,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8367,7 +8367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8399,12 +8399,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8422,7 +8422,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8431,12 +8431,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
         <v>190</v>
-      </c>
-      <c r="B34" t="s">
-        <v>191</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -8451,24 +8451,24 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
         <v>192</v>
-      </c>
-      <c r="B35" t="s">
-        <v>193</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -8483,24 +8483,24 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
         <v>194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>195</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -8515,24 +8515,24 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" t="s">
         <v>196</v>
-      </c>
-      <c r="B37" t="s">
-        <v>197</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -8547,19 +8547,19 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -8579,24 +8579,24 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8611,24 +8611,24 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
         <v>199</v>
-      </c>
-      <c r="B40" t="s">
-        <v>200</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -8643,13 +8643,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8669,12 +8669,12 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8688,12 +8688,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -8702,12 +8702,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -8716,9 +8716,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -8730,12 +8730,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -8744,12 +8744,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8758,12 +8758,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8772,12 +8772,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8786,12 +8786,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8800,7 +8800,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -8814,12 +8814,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8828,12 +8828,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8842,12 +8842,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8856,12 +8856,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -8870,12 +8870,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8884,12 +8884,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -8898,12 +8898,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -8912,9 +8912,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
@@ -8926,12 +8926,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8940,12 +8940,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8954,7 +8954,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -8982,12 +8982,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8996,12 +8996,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -9010,12 +9010,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -9024,9 +9024,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>135</v>
@@ -9038,12 +9038,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
@@ -9052,12 +9052,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2">
         <v>15</v>
@@ -9066,12 +9066,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -9080,12 +9080,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
@@ -9094,12 +9094,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2">
         <v>16</v>
@@ -9108,12 +9108,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -9122,12 +9122,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -9136,12 +9136,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2">
         <v>17</v>
@@ -9150,12 +9150,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
@@ -9164,12 +9164,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2">
         <v>18</v>
@@ -9178,12 +9178,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2">
         <v>23</v>
@@ -9192,12 +9192,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2">
         <v>23</v>
@@ -9206,12 +9206,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
@@ -9220,12 +9220,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2">
         <v>23</v>
@@ -9234,12 +9234,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2">
         <v>23</v>
@@ -9248,12 +9248,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -9262,12 +9262,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="2">
         <v>26</v>
@@ -9276,12 +9276,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C44" s="2">
         <v>26</v>
@@ -9290,12 +9290,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -9304,12 +9304,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="2">
         <v>26</v>
@@ -9318,12 +9318,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -9332,12 +9332,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2">
         <v>26</v>
@@ -9346,12 +9346,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -9360,12 +9360,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C50" s="2">
         <v>27</v>
@@ -9374,12 +9374,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2">
         <v>31</v>
@@ -9388,7 +9388,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>134</v>
       </c>
@@ -9402,12 +9402,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" s="2">
         <v>33</v>
@@ -9416,12 +9416,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="2">
         <v>33</v>
@@ -9430,12 +9430,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C55" s="2">
         <v>33</v>
@@ -9444,12 +9444,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C56" s="2">
         <v>33</v>
@@ -9458,7 +9458,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
@@ -9472,12 +9472,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" s="2">
         <v>40</v>
@@ -9486,12 +9486,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -9500,9 +9500,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>25</v>
@@ -9514,9 +9514,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>20</v>
@@ -9528,9 +9528,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>40</v>
@@ -9542,12 +9542,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2">
         <v>43</v>
@@ -9556,12 +9556,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C64" s="2">
         <v>43</v>
@@ -9570,9 +9570,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>

--- a/data/data2006_2010.xlsx
+++ b/data/data2006_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167A12FC-A88A-4B60-A92B-EA9F719825F5}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{8617EE84-77AF-40D8-9794-25860B5770BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C9401E-ECA8-48F5-8604-0324BB97058C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2006authors" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>JDA</t>
   </si>
   <si>
-    <t>SSGN</t>
-  </si>
-  <si>
     <t>Taphorn, DC</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>BK</t>
   </si>
   <si>
-    <t>TSQU</t>
-  </si>
-  <si>
     <t>Roque, FD</t>
   </si>
   <si>
@@ -535,9 +529,6 @@
     <t>VSUI</t>
   </si>
   <si>
-    <t>MSPI</t>
-  </si>
-  <si>
     <t>AESI</t>
   </si>
   <si>
@@ -1112,6 +1103,15 @@
   </si>
   <si>
     <t>ACPAGG</t>
+  </si>
+  <si>
+    <t>SAMSEG</t>
+  </si>
+  <si>
+    <t>TADSIQUE</t>
+  </si>
+  <si>
+    <t>MARCSPIE</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,7 +1604,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1618,7 +1618,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1632,7 +1632,7 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -1646,7 +1646,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1688,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1702,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -1716,7 +1716,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1772,24 +1772,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1804,13 +1804,13 @@
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1836,13 +1836,13 @@
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -1868,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -1900,13 +1900,13 @@
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -1932,13 +1932,13 @@
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1964,13 +1964,13 @@
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1996,13 +1996,13 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2028,13 +2028,13 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -2063,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2077,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -2127,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I15" t="s">
         <v>41</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2255,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2284,13 +2284,13 @@
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -2316,13 +2316,13 @@
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2348,13 +2348,13 @@
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -2380,13 +2380,13 @@
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -2412,13 +2412,13 @@
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -2444,13 +2444,13 @@
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2476,13 +2476,13 @@
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2508,13 +2508,13 @@
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -2575,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2639,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2671,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -2703,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -2735,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2749,7 +2749,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -2778,10 +2778,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -2799,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -2831,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -2863,10 +2863,10 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2895,10 +2895,10 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
@@ -2906,13 +2906,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2927,10 +2927,10 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2959,10 +2959,10 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
@@ -2970,13 +2970,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2991,10 +2991,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3023,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3055,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3119,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -3151,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
@@ -3183,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -3194,13 +3194,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -3215,10 +3215,10 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3247,10 +3247,10 @@
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3279,10 +3279,10 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3311,10 +3311,10 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D50">
         <v>23</v>
@@ -3343,10 +3343,10 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51">
         <v>23</v>
@@ -3375,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -3407,10 +3407,10 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -3439,10 +3439,10 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3471,7 +3471,7 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I54" t="s">
         <v>43</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3503,7 +3503,7 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I55" t="s">
         <v>43</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3535,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I56" t="s">
         <v>43</v>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -3567,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I57" t="s">
         <v>43</v>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I58" t="s">
         <v>43</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -3631,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I59" t="s">
         <v>43</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
         <v>43</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -3695,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -3759,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -3788,10 +3788,10 @@
         <v>2010</v>
       </c>
       <c r="G64" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H64" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -3805,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
@@ -3820,10 +3820,10 @@
         <v>2010</v>
       </c>
       <c r="G65" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H65" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
@@ -3837,7 +3837,7 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
@@ -3855,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I66" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
@@ -3869,7 +3869,7 @@
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -3887,10 +3887,10 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I67" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -3919,10 +3919,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I68" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -3951,10 +3951,10 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I69" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -3983,10 +3983,10 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I70" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4015,10 +4015,10 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I71" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -4029,7 +4029,7 @@
         <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
@@ -4047,10 +4047,10 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4079,10 +4079,10 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4111,10 +4111,10 @@
         <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J74" t="s">
         <v>48</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4143,10 +4143,10 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J75" t="s">
         <v>48</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
@@ -4175,10 +4175,10 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I76" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
@@ -4207,10 +4207,10 @@
         <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I77" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
@@ -4239,10 +4239,10 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -4271,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
@@ -4303,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4335,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I81" t="s">
         <v>44</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4367,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
@@ -4378,10 +4378,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4399,10 +4399,10 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -4431,10 +4431,10 @@
         <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -4450,7 +4450,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4482,16 +4482,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -4514,13 +4514,13 @@
         <v>2006</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -4534,7 +4534,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -4546,13 +4546,13 @@
         <v>2006</v>
       </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -4566,7 +4566,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -4578,13 +4578,13 @@
         <v>2006</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -4613,13 +4613,13 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,13 +4645,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,13 +4677,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4709,13 +4709,13 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,10 +4741,10 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -4773,10 +4773,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -4787,7 +4787,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -4805,10 +4805,10 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -4837,10 +4837,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -4848,10 +4848,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
         <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -4869,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -4901,10 +4901,10 @@
         <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -4933,10 +4933,10 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -4965,10 +4965,10 @@
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -4997,10 +4997,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -5029,10 +5029,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
@@ -5061,24 +5061,24 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -5093,21 +5093,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -5125,21 +5125,21 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5157,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -5211,10 +5211,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -5295,10 +5295,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -5421,10 +5421,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -5478,27 +5478,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -5510,10 +5510,10 @@
         <v>2007</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -5524,13 +5524,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -5542,10 +5542,10 @@
         <v>2007</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -5574,13 +5574,13 @@
         <v>2007</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -5606,13 +5606,13 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -5620,13 +5620,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -5638,10 +5638,10 @@
         <v>2007</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5670,10 +5670,10 @@
         <v>2007</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -5684,13 +5684,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -5702,10 +5702,10 @@
         <v>2007</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -5716,13 +5716,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -5734,10 +5734,10 @@
         <v>2007</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -5766,10 +5766,10 @@
         <v>2007</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -5780,13 +5780,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
         <v>95</v>
       </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -5798,10 +5798,10 @@
         <v>2007</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -5812,10 +5812,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -5844,13 +5844,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -5865,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -5876,13 +5876,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -5897,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
         <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -5929,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -5961,10 +5961,10 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
         <v>107</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -5993,10 +5993,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
         <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -6025,10 +6025,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
         <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -6057,10 +6057,10 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
         <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -6089,10 +6089,10 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
         <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -6121,10 +6121,10 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -6153,10 +6153,10 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -6164,10 +6164,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -6185,10 +6185,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -6203,8 +6203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11584AC6-7BC2-43F8-9DAC-22338D6975F5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6225,10 +6225,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6239,10 +6239,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
         <v>145</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -6351,10 +6351,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -6373,7 +6373,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6407,24 +6407,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6442,10 +6442,10 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6474,10 +6474,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -6506,10 +6506,10 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -6520,7 +6520,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -6538,21 +6538,21 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -6570,13 +6570,13 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6584,7 +6584,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -6602,21 +6602,21 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -6634,10 +6634,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -6666,10 +6666,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -6677,10 +6677,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -6698,10 +6698,10 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
@@ -6709,10 +6709,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -6730,10 +6730,10 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -6762,10 +6762,10 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -6773,10 +6773,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -6794,7 +6794,7 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -6826,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -6837,10 +6837,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -6858,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
         <v>151</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -6890,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -6901,10 +6901,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -6922,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -6940,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BB19A-2EA0-4A61-A9DC-244859107B3F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -6979,10 +6979,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -6993,10 +6993,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7007,10 +7007,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
         <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7038,7 +7038,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -7080,7 +7080,7 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -7094,7 +7094,7 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -7105,10 +7105,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -7136,7 +7136,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7189,10 +7189,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -7262,7 +7262,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -7287,10 +7287,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -7301,10 +7301,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>35</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C28">
         <v>35</v>
@@ -7343,10 +7343,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -7364,8 +7364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2ACE5-BC63-425D-AD94-10325446A3AF}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7395,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7412,7 +7412,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -7430,10 +7430,10 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
@@ -7441,10 +7441,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -7462,10 +7462,10 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -7473,10 +7473,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -7494,10 +7494,10 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
@@ -7508,7 +7508,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -7526,10 +7526,10 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
@@ -7540,7 +7540,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -7558,10 +7558,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -7590,7 +7590,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -7601,10 +7601,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -7622,7 +7622,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7654,10 +7654,10 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -7686,10 +7686,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
@@ -7718,10 +7718,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -7750,10 +7750,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -7782,10 +7782,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -7796,7 +7796,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -7814,10 +7814,10 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
@@ -7828,7 +7828,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -7846,10 +7846,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -7878,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -7889,10 +7889,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -7942,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -7974,24 +7974,24 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20">
         <v>28</v>
@@ -8006,21 +8006,21 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -8035,13 +8035,13 @@
         <v>2009</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -8067,13 +8067,13 @@
         <v>2009</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -8099,13 +8099,13 @@
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
@@ -8113,10 +8113,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -8131,13 +8131,13 @@
         <v>2009</v>
       </c>
       <c r="G24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
@@ -8163,13 +8163,13 @@
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -8198,10 +8198,10 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
@@ -8209,10 +8209,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -8230,10 +8230,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
         <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
@@ -8262,10 +8262,10 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -8294,10 +8294,10 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
@@ -8305,10 +8305,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -8326,10 +8326,10 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -8358,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -8390,7 +8390,7 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -8422,7 +8422,7 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -8433,10 +8433,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -8451,13 +8451,13 @@
         <v>2009</v>
       </c>
       <c r="G34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -8483,13 +8483,13 @@
         <v>2009</v>
       </c>
       <c r="G35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -8497,10 +8497,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -8515,13 +8515,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H36" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -8547,13 +8547,13 @@
         <v>2009</v>
       </c>
       <c r="G37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H37" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J37" t="s">
         <v>48</v>
@@ -8579,13 +8579,13 @@
         <v>2009</v>
       </c>
       <c r="G38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -8593,10 +8593,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -8611,13 +8611,13 @@
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -8643,13 +8643,13 @@
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H40" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -8666,7 +8666,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -8704,10 +8704,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -8732,10 +8732,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -8746,10 +8746,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -8760,10 +8760,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -8774,10 +8774,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -8791,7 +8791,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -8830,10 +8830,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -8844,10 +8844,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -8858,10 +8858,10 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -8872,10 +8872,10 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -8900,10 +8900,10 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
@@ -8928,10 +8928,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -8987,7 +8987,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescen